--- a/trunk/SurveyFiles/Log simulaciones PLC.xlsx
+++ b/trunk/SurveyFiles/Log simulaciones PLC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>PDR AMR</t>
   </si>
@@ -78,9 +78,6 @@
     <t>250kbps</t>
   </si>
   <si>
-    <t>PEOR CASO   -Proximo caso a probar</t>
-  </si>
-  <si>
     <t>Prueba 4 - Mejor caso probable -  con sim time de 1850s</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>MEJOR CASO, 3 buses Simulación aborta antes de completar sim time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEOR CASO </t>
   </si>
 </sst>
 </file>
@@ -104,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +146,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +153,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +244,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -416,21 +444,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -448,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -471,120 +484,138 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -889,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,67 +946,67 @@
     <col min="19" max="19" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="21" t="s">
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="S2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="B3" s="2">
         <v>13</v>
@@ -1002,7 +1033,7 @@
       <c r="I3" s="3">
         <v>31</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="30">
         <f>I3/H3</f>
         <v>0.51666666666666672</v>
       </c>
@@ -1012,7 +1043,7 @@
       <c r="L3" s="3">
         <v>119371</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="35">
         <f>L3/K3</f>
         <v>0.46102717399700299</v>
       </c>
@@ -1026,13 +1057,13 @@
         <f>O3/N3</f>
         <v>0.5</v>
       </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="18"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4">
         <v>13</v>
@@ -1053,29 +1084,29 @@
         <v>900</v>
       </c>
       <c r="I4" s="5"/>
-      <c r="J4" s="30" t="e">
+      <c r="J4" s="31" t="e">
         <f>I4/I5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="31" t="e">
+      <c r="M4" s="36" t="e">
         <f t="shared" ref="M4:M14" si="0">L4/K4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="29" t="e">
+      <c r="P4" s="41" t="e">
         <f t="shared" ref="P4:P14" si="1">O4/N4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="13"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4">
         <v>21</v>
@@ -1097,29 +1128,33 @@
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="30" t="e">
+      <c r="J5" s="31" t="e">
         <f>#REF!/H5</f>
         <v>#REF!</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="31" t="e">
+      <c r="M5" s="36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="29" t="e">
+      <c r="P5" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="W5">
+        <f>AVERAGE(V9:V27)</f>
+        <v>1.8377445272789474E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4">
         <v>21</v>
@@ -1141,233 +1176,267 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="30" t="e">
-        <f t="shared" ref="J4:J14" si="2">I6/H6</f>
+      <c r="J6" s="31" t="e">
+        <f t="shared" ref="J6:J14" si="2">I6/H6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="31" t="e">
+      <c r="M6" s="36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="29" t="e">
+      <c r="P6" s="41" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" spans="1:19" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="41">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+    </row>
+    <row r="7" spans="1:23" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="23">
         <v>0</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="21">
         <v>950</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="21">
         <v>300</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="21">
         <v>0.04</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="21">
         <v>900</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33" t="e">
+      <c r="H7" s="21">
+        <f>4*20</f>
+        <v>80</v>
+      </c>
+      <c r="I7" s="21">
+        <v>23</v>
+      </c>
+      <c r="J7" s="29">
+        <f t="shared" si="2"/>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="K7" s="21">
+        <v>472315</v>
+      </c>
+      <c r="L7" s="21">
+        <v>102701</v>
+      </c>
+      <c r="M7" s="29">
+        <f t="shared" si="0"/>
+        <v>0.21744174967976879</v>
+      </c>
+      <c r="N7" s="21">
+        <v>2</v>
+      </c>
+      <c r="O7" s="21">
+        <v>1</v>
+      </c>
+      <c r="P7" s="29">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>1.9094599999999999</v>
+      </c>
+      <c r="R7" s="45">
+        <v>2.6869700000000001</v>
+      </c>
+      <c r="S7" s="45">
+        <v>1.8370000000000001E-2</v>
+      </c>
+      <c r="V7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="23">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="21">
+        <v>950</v>
+      </c>
+      <c r="E8" s="21">
+        <v>300</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="G8" s="21">
+        <v>900</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="32" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="33" t="e">
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="33" t="e">
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="13"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="41">
-        <v>0</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="32">
-        <v>950</v>
-      </c>
-      <c r="E8" s="32">
-        <v>300</v>
-      </c>
-      <c r="F8" s="32">
-        <v>0.04</v>
-      </c>
-      <c r="G8" s="32">
-        <v>900</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33" t="e">
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="V8">
+        <v>1.8377438632999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="53">
+        <v>57</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="54">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="54">
+        <v>3600</v>
+      </c>
+      <c r="F9" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="54">
+        <v>3600</v>
+      </c>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33" t="e">
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="33" t="e">
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="55" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="13"/>
-    </row>
-    <row r="9" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="42">
-        <v>57</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="V9">
+        <v>1.8377415779000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="53">
+        <v>58</v>
+      </c>
+      <c r="C10" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D10" s="54">
+        <v>400</v>
+      </c>
+      <c r="E10" s="54">
+        <v>3600</v>
+      </c>
+      <c r="F10" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="54">
+        <v>3600</v>
+      </c>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="V10">
+        <v>1.8377486969E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="53">
+        <v>59</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="54">
         <v>4000</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E11" s="54">
         <v>3600</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F11" s="54">
         <v>0.1</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G11" s="54">
         <v>3600</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="35" t="e">
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35" t="e">
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="55" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="35" t="e">
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="55" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="13"/>
-    </row>
-    <row r="10" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="42">
-        <v>58</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="34">
-        <v>400</v>
-      </c>
-      <c r="E10" s="34">
-        <v>3600</v>
-      </c>
-      <c r="F10" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="34">
-        <v>3600</v>
-      </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="13"/>
-    </row>
-    <row r="11" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="42">
-        <v>59</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="34">
-        <v>4000</v>
-      </c>
-      <c r="E11" s="34">
-        <v>3600</v>
-      </c>
-      <c r="F11" s="34">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="34">
-        <v>3600</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="35" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="35" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="13"/>
-    </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="V11">
+        <v>1.8377447735E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1">
@@ -1376,7 +1445,7 @@
       <c r="C12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="22">
         <v>7500</v>
       </c>
       <c r="E12" s="5">
@@ -1395,7 +1464,7 @@
       <c r="I12" s="5">
         <v>52</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="31">
         <f t="shared" si="2"/>
         <v>0.8666666666666667</v>
       </c>
@@ -1406,7 +1475,7 @@
       <c r="L12" s="5">
         <v>98</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="36">
         <f t="shared" si="0"/>
         <v>0.98</v>
       </c>
@@ -1416,16 +1485,19 @@
       <c r="O12" s="5">
         <v>3</v>
       </c>
-      <c r="P12" s="29">
+      <c r="P12" s="41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="13"/>
-    </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="12"/>
+      <c r="V12">
+        <v>1.8377469962000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
       <c r="B13" s="1">
         <v>58</v>
       </c>
@@ -1451,7 +1523,7 @@
       <c r="I13" s="5">
         <v>55</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="31">
         <f t="shared" si="2"/>
         <v>0.91666666666666663</v>
       </c>
@@ -1462,7 +1534,7 @@
       <c r="L13" s="5">
         <v>99</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="36">
         <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
@@ -1472,16 +1544,19 @@
       <c r="O13" s="5">
         <v>3</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="13"/>
-    </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="12"/>
+      <c r="V13">
+        <v>1.8377466778E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
       <c r="B14" s="1">
         <v>59</v>
       </c>
@@ -1507,7 +1582,7 @@
       <c r="I14" s="5">
         <v>60</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1518,7 +1593,7 @@
       <c r="L14" s="5">
         <v>98</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="36">
         <f t="shared" si="0"/>
         <v>0.98</v>
       </c>
@@ -1528,77 +1603,83 @@
       <c r="O14" s="5">
         <v>3</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="41">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="13"/>
-    </row>
-    <row r="15" spans="1:19" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="12"/>
+      <c r="V14">
+        <v>1.8377459259000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="B15" s="46">
         <v>42</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="47">
         <v>1850</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="47">
         <v>1800</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="47">
         <v>0.1</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="47">
         <v>900</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="47">
         <v>40</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="47">
         <v>20</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="48">
         <f t="shared" ref="J15:J17" si="3">I15/H15</f>
         <v>0.5</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="47">
         <v>362953</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="47">
         <v>165036</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="49">
         <f t="shared" ref="M15:M17" si="4">L15/K15</f>
         <v>0.45470350155529782</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="47">
         <v>3</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="47">
         <v>1</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="48">
         <f t="shared" ref="P15:P17" si="5">O15/N15</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q15" s="19">
+      <c r="Q15" s="50">
         <v>4.8379999999999999E-2</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="50">
         <v>2.24E-2</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="51">
         <v>1.8089999999999998E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V15">
+        <v>1.8377436931999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="4">
         <v>43</v>
@@ -1624,7 +1705,7 @@
       <c r="I16" s="5">
         <v>40</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="33">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1634,7 +1715,7 @@
       <c r="L16" s="5">
         <v>362926</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="38">
         <f t="shared" si="4"/>
         <v>0.99998622327660081</v>
       </c>
@@ -1644,23 +1725,26 @@
       <c r="O16" s="5">
         <v>2.9</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="42">
         <f t="shared" si="5"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="11">
         <v>5.5199999999999997E-3</v>
       </c>
-      <c r="R16" s="12">
+      <c r="R16" s="11">
         <v>4.8560000000000001E-3</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="12">
         <v>1.9229E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V16">
+        <v>1.8377437143999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="48">
+      <c r="B17" s="52">
         <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1684,7 +1768,7 @@
       <c r="I17" s="5">
         <v>39</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="33">
         <f t="shared" si="3"/>
         <v>0.97499999999999998</v>
       </c>
@@ -1694,7 +1778,7 @@
       <c r="L17" s="5">
         <v>355322</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="37">
         <f t="shared" si="4"/>
         <v>0.97898333103733293</v>
       </c>
@@ -1704,21 +1788,24 @@
       <c r="O17" s="5">
         <v>3</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="41">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="11">
         <v>1.375E-2</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="13">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="12">
         <v>1.29E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <v>1.8377421525999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="1"/>
       <c r="C18" s="5"/>
@@ -1728,19 +1815,22 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="27"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="31"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="13"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="12"/>
+      <c r="V18">
+        <v>1.8377446012999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
       <c r="B19" s="7"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1749,18 +1839,36 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="49"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="43"/>
+      <c r="M19" s="39"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="16"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P19" s="43"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="15"/>
+      <c r="V19">
+        <v>1.8377415083E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>1.8377455434E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>1.8377440200000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>1.8377468394E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>18</v>
       </c>
@@ -1771,8 +1879,14 @@
         <f>SUM(M24:M43)</f>
         <v>362950</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <v>1.8377416337000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
@@ -1782,8 +1896,18 @@
       <c r="M24">
         <v>18165</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <v>1.8377437404999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23545</v>
+      </c>
+      <c r="C25">
+        <f>SUM(A25:A44)</f>
+        <v>472315</v>
+      </c>
       <c r="D25">
         <v>1.9650456230667E-2</v>
       </c>
@@ -1797,8 +1921,14 @@
       <c r="M25">
         <v>18180</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>1.8377429143000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23705</v>
+      </c>
       <c r="D26">
         <v>1.9650433376667002E-2</v>
       </c>
@@ -1808,8 +1938,14 @@
       <c r="M26">
         <v>18174</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>1.8377459302999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23609</v>
+      </c>
       <c r="D27">
         <v>1.9650504566667001E-2</v>
       </c>
@@ -1819,8 +1955,14 @@
       <c r="M27">
         <v>18146</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>1.8377450787E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23531</v>
+      </c>
       <c r="D28">
         <v>1.9650465332667E-2</v>
       </c>
@@ -1835,7 +1977,10 @@
         <v>1.1039999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23539</v>
+      </c>
       <c r="D29">
         <v>1.9650487559667001E-2</v>
       </c>
@@ -1850,7 +1995,10 @@
         <v>1.2907615820983001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>23539</v>
+      </c>
       <c r="D30">
         <v>1.9650484375667E-2</v>
       </c>
@@ -1861,7 +2009,10 @@
         <v>18121</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>23664</v>
+      </c>
       <c r="D31">
         <v>1.5439683337499999E-2</v>
       </c>
@@ -1872,7 +2023,10 @@
         <v>18139</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>23712</v>
+      </c>
       <c r="D32">
         <v>1.9650454529666999E-2</v>
       </c>
@@ -1886,7 +2040,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>23575</v>
+      </c>
       <c r="D33">
         <v>1.9650454741667E-2</v>
       </c>
@@ -1900,7 +2057,10 @@
         <v>1.2907592440333E-2</v>
       </c>
     </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>23592</v>
+      </c>
       <c r="D34">
         <v>1.9650439123666999E-2</v>
       </c>
@@ -1914,7 +2074,10 @@
         <v>1.2907654418332999E-2</v>
       </c>
     </row>
-    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>23574</v>
+      </c>
       <c r="D35">
         <v>1.9650463610667E-2</v>
       </c>
@@ -1928,7 +2091,10 @@
         <v>1.2907641063333E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>23633</v>
+      </c>
       <c r="D36">
         <v>1.9650432680667001E-2</v>
       </c>
@@ -1942,7 +2108,10 @@
         <v>1.2907598857333001E-2</v>
       </c>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>23681</v>
+      </c>
       <c r="D37">
         <v>1.54396795125E-2</v>
       </c>
@@ -1956,7 +2125,10 @@
         <v>1.2907588373332999E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>23660</v>
+      </c>
       <c r="D38">
         <v>1.9650457797667002E-2</v>
       </c>
@@ -1970,7 +2142,10 @@
         <v>1.2907601223333001E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>23694</v>
+      </c>
       <c r="D39">
         <v>1.9650485991667001E-2</v>
       </c>
@@ -1984,7 +2159,10 @@
         <v>1.2907627017332999E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>23549</v>
+      </c>
       <c r="D40">
         <v>1.9650433934666998E-2</v>
       </c>
@@ -1998,7 +2176,10 @@
         <v>1.2907599817333E-2</v>
       </c>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>23633</v>
+      </c>
       <c r="D41">
         <v>1.9650455002666999E-2</v>
       </c>
@@ -2012,7 +2193,10 @@
         <v>1.2907606176333001E-2</v>
       </c>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>23718</v>
+      </c>
       <c r="D42">
         <v>1.9650446740666998E-2</v>
       </c>
@@ -2026,7 +2210,10 @@
         <v>1.2907618605333E-2</v>
       </c>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>23585</v>
+      </c>
       <c r="D43">
         <v>1.9650476900666999E-2</v>
       </c>
@@ -2040,7 +2227,10 @@
         <v>1.2907630015333E-2</v>
       </c>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>23577</v>
+      </c>
       <c r="D44">
         <v>1.9650468384667E-2</v>
       </c>
@@ -2048,22 +2238,22 @@
         <v>1.2907616268333E-2</v>
       </c>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R45">
         <v>1.2907619553333E-2</v>
       </c>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R46">
         <v>1.2907607222333001E-2</v>
       </c>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R47">
         <v>1.2907629711333E-2</v>
       </c>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R48">
         <v>1.2907606552333001E-2</v>
       </c>

--- a/trunk/SurveyFiles/Log simulaciones PLC.xlsx
+++ b/trunk/SurveyFiles/Log simulaciones PLC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="47">
   <si>
     <t>PDR AMR</t>
   </si>
@@ -261,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,12 +340,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -857,31 +851,231 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="13" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="13" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="13" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="13" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -890,31 +1084,34 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -928,209 +1125,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="11" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="14" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="14" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="14" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="14" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="14" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="5" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="13" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="13" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="13" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="13" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1269,11 +1263,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105456768"/>
-        <c:axId val="105457344"/>
+        <c:axId val="115263744"/>
+        <c:axId val="115264320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105456768"/>
+        <c:axId val="115263744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,12 +1277,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105457344"/>
+        <c:crossAx val="115264320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105457344"/>
+        <c:axId val="115264320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105456768"/>
+        <c:crossAx val="115263744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1642,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W82"/>
+  <dimension ref="A1:W85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,7 +1721,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="126" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="107">
@@ -1784,255 +1778,279 @@
       <c r="S3" s="112"/>
     </row>
     <row r="4" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114">
+      <c r="A4" s="127"/>
+      <c r="B4" s="113">
         <v>13</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="115">
+      <c r="D4" s="114">
         <v>1300</v>
       </c>
-      <c r="E4" s="115">
+      <c r="E4" s="114">
         <v>600</v>
       </c>
-      <c r="F4" s="115">
+      <c r="F4" s="114">
         <v>0.1</v>
       </c>
-      <c r="G4" s="115">
+      <c r="G4" s="114">
         <v>900</v>
       </c>
-      <c r="H4" s="116"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="117" t="e">
+      <c r="H4" s="115"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="116" t="e">
         <f t="shared" ref="J4:J8" si="0">I4/H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="118" t="e">
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="117" t="e">
         <f t="shared" ref="M4:M8" si="1">L4/K4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="117" t="e">
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="116" t="e">
         <f t="shared" ref="P4:P8" si="2">O4/N4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="120"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="119"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="115" t="s">
+      <c r="A5" s="127"/>
+      <c r="B5" s="113">
+        <v>30</v>
+      </c>
+      <c r="C5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="115">
+      <c r="D5" s="114">
         <v>1300</v>
       </c>
-      <c r="E5" s="115">
+      <c r="E5" s="114">
         <v>600</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="114">
         <v>0.1</v>
       </c>
-      <c r="G5" s="115">
+      <c r="G5" s="114">
         <v>900</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="117" t="e">
+      <c r="H5" s="114">
+        <v>60</v>
+      </c>
+      <c r="I5" s="114">
+        <v>24</v>
+      </c>
+      <c r="J5" s="116">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="118" t="e">
+        <v>0.4</v>
+      </c>
+      <c r="K5" s="114">
+        <v>258953</v>
+      </c>
+      <c r="L5" s="114">
+        <v>117636</v>
+      </c>
+      <c r="M5" s="117">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="117" t="e">
+        <v>0.45427548628515602</v>
+      </c>
+      <c r="N5" s="114">
+        <v>2</v>
+      </c>
+      <c r="O5" s="114">
+        <v>1</v>
+      </c>
+      <c r="P5" s="116">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="119"/>
-      <c r="S5" s="120"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="118">
+        <v>4.4479999999999999E-2</v>
+      </c>
+      <c r="R5" s="118">
+        <v>2.23E-2</v>
+      </c>
+      <c r="S5" s="119">
+        <v>1.8089999999999998E-2</v>
+      </c>
       <c r="W5">
         <f>AVERAGE(V15:V35)</f>
         <v>1.8377445272789474E-2</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="115" t="s">
+      <c r="A6" s="127"/>
+      <c r="B6" s="113">
+        <v>31</v>
+      </c>
+      <c r="C6" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="115">
+      <c r="D6" s="114">
         <v>1300</v>
       </c>
-      <c r="E6" s="115">
+      <c r="E6" s="114">
         <v>600</v>
       </c>
-      <c r="F6" s="115">
+      <c r="F6" s="114">
         <v>0.1</v>
       </c>
-      <c r="G6" s="115">
+      <c r="G6" s="114">
         <v>900</v>
       </c>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="118"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="119"/>
-      <c r="R6" s="119"/>
-      <c r="S6" s="120"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="114"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="119"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="113"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="115" t="s">
+      <c r="A7" s="127"/>
+      <c r="B7" s="113">
+        <v>32</v>
+      </c>
+      <c r="C7" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="115">
+      <c r="D7" s="114">
         <v>1300</v>
       </c>
-      <c r="E7" s="115">
+      <c r="E7" s="114">
         <v>600</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="114">
         <v>0.1</v>
       </c>
-      <c r="G7" s="115">
+      <c r="G7" s="114">
         <v>900</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="120"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="119"/>
     </row>
     <row r="8" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="121"/>
-      <c r="B8" s="122">
-        <v>21</v>
-      </c>
-      <c r="C8" s="123" t="s">
+      <c r="A8" s="128"/>
+      <c r="B8" s="120">
+        <v>33</v>
+      </c>
+      <c r="C8" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="123">
+      <c r="D8" s="121">
         <v>1300</v>
       </c>
-      <c r="E8" s="123">
+      <c r="E8" s="121">
         <v>600</v>
       </c>
-      <c r="F8" s="123">
+      <c r="F8" s="121">
         <v>0.1</v>
       </c>
-      <c r="G8" s="123">
+      <c r="G8" s="121">
         <v>900</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124" t="e">
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="123"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="125" t="e">
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="123" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="124" t="e">
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="122" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="126"/>
-      <c r="R8" s="126"/>
-      <c r="S8" s="127"/>
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="125"/>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="105" t="s">
+      <c r="A9" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="93">
+      <c r="B9" s="69">
         <v>0</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="70">
         <v>950</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="70">
         <v>300</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="70">
         <v>0.04</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="70">
         <v>900</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="70">
         <f>4*20</f>
         <v>80</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="70">
         <v>22</v>
       </c>
-      <c r="J9" s="95">
+      <c r="J9" s="71">
         <f t="shared" ref="J9:J20" si="3">I9/H9</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="K9" s="94">
+      <c r="K9" s="70">
         <v>472319</v>
       </c>
-      <c r="L9" s="94">
+      <c r="L9" s="70">
         <v>102801</v>
       </c>
-      <c r="M9" s="95">
+      <c r="M9" s="71">
         <f t="shared" ref="M9:M20" si="4">L9/K9</f>
         <v>0.21765162951310449</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="70">
         <v>2</v>
       </c>
-      <c r="O9" s="94">
+      <c r="O9" s="70">
         <v>1</v>
       </c>
-      <c r="P9" s="95">
+      <c r="P9" s="71">
         <f t="shared" ref="P9:P20" si="5">O9/N9</f>
         <v>0.5</v>
       </c>
-      <c r="Q9" s="96">
+      <c r="Q9" s="72">
         <v>1.9012</v>
       </c>
-      <c r="R9" s="97">
+      <c r="R9" s="73">
         <v>2.70797</v>
       </c>
-      <c r="S9" s="98">
+      <c r="S9" s="74">
         <v>1.8370000000000001E-2</v>
       </c>
       <c r="V9" t="s">
@@ -2040,7 +2058,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="21">
         <v>0</v>
       </c>
@@ -2079,13 +2097,13 @@
       </c>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
-      <c r="S10" s="88"/>
+      <c r="S10" s="64"/>
       <c r="V10">
         <v>1.8377438632999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="21">
         <v>1</v>
       </c>
@@ -2140,12 +2158,12 @@
       <c r="R11" s="34">
         <v>2.6869000000000001</v>
       </c>
-      <c r="S11" s="99">
+      <c r="S11" s="75">
         <v>1.83E-2</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="21">
         <v>3</v>
       </c>
@@ -2200,12 +2218,12 @@
       <c r="R12" s="34">
         <v>2.6638000000000002</v>
       </c>
-      <c r="S12" s="99">
+      <c r="S12" s="75">
         <v>4.99E-2</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="21">
         <v>4</v>
       </c>
@@ -2260,119 +2278,119 @@
       <c r="R13" s="34">
         <v>2.7778</v>
       </c>
-      <c r="S13" s="99">
+      <c r="S13" s="75">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="100">
+      <c r="A14" s="133"/>
+      <c r="B14" s="76">
         <v>2</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="77">
         <v>950</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="77">
         <v>300</v>
       </c>
-      <c r="F14" s="101">
+      <c r="F14" s="77">
         <v>0.04</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="77">
         <v>900</v>
       </c>
-      <c r="H14" s="101">
+      <c r="H14" s="77">
         <v>80</v>
       </c>
-      <c r="I14" s="101">
+      <c r="I14" s="77">
         <v>30</v>
       </c>
-      <c r="J14" s="102">
+      <c r="J14" s="78">
         <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-      <c r="K14" s="101">
+      <c r="K14" s="77">
         <v>472361</v>
       </c>
-      <c r="L14" s="101">
+      <c r="L14" s="77">
         <v>102601</v>
       </c>
-      <c r="M14" s="102">
+      <c r="M14" s="78">
         <f t="shared" si="4"/>
         <v>0.21720887202796166</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="77">
         <v>2</v>
       </c>
-      <c r="O14" s="101">
+      <c r="O14" s="77">
         <v>1</v>
       </c>
-      <c r="P14" s="102">
+      <c r="P14" s="78">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="Q14" s="103">
+      <c r="Q14" s="79">
         <v>1.8173999999999999</v>
       </c>
-      <c r="R14" s="103">
+      <c r="R14" s="79">
         <v>2.8208000000000002</v>
       </c>
-      <c r="S14" s="104">
+      <c r="S14" s="80">
         <v>3.5299999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="89">
+      <c r="B15" s="65">
         <v>57</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="66">
         <v>4000</v>
       </c>
-      <c r="E15" s="90">
+      <c r="E15" s="66">
         <v>3600</v>
       </c>
-      <c r="F15" s="90">
+      <c r="F15" s="66">
         <v>0.1</v>
       </c>
-      <c r="G15" s="90">
+      <c r="G15" s="66">
         <v>3600</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91" t="e">
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91" t="e">
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="91" t="e">
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="67" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
       <c r="V15">
         <v>1.8377415779000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="41">
         <v>58</v>
       </c>
@@ -2408,7 +2426,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+      <c r="A17" s="130"/>
       <c r="B17" s="41">
         <v>59</v>
       </c>
@@ -2453,7 +2471,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="129" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -2514,7 +2532,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="1">
         <v>58</v>
       </c>
@@ -2573,123 +2591,123 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="141">
+      <c r="A20" s="129"/>
+      <c r="B20" s="91">
         <v>59</v>
       </c>
-      <c r="C20" s="142" t="s">
+      <c r="C20" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="142">
+      <c r="D20" s="92">
         <v>7500</v>
       </c>
-      <c r="E20" s="142">
+      <c r="E20" s="92">
         <v>3600</v>
       </c>
-      <c r="F20" s="142">
+      <c r="F20" s="92">
         <v>1500</v>
       </c>
-      <c r="G20" s="142">
+      <c r="G20" s="92">
         <v>3600</v>
       </c>
-      <c r="H20" s="142">
+      <c r="H20" s="92">
         <f>3*20</f>
         <v>60</v>
       </c>
-      <c r="I20" s="142">
+      <c r="I20" s="92">
         <v>60</v>
       </c>
-      <c r="J20" s="143">
+      <c r="J20" s="93">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K20" s="142">
+      <c r="K20" s="92">
         <f>5*20</f>
         <v>100</v>
       </c>
-      <c r="L20" s="142">
+      <c r="L20" s="92">
         <v>98</v>
       </c>
-      <c r="M20" s="144">
+      <c r="M20" s="94">
         <f t="shared" si="4"/>
         <v>0.98</v>
       </c>
-      <c r="N20" s="142">
+      <c r="N20" s="92">
         <v>3</v>
       </c>
-      <c r="O20" s="142">
+      <c r="O20" s="92">
         <v>3</v>
       </c>
-      <c r="P20" s="145">
+      <c r="P20" s="95">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="147"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
+      <c r="S20" s="97"/>
       <c r="V20">
         <v>1.8377459259000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="148">
+      <c r="B21" s="98">
         <v>42</v>
       </c>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="149">
+      <c r="D21" s="99">
         <v>1850</v>
       </c>
-      <c r="E21" s="149">
+      <c r="E21" s="99">
         <v>1800</v>
       </c>
-      <c r="F21" s="149">
+      <c r="F21" s="99">
         <v>0.1</v>
       </c>
-      <c r="G21" s="149">
+      <c r="G21" s="99">
         <v>900</v>
       </c>
-      <c r="H21" s="149">
+      <c r="H21" s="99">
         <v>40</v>
       </c>
-      <c r="I21" s="149">
+      <c r="I21" s="99">
         <v>20</v>
       </c>
-      <c r="J21" s="150">
+      <c r="J21" s="100">
         <f>I21/H21</f>
         <v>0.5</v>
       </c>
-      <c r="K21" s="149">
+      <c r="K21" s="99">
         <v>362953</v>
       </c>
-      <c r="L21" s="149">
+      <c r="L21" s="99">
         <v>165036</v>
       </c>
-      <c r="M21" s="151">
+      <c r="M21" s="101">
         <f t="shared" ref="M21:M27" si="6">L21/K21</f>
         <v>0.45470350155529782</v>
       </c>
-      <c r="N21" s="149">
+      <c r="N21" s="99">
         <v>3</v>
       </c>
-      <c r="O21" s="149">
+      <c r="O21" s="99">
         <v>1</v>
       </c>
-      <c r="P21" s="150">
+      <c r="P21" s="100">
         <f t="shared" ref="P21:P27" si="7">O21/N21</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q21" s="152">
+      <c r="Q21" s="102">
         <v>4.8379999999999999E-2</v>
       </c>
-      <c r="R21" s="152">
+      <c r="R21" s="102">
         <v>2.24E-2</v>
       </c>
-      <c r="S21" s="153">
+      <c r="S21" s="103">
         <v>1.8089999999999998E-2</v>
       </c>
       <c r="V21">
@@ -2698,61 +2716,61 @@
     </row>
     <row r="22" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="135"/>
-      <c r="B22" s="129">
+      <c r="B22" s="81">
         <v>43</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="130">
+      <c r="D22" s="82">
         <v>1850</v>
       </c>
-      <c r="E22" s="130">
+      <c r="E22" s="82">
         <v>1800</v>
       </c>
-      <c r="F22" s="130">
+      <c r="F22" s="82">
         <v>0.1</v>
       </c>
-      <c r="G22" s="130">
+      <c r="G22" s="82">
         <v>900</v>
       </c>
-      <c r="H22" s="130">
+      <c r="H22" s="82">
         <v>40</v>
       </c>
-      <c r="I22" s="130">
+      <c r="I22" s="82">
         <v>40</v>
       </c>
-      <c r="J22" s="131">
-        <f t="shared" ref="J22:J27" si="8">I22/H22</f>
+      <c r="J22" s="83">
+        <f t="shared" ref="J22:J25" si="8">I22/H22</f>
         <v>1</v>
       </c>
-      <c r="K22" s="130">
+      <c r="K22" s="82">
         <v>362931</v>
       </c>
-      <c r="L22" s="130">
+      <c r="L22" s="82">
         <v>362926</v>
       </c>
-      <c r="M22" s="132">
+      <c r="M22" s="84">
         <f t="shared" si="6"/>
         <v>0.99998622327660081</v>
       </c>
-      <c r="N22" s="130">
+      <c r="N22" s="82">
         <v>3</v>
       </c>
-      <c r="O22" s="130">
+      <c r="O22" s="82">
         <v>2.9</v>
       </c>
-      <c r="P22" s="131">
+      <c r="P22" s="83">
         <f t="shared" si="7"/>
         <v>0.96666666666666667</v>
       </c>
-      <c r="Q22" s="136">
+      <c r="Q22" s="87">
         <v>5.5199999999999997E-3</v>
       </c>
-      <c r="R22" s="136">
+      <c r="R22" s="87">
         <v>4.8560000000000001E-3</v>
       </c>
-      <c r="S22" s="134">
+      <c r="S22" s="86">
         <v>1.9229E-2</v>
       </c>
       <c r="V22">
@@ -2761,61 +2779,61 @@
     </row>
     <row r="23" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="135"/>
-      <c r="B23" s="129">
+      <c r="B23" s="81">
         <v>44</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="130">
+      <c r="D23" s="82">
         <v>1850</v>
       </c>
-      <c r="E23" s="130">
+      <c r="E23" s="82">
         <v>1800</v>
       </c>
-      <c r="F23" s="130">
+      <c r="F23" s="82">
         <v>0.1</v>
       </c>
-      <c r="G23" s="130">
+      <c r="G23" s="82">
         <v>900</v>
       </c>
-      <c r="H23" s="130">
+      <c r="H23" s="82">
         <v>40</v>
       </c>
-      <c r="I23" s="130">
+      <c r="I23" s="82">
         <v>39</v>
       </c>
-      <c r="J23" s="131">
+      <c r="J23" s="83">
         <f t="shared" si="8"/>
         <v>0.97499999999999998</v>
       </c>
-      <c r="K23" s="130">
+      <c r="K23" s="82">
         <v>362950</v>
       </c>
-      <c r="L23" s="130">
+      <c r="L23" s="82">
         <v>355322</v>
       </c>
-      <c r="M23" s="132">
+      <c r="M23" s="84">
         <f t="shared" si="6"/>
         <v>0.97898333103733293</v>
       </c>
-      <c r="N23" s="130">
+      <c r="N23" s="82">
         <v>3</v>
       </c>
-      <c r="O23" s="130">
+      <c r="O23" s="82">
         <v>3</v>
       </c>
-      <c r="P23" s="131">
+      <c r="P23" s="83">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="136">
+      <c r="Q23" s="87">
         <v>1.375E-2</v>
       </c>
-      <c r="R23" s="133">
+      <c r="R23" s="85">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="S23" s="134">
+      <c r="S23" s="86">
         <v>1.29E-2</v>
       </c>
       <c r="V23">
@@ -2824,181 +2842,181 @@
     </row>
     <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="135"/>
-      <c r="B24" s="129">
+      <c r="B24" s="81">
         <v>43</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="130">
+      <c r="D24" s="82">
         <v>1850</v>
       </c>
-      <c r="E24" s="130">
+      <c r="E24" s="82">
         <v>1800</v>
       </c>
-      <c r="F24" s="130">
+      <c r="F24" s="82">
         <v>0.1</v>
       </c>
-      <c r="G24" s="130">
+      <c r="G24" s="82">
         <v>900</v>
       </c>
-      <c r="H24" s="130">
+      <c r="H24" s="82">
         <v>40</v>
       </c>
-      <c r="I24" s="130">
+      <c r="I24" s="82">
         <v>20</v>
       </c>
-      <c r="J24" s="131">
+      <c r="J24" s="83">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="K24" s="130">
+      <c r="K24" s="82">
         <v>368953</v>
       </c>
-      <c r="L24" s="130">
+      <c r="L24" s="82">
         <v>167788</v>
       </c>
-      <c r="M24" s="132">
+      <c r="M24" s="84">
         <f t="shared" si="6"/>
         <v>0.45476795147349391</v>
       </c>
-      <c r="N24" s="130">
+      <c r="N24" s="82">
         <v>3</v>
       </c>
-      <c r="O24" s="130">
+      <c r="O24" s="82">
         <v>1</v>
       </c>
-      <c r="P24" s="131">
+      <c r="P24" s="83">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q24" s="136">
+      <c r="Q24" s="87">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="R24" s="133">
+      <c r="R24" s="85">
         <v>2.24E-2</v>
       </c>
-      <c r="S24" s="134">
+      <c r="S24" s="86">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="135"/>
-      <c r="B25" s="129">
+      <c r="B25" s="81">
         <v>44</v>
       </c>
-      <c r="C25" s="130" t="s">
+      <c r="C25" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="130">
+      <c r="D25" s="82">
         <v>1850</v>
       </c>
-      <c r="E25" s="130">
+      <c r="E25" s="82">
         <v>1800</v>
       </c>
-      <c r="F25" s="130">
+      <c r="F25" s="82">
         <v>0.1</v>
       </c>
-      <c r="G25" s="130">
+      <c r="G25" s="82">
         <v>900</v>
       </c>
-      <c r="H25" s="130">
+      <c r="H25" s="82">
         <v>40</v>
       </c>
-      <c r="I25" s="130">
+      <c r="I25" s="82">
         <v>21</v>
       </c>
-      <c r="J25" s="131">
+      <c r="J25" s="83">
         <f t="shared" si="8"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="K25" s="130">
+      <c r="K25" s="82">
         <v>368930</v>
       </c>
-      <c r="L25" s="130">
+      <c r="L25" s="82">
         <v>167600</v>
       </c>
-      <c r="M25" s="132">
+      <c r="M25" s="84">
         <f t="shared" si="6"/>
         <v>0.45428672105819534</v>
       </c>
-      <c r="N25" s="130">
+      <c r="N25" s="82">
         <v>3</v>
       </c>
-      <c r="O25" s="130">
+      <c r="O25" s="82">
         <v>0.9</v>
       </c>
-      <c r="P25" s="131">
+      <c r="P25" s="83">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="Q25" s="136">
+      <c r="Q25" s="87">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="R25" s="133">
+      <c r="R25" s="85">
         <v>2.248E-2</v>
       </c>
-      <c r="S25" s="134">
+      <c r="S25" s="86">
         <v>4.3700000000000003E-2</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="135"/>
-      <c r="B26" s="129">
+      <c r="B26" s="81">
         <v>70</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="130">
+      <c r="D26" s="82">
         <v>1850</v>
       </c>
-      <c r="E26" s="130">
+      <c r="E26" s="82">
         <v>1800</v>
       </c>
-      <c r="F26" s="130">
+      <c r="F26" s="82">
         <v>0.1</v>
       </c>
-      <c r="G26" s="130">
+      <c r="G26" s="82">
         <v>900</v>
       </c>
-      <c r="H26" s="130">
+      <c r="H26" s="82">
         <v>40</v>
       </c>
-      <c r="I26" s="130">
+      <c r="I26" s="82">
         <v>20</v>
       </c>
-      <c r="J26" s="131">
+      <c r="J26" s="83">
         <f>I26/H26</f>
         <v>0.5</v>
       </c>
-      <c r="K26" s="130">
+      <c r="K26" s="82">
         <v>368953</v>
       </c>
-      <c r="L26" s="130">
+      <c r="L26" s="82">
         <v>167788</v>
       </c>
-      <c r="M26" s="132">
+      <c r="M26" s="84">
         <f t="shared" si="6"/>
         <v>0.45476795147349391</v>
       </c>
-      <c r="N26" s="130">
+      <c r="N26" s="82">
         <v>3</v>
       </c>
-      <c r="O26" s="130">
+      <c r="O26" s="82">
         <v>1</v>
       </c>
-      <c r="P26" s="131">
+      <c r="P26" s="83">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q26" s="133">
+      <c r="Q26" s="85">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="R26" s="133">
+      <c r="R26" s="85">
         <v>2.24E-2</v>
       </c>
-      <c r="S26" s="134">
+      <c r="S26" s="86">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="V26">
@@ -3006,62 +3024,62 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="137"/>
-      <c r="B27" s="154">
+      <c r="A27" s="136"/>
+      <c r="B27" s="104">
         <v>71</v>
       </c>
-      <c r="C27" s="138" t="s">
+      <c r="C27" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="138">
+      <c r="D27" s="88">
         <v>1850</v>
       </c>
-      <c r="E27" s="138">
+      <c r="E27" s="88">
         <v>1800</v>
       </c>
-      <c r="F27" s="138">
+      <c r="F27" s="88">
         <v>0.1</v>
       </c>
-      <c r="G27" s="138">
+      <c r="G27" s="88">
         <v>900</v>
       </c>
-      <c r="H27" s="138">
+      <c r="H27" s="88">
         <v>40</v>
       </c>
-      <c r="I27" s="138">
+      <c r="I27" s="88">
         <v>21</v>
       </c>
-      <c r="J27" s="155">
+      <c r="J27" s="105">
         <f>I27/H27</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="K27" s="138">
+      <c r="K27" s="88">
         <v>368930</v>
       </c>
-      <c r="L27" s="138">
+      <c r="L27" s="88">
         <v>167600</v>
       </c>
-      <c r="M27" s="156">
+      <c r="M27" s="106">
         <f t="shared" si="6"/>
         <v>0.45428672105819534</v>
       </c>
-      <c r="N27" s="138">
+      <c r="N27" s="88">
         <v>3</v>
       </c>
-      <c r="O27" s="138">
+      <c r="O27" s="88">
         <v>1</v>
       </c>
-      <c r="P27" s="155">
+      <c r="P27" s="105">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q27" s="139">
+      <c r="Q27" s="89">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="R27" s="139">
+      <c r="R27" s="89">
         <v>2.24E-2</v>
       </c>
-      <c r="S27" s="140">
+      <c r="S27" s="90">
         <v>4.8500000000000001E-2</v>
       </c>
       <c r="V27">
@@ -3074,6 +3092,10 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f>250/60</f>
+        <v>4.166666666666667</v>
+      </c>
       <c r="V29">
         <v>1.8377440200000001E-2</v>
       </c>
@@ -3094,6 +3116,10 @@
       <c r="J31" t="s">
         <v>18</v>
       </c>
+      <c r="L31">
+        <f>K29*5</f>
+        <v>20.833333333333336</v>
+      </c>
       <c r="M31" t="s">
         <v>18</v>
       </c>
@@ -3873,7 +3899,7 @@
         <v>18450</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1.8094555589E-2</v>
       </c>
@@ -3886,8 +3912,15 @@
       <c r="J65">
         <v>18448</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>18</v>
+      </c>
+      <c r="P65">
+        <f>SUM(M66:M85)</f>
+        <v>258953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1.8094553691E-2</v>
       </c>
@@ -3900,8 +3933,11 @@
       <c r="J66">
         <v>18444</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>12981</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1.8094553467999999E-2</v>
       </c>
@@ -3914,8 +3950,11 @@
       <c r="J67">
         <v>18442</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>12978</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.8094553138999998E-2</v>
       </c>
@@ -3928,8 +3967,11 @@
       <c r="J68">
         <v>18438</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>12977</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.8094550208E-2</v>
       </c>
@@ -3942,8 +3984,11 @@
       <c r="J69">
         <v>18435</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>12974</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.8094547175E-2</v>
       </c>
@@ -3956,8 +4001,11 @@
       <c r="J70">
         <v>18429</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>12971</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.8094542471000001E-2</v>
       </c>
@@ -3970,8 +4018,11 @@
       <c r="J71">
         <v>18426</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>12970</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.8094542006999999E-2</v>
       </c>
@@ -3984,8 +4035,11 @@
       <c r="J72">
         <v>18424</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>12961</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.8094541658E-2</v>
       </c>
@@ -3998,8 +4052,11 @@
       <c r="J73">
         <v>18422</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>12956</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.8094539773000001E-2</v>
       </c>
@@ -4012,8 +4069,11 @@
       <c r="J74">
         <v>18418</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1.8094539082E-2</v>
       </c>
@@ -4026,8 +4086,11 @@
       <c r="J75">
         <v>18409</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>12948</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1.8094538394E-2</v>
       </c>
@@ -4040,8 +4103,11 @@
       <c r="K76">
         <v>23517</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>12944</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.8094536322000001E-2</v>
       </c>
@@ -4054,42 +4120,75 @@
       <c r="K77">
         <v>23513</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>12942</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1.8094536118E-2</v>
       </c>
       <c r="G78">
         <v>18426</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>12938</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.8094534214000001E-2</v>
       </c>
       <c r="G79">
         <v>18424</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>12935</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.8094532173E-2</v>
       </c>
       <c r="G80">
         <v>18422</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>12929</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1.8094518819999999E-2</v>
       </c>
       <c r="G81">
         <v>18418</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G82">
         <v>18409</v>
+      </c>
+      <c r="M82">
+        <v>12924</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>12918</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>12909</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +4450,7 @@
       <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="132" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="21">
@@ -4395,7 +4494,7 @@
       <c r="S6" s="34"/>
     </row>
     <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="21">
         <v>0</v>
       </c>
@@ -4437,7 +4536,7 @@
       <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="130" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="41">
@@ -4481,7 +4580,7 @@
       <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="41">
         <v>58</v>
       </c>
@@ -4514,7 +4613,7 @@
       <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="41">
         <v>59</v>
       </c>
@@ -4556,7 +4655,7 @@
       <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="137" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="35">
@@ -4600,7 +4699,7 @@
       <c r="S11" s="40"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="2">
         <v>43</v>
       </c>
@@ -4642,7 +4741,7 @@
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
+      <c r="A13" s="137"/>
       <c r="B13" s="35">
         <v>44</v>
       </c>
@@ -4748,18 +4847,18 @@
     <row r="4" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="52"/>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="O5" s="80" t="s">
+      <c r="E5" s="139"/>
+      <c r="O5" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="81"/>
-      <c r="R5" s="69" t="s">
+      <c r="P5" s="144"/>
+      <c r="R5" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="70"/>
+      <c r="S5" s="150"/>
     </row>
     <row r="6" spans="3:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="53" t="s">
@@ -4771,10 +4870,10 @@
       <c r="E6" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="82"/>
-      <c r="P6" s="83"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="72"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="146"/>
+      <c r="R6" s="151"/>
+      <c r="S6" s="152"/>
     </row>
     <row r="7" spans="3:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
@@ -4787,10 +4886,10 @@
       <c r="E7" s="55">
         <v>34</v>
       </c>
-      <c r="O7" s="75"/>
-      <c r="P7" s="76"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="76"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="148"/>
+      <c r="R7" s="147"/>
+      <c r="S7" s="148"/>
       <c r="V7" t="s">
         <v>40</v>
       </c>
@@ -4806,14 +4905,14 @@
       <c r="E8" s="55">
         <v>23</v>
       </c>
-      <c r="O8" s="73">
+      <c r="O8" s="141">
         <v>300</v>
       </c>
-      <c r="P8" s="74"/>
-      <c r="R8" s="73">
+      <c r="P8" s="142"/>
+      <c r="R8" s="141">
         <v>300</v>
       </c>
-      <c r="S8" s="74"/>
+      <c r="S8" s="142"/>
       <c r="V8" t="s">
         <v>38</v>
       </c>
@@ -4901,14 +5000,14 @@
       <c r="S14" s="59"/>
     </row>
     <row r="15" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="73">
+      <c r="O15" s="141">
         <v>600</v>
       </c>
-      <c r="P15" s="74"/>
-      <c r="R15" s="73">
+      <c r="P15" s="142"/>
+      <c r="R15" s="141">
         <v>600</v>
       </c>
-      <c r="S15" s="74"/>
+      <c r="S15" s="142"/>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.25">
       <c r="O16" s="7" t="s">
@@ -4977,18 +5076,18 @@
       <c r="S21" s="59"/>
     </row>
     <row r="22" spans="10:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="73">
+      <c r="O22" s="141">
         <v>1800</v>
       </c>
-      <c r="P22" s="74"/>
-      <c r="R22" s="73">
+      <c r="P22" s="142"/>
+      <c r="R22" s="141">
         <v>1800</v>
       </c>
-      <c r="S22" s="74"/>
+      <c r="S22" s="142"/>
     </row>
     <row r="23" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
       <c r="O23" s="7" t="s">
         <v>31</v>
       </c>
@@ -5055,6 +5154,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R7:S7"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="O8:P8"/>
@@ -5062,11 +5166,6 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O5:P6"/>
     <mergeCell ref="O7:P7"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5087,17 +5186,17 @@
     <row r="2" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C3" s="52"/>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="87"/>
+      <c r="E3" s="156"/>
     </row>
     <row r="4" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="154"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">

--- a/trunk/SurveyFiles/Log simulaciones PLC.xlsx
+++ b/trunk/SurveyFiles/Log simulaciones PLC.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
   <si>
     <t>PDR AMR</t>
   </si>
@@ -688,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1019,12 +1019,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="8" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1263,11 +1257,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="115263744"/>
-        <c:axId val="115264320"/>
+        <c:axId val="97264768"/>
+        <c:axId val="97265344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="115263744"/>
+        <c:axId val="97264768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1277,12 +1271,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115264320"/>
+        <c:crossAx val="97265344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="115264320"/>
+        <c:axId val="97265344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115263744"/>
+        <c:crossAx val="97264768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1636,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W85"/>
+  <dimension ref="A1:W110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,7 +1715,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="124" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="107">
@@ -1778,7 +1772,7 @@
       <c r="S3" s="112"/>
     </row>
     <row r="4" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="113">
         <v>13</v>
       </c>
@@ -1820,7 +1814,7 @@
       <c r="S4" s="119"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
+      <c r="A5" s="125"/>
       <c r="B5" s="113">
         <v>30</v>
       </c>
@@ -1884,7 +1878,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="113">
         <v>31</v>
       </c>
@@ -1903,21 +1897,48 @@
       <c r="G6" s="114">
         <v>900</v>
       </c>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="118"/>
-      <c r="R6" s="118"/>
-      <c r="S6" s="119"/>
+      <c r="H6" s="114">
+        <v>60</v>
+      </c>
+      <c r="I6" s="114">
+        <v>31</v>
+      </c>
+      <c r="J6" s="116">
+        <f t="shared" si="0"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="K6" s="114">
+        <v>258930</v>
+      </c>
+      <c r="L6" s="114">
+        <v>117736</v>
+      </c>
+      <c r="M6" s="117">
+        <f>L6/K6</f>
+        <v>0.45470204302321093</v>
+      </c>
+      <c r="N6" s="114">
+        <v>2</v>
+      </c>
+      <c r="O6" s="114">
+        <v>0</v>
+      </c>
+      <c r="P6" s="116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="118">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="R6" s="118">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="S6" s="119">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
+      <c r="A7" s="125"/>
       <c r="B7" s="113">
         <v>32</v>
       </c>
@@ -1936,21 +1957,48 @@
       <c r="G7" s="114">
         <v>900</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="116"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="119"/>
+      <c r="H7" s="114">
+        <v>60</v>
+      </c>
+      <c r="I7" s="114">
+        <v>35</v>
+      </c>
+      <c r="J7" s="116">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K7" s="114">
+        <v>258950</v>
+      </c>
+      <c r="L7" s="114">
+        <v>117647</v>
+      </c>
+      <c r="M7" s="117">
+        <f t="shared" si="1"/>
+        <v>0.45432322842247536</v>
+      </c>
+      <c r="N7" s="114">
+        <v>2</v>
+      </c>
+      <c r="O7" s="114">
+        <v>0.9</v>
+      </c>
+      <c r="P7" s="116">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="Q7" s="118">
+        <v>3.49E-2</v>
+      </c>
+      <c r="R7" s="118">
+        <v>2.24E-2</v>
+      </c>
+      <c r="S7" s="119">
+        <v>1.78E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="128"/>
+      <c r="A8" s="126"/>
       <c r="B8" s="120">
         <v>33</v>
       </c>
@@ -1969,30 +2017,48 @@
       <c r="G8" s="121">
         <v>900</v>
       </c>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="122" t="e">
+      <c r="H8" s="121">
+        <v>60</v>
+      </c>
+      <c r="I8" s="121">
+        <v>26</v>
+      </c>
+      <c r="J8" s="116">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="123" t="e">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="K8" s="121">
+        <v>258938</v>
+      </c>
+      <c r="L8" s="121">
+        <v>117464</v>
+      </c>
+      <c r="M8" s="117">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="122" t="e">
+        <v>0.45363755030161662</v>
+      </c>
+      <c r="N8" s="121">
+        <v>2</v>
+      </c>
+      <c r="O8" s="121">
+        <v>0</v>
+      </c>
+      <c r="P8" s="116">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" s="124"/>
-      <c r="R8" s="124"/>
-      <c r="S8" s="125"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="122">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="R8" s="122">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="S8" s="123">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="129" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="69">
@@ -2058,7 +2124,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="21">
         <v>0</v>
       </c>
@@ -2103,7 +2169,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="21">
         <v>1</v>
       </c>
@@ -2163,7 +2229,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="21">
         <v>3</v>
       </c>
@@ -2223,7 +2289,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="21">
         <v>4</v>
       </c>
@@ -2283,7 +2349,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="133"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="76">
         <v>2</v>
       </c>
@@ -2343,7 +2409,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="128" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="65">
@@ -2390,7 +2456,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="41">
         <v>58</v>
       </c>
@@ -2426,7 +2492,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="128"/>
       <c r="B17" s="41">
         <v>59</v>
       </c>
@@ -2471,7 +2537,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="129" t="s">
+      <c r="A18" s="127" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -2532,7 +2598,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="1">
         <v>58</v>
       </c>
@@ -2591,7 +2657,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
+      <c r="A20" s="127"/>
       <c r="B20" s="91">
         <v>59</v>
       </c>
@@ -2650,7 +2716,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="132" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="98">
@@ -2715,7 +2781,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="135"/>
+      <c r="A22" s="133"/>
       <c r="B22" s="81">
         <v>43</v>
       </c>
@@ -2778,7 +2844,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="135"/>
+      <c r="A23" s="133"/>
       <c r="B23" s="81">
         <v>44</v>
       </c>
@@ -2841,7 +2907,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="135"/>
+      <c r="A24" s="133"/>
       <c r="B24" s="81">
         <v>43</v>
       </c>
@@ -2901,7 +2967,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="135"/>
+      <c r="A25" s="133"/>
       <c r="B25" s="81">
         <v>44</v>
       </c>
@@ -2961,7 +3027,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
+      <c r="A26" s="133"/>
       <c r="B26" s="81">
         <v>70</v>
       </c>
@@ -3024,7 +3090,7 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="136"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="104">
         <v>71</v>
       </c>
@@ -3899,7 +3965,7 @@
         <v>18450</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1.8094555589E-2</v>
       </c>
@@ -3920,7 +3986,7 @@
         <v>258953</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1.8094553691E-2</v>
       </c>
@@ -3936,8 +4002,12 @@
       <c r="M66">
         <v>12981</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S66">
+        <f>SUM(S69:S88)</f>
+        <v>258950</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1.8094553467999999E-2</v>
       </c>
@@ -3954,7 +4024,7 @@
         <v>12978</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.8094553138999998E-2</v>
       </c>
@@ -3970,8 +4040,11 @@
       <c r="M68">
         <v>12977</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.8094550208E-2</v>
       </c>
@@ -3987,8 +4060,18 @@
       <c r="M69">
         <v>12974</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P69" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q69">
+        <f>SUM(P70:P89)</f>
+        <v>258930</v>
+      </c>
+      <c r="S69">
+        <v>12980</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.8094547175E-2</v>
       </c>
@@ -4004,8 +4087,14 @@
       <c r="M70">
         <v>12971</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P70">
+        <v>12987</v>
+      </c>
+      <c r="S70">
+        <v>12980</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.8094542471000001E-2</v>
       </c>
@@ -4021,8 +4110,14 @@
       <c r="M71">
         <v>12970</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P71">
+        <v>12985</v>
+      </c>
+      <c r="S71">
+        <v>12977</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.8094542006999999E-2</v>
       </c>
@@ -4038,8 +4133,14 @@
       <c r="M72">
         <v>12961</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P72">
+        <v>12982</v>
+      </c>
+      <c r="S72">
+        <v>12975</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.8094541658E-2</v>
       </c>
@@ -4055,8 +4156,14 @@
       <c r="M73">
         <v>12956</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <v>12978</v>
+      </c>
+      <c r="S73">
+        <v>12974</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.8094539773000001E-2</v>
       </c>
@@ -4072,8 +4179,14 @@
       <c r="M74">
         <v>12950</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P74">
+        <v>12973</v>
+      </c>
+      <c r="S74">
+        <v>12971</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1.8094539082E-2</v>
       </c>
@@ -4089,8 +4202,14 @@
       <c r="M75">
         <v>12948</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P75">
+        <v>12966</v>
+      </c>
+      <c r="S75">
+        <v>12965</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1.8094538394E-2</v>
       </c>
@@ -4106,8 +4225,14 @@
       <c r="M76">
         <v>12944</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P76">
+        <v>12964</v>
+      </c>
+      <c r="S76">
+        <v>12957</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.8094536322000001E-2</v>
       </c>
@@ -4123,8 +4248,14 @@
       <c r="M77">
         <v>12942</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P77">
+        <v>12953</v>
+      </c>
+      <c r="S77">
+        <v>12948</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1.8094536118E-2</v>
       </c>
@@ -4134,8 +4265,14 @@
       <c r="M78">
         <v>12938</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P78">
+        <v>12953</v>
+      </c>
+      <c r="S78">
+        <v>12946</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.8094534214000001E-2</v>
       </c>
@@ -4145,8 +4282,14 @@
       <c r="M79">
         <v>12935</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P79">
+        <v>12944</v>
+      </c>
+      <c r="S79">
+        <v>12945</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.8094532173E-2</v>
       </c>
@@ -4156,8 +4299,14 @@
       <c r="M80">
         <v>12929</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P80">
+        <v>12937</v>
+      </c>
+      <c r="S80">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1.8094518819999999E-2</v>
       </c>
@@ -4167,28 +4316,263 @@
       <c r="M81">
         <v>12926</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P81">
+        <v>12934</v>
+      </c>
+      <c r="S81">
+        <v>12939</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G82">
         <v>18409</v>
       </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82">
+        <f>AVERAGE(I83:I102)</f>
+        <v>0.9</v>
+      </c>
       <c r="M82">
         <v>12924</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P82">
+        <v>12931</v>
+      </c>
+      <c r="S82">
+        <v>12935</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>1</v>
+      </c>
       <c r="M83">
         <v>12922</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P83">
+        <v>12930</v>
+      </c>
+      <c r="S83">
+        <v>12932</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>1</v>
+      </c>
       <c r="M84">
         <v>12918</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P84">
+        <v>12930</v>
+      </c>
+      <c r="S84">
+        <v>12931</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>1</v>
+      </c>
       <c r="M85">
         <v>12909</v>
+      </c>
+      <c r="P85">
+        <v>12920</v>
+      </c>
+      <c r="S85">
+        <v>12921</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>12918</v>
+      </c>
+      <c r="S86">
+        <v>12919</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>12916</v>
+      </c>
+      <c r="S87">
+        <v>12914</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>12916</v>
+      </c>
+      <c r="S88">
+        <v>12901</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>12913</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="K90" t="s">
+        <v>18</v>
+      </c>
+      <c r="N90">
+        <f>SUM(K91:K110)</f>
+        <v>258938</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>12989</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>12988</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>12978</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>12967</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>12966</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>12962</v>
+      </c>
+    </row>
+    <row r="97" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>12961</v>
+      </c>
+    </row>
+    <row r="98" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>12955</v>
+      </c>
+    </row>
+    <row r="99" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>12953</v>
+      </c>
+    </row>
+    <row r="100" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>12952</v>
+      </c>
+    </row>
+    <row r="101" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="102" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="103" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <v>12938</v>
+      </c>
+    </row>
+    <row r="104" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="105" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="106" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="107" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <v>12920</v>
+      </c>
+    </row>
+    <row r="108" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>12918</v>
+      </c>
+    </row>
+    <row r="109" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>12917</v>
+      </c>
+    </row>
+    <row r="110" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>12910</v>
       </c>
     </row>
   </sheetData>
@@ -4450,7 +4834,7 @@
       <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="130" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="21">
@@ -4494,7 +4878,7 @@
       <c r="S6" s="34"/>
     </row>
     <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="21">
         <v>0</v>
       </c>
@@ -4536,7 +4920,7 @@
       <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="128" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="41">
@@ -4580,7 +4964,7 @@
       <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
+      <c r="A9" s="128"/>
       <c r="B9" s="41">
         <v>58</v>
       </c>
@@ -4613,7 +4997,7 @@
       <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+      <c r="A10" s="128"/>
       <c r="B10" s="41">
         <v>59</v>
       </c>
@@ -4655,7 +5039,7 @@
       <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="135" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="35">
@@ -4699,7 +5083,7 @@
       <c r="S11" s="40"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="137"/>
+      <c r="A12" s="135"/>
       <c r="B12" s="2">
         <v>43</v>
       </c>
@@ -4741,7 +5125,7 @@
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="137"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="35">
         <v>44</v>
       </c>
@@ -4847,18 +5231,18 @@
     <row r="4" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="52"/>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="139"/>
-      <c r="O5" s="143" t="s">
+      <c r="E5" s="137"/>
+      <c r="O5" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="144"/>
-      <c r="R5" s="149" t="s">
+      <c r="P5" s="142"/>
+      <c r="R5" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="150"/>
+      <c r="S5" s="148"/>
     </row>
     <row r="6" spans="3:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="53" t="s">
@@ -4870,10 +5254,10 @@
       <c r="E6" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="145"/>
-      <c r="P6" s="146"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="152"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="144"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="150"/>
     </row>
     <row r="7" spans="3:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
@@ -4886,10 +5270,10 @@
       <c r="E7" s="55">
         <v>34</v>
       </c>
-      <c r="O7" s="147"/>
-      <c r="P7" s="148"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="148"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="146"/>
+      <c r="R7" s="145"/>
+      <c r="S7" s="146"/>
       <c r="V7" t="s">
         <v>40</v>
       </c>
@@ -4905,14 +5289,14 @@
       <c r="E8" s="55">
         <v>23</v>
       </c>
-      <c r="O8" s="141">
+      <c r="O8" s="139">
         <v>300</v>
       </c>
-      <c r="P8" s="142"/>
-      <c r="R8" s="141">
+      <c r="P8" s="140"/>
+      <c r="R8" s="139">
         <v>300</v>
       </c>
-      <c r="S8" s="142"/>
+      <c r="S8" s="140"/>
       <c r="V8" t="s">
         <v>38</v>
       </c>
@@ -5000,14 +5384,14 @@
       <c r="S14" s="59"/>
     </row>
     <row r="15" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="141">
+      <c r="O15" s="139">
         <v>600</v>
       </c>
-      <c r="P15" s="142"/>
-      <c r="R15" s="141">
+      <c r="P15" s="140"/>
+      <c r="R15" s="139">
         <v>600</v>
       </c>
-      <c r="S15" s="142"/>
+      <c r="S15" s="140"/>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.25">
       <c r="O16" s="7" t="s">
@@ -5076,18 +5460,18 @@
       <c r="S21" s="59"/>
     </row>
     <row r="22" spans="10:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="141">
+      <c r="O22" s="139">
         <v>1800</v>
       </c>
-      <c r="P22" s="142"/>
-      <c r="R22" s="141">
+      <c r="P22" s="140"/>
+      <c r="R22" s="139">
         <v>1800</v>
       </c>
-      <c r="S22" s="142"/>
+      <c r="S22" s="140"/>
     </row>
     <row r="23" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J23" s="140"/>
-      <c r="K23" s="140"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
       <c r="O23" s="7" t="s">
         <v>31</v>
       </c>
@@ -5186,17 +5570,17 @@
     <row r="2" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C3" s="52"/>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="156"/>
+      <c r="E3" s="154"/>
     </row>
     <row r="4" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="154"/>
+      <c r="E4" s="152"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">

--- a/trunk/SurveyFiles/Log simulaciones PLC.xlsx
+++ b/trunk/SurveyFiles/Log simulaciones PLC.xlsx
@@ -10,7 +10,7 @@
     <sheet name="PLC" sheetId="1" r:id="rId1"/>
     <sheet name="Mesh" sheetId="2" r:id="rId2"/>
     <sheet name="Analisis por f" sheetId="3" r:id="rId3"/>
-    <sheet name="Analisis por densidad" sheetId="5" r:id="rId4"/>
+    <sheet name="Analisis por densidad" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="Hoja3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="56">
   <si>
     <t>PDR AMR</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Promedio</t>
   </si>
   <si>
-    <t>MESH</t>
-  </si>
-  <si>
     <t>Densidad</t>
   </si>
   <si>
@@ -159,6 +156,36 @@
   </si>
   <si>
     <t>BEST  CASE with sim time: 1850s</t>
+  </si>
+  <si>
+    <t>WAM</t>
+  </si>
+  <si>
+    <t>0.1 intermediate</t>
+  </si>
+  <si>
+    <t>0.1 best</t>
+  </si>
+  <si>
+    <t>RTP</t>
+  </si>
+  <si>
+    <t>900.WC</t>
+  </si>
+  <si>
+    <t>900 IC</t>
+  </si>
+  <si>
+    <t>900 BC</t>
+  </si>
+  <si>
+    <t>PDR AMR - PLC</t>
+  </si>
+  <si>
+    <t>PDR WAM - PLC</t>
+  </si>
+  <si>
+    <t>PDR RTP - PLC</t>
   </si>
 </sst>
 </file>
@@ -261,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +367,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -688,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -842,8 +875,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -851,9 +882,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1002,7 +1030,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1096,18 +1123,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1120,6 +1135,19 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1166,10 +1194,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisis por f'!$C$7:$C$27</c:f>
+              <c:f>'Analisis por f'!$C$7:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>300</c:v>
                 </c:pt>
@@ -1184,18 +1212,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisis por f'!$D$7:$D$27</c:f>
+              <c:f>'Analisis por f'!$D$7:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31.666666666666668</c:v>
+                  <c:v>0.28749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.223333333333333</c:v>
+                  <c:v>0.49000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.666666666666668</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1213,10 +1241,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisis por f'!$C$7:$C$27</c:f>
+              <c:f>'Analisis por f'!$C$7:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>300</c:v>
                 </c:pt>
@@ -1231,18 +1259,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisis por f'!$E$7:$E$27</c:f>
+              <c:f>'Analisis por f'!$E$7:$E$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.36499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>0.68600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,7 +1311,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1294,6 +1322,355 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PLC</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Analisis por f'!$L$7:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Analisis por f'!$M$7:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.21727711348482237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45559309640589241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45456256932373529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mesh</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Analisis por f'!$L$7:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Analisis por f'!$N$7:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="70321280"/>
+        <c:axId val="70321856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="70321280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70321856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="70321856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70321280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-CO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PLC</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Analisis por f'!$V$9:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Analisis por f'!$W$9:$W$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32666666666666661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mesh</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Analisis por f'!$V$9:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Analisis por f'!$X$9:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="68077248"/>
+        <c:axId val="68080704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="68077248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68080704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="68080704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68077248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1312,16 +1689,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1335,6 +1712,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="3 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="4 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1630,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W110"/>
+  <dimension ref="A1:W106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,419 +2155,437 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="107">
-        <v>13</v>
-      </c>
-      <c r="C3" s="108" t="s">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="104">
+        <v>34</v>
+      </c>
+      <c r="C3" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="108">
+      <c r="D3" s="105">
         <v>1300</v>
       </c>
-      <c r="E3" s="108">
+      <c r="E3" s="105">
         <v>600</v>
       </c>
-      <c r="F3" s="108">
+      <c r="F3" s="105">
         <v>0.1</v>
       </c>
-      <c r="G3" s="108">
+      <c r="G3" s="105">
         <v>900</v>
       </c>
-      <c r="H3" s="108">
+      <c r="H3" s="105">
         <f>3*20</f>
         <v>60</v>
       </c>
-      <c r="I3" s="108">
+      <c r="I3" s="105">
         <v>31</v>
       </c>
-      <c r="J3" s="109">
+      <c r="J3" s="106">
         <f>I3/H3</f>
         <v>0.51666666666666672</v>
       </c>
-      <c r="K3" s="108">
+      <c r="K3" s="105">
         <v>258924</v>
       </c>
-      <c r="L3" s="108">
+      <c r="L3" s="105">
         <v>119371</v>
       </c>
-      <c r="M3" s="110">
+      <c r="M3" s="107">
         <f>L3/K3</f>
         <v>0.46102717399700299</v>
       </c>
-      <c r="N3" s="108">
+      <c r="N3" s="105">
         <v>2</v>
       </c>
-      <c r="O3" s="108">
+      <c r="O3" s="105">
         <v>1</v>
       </c>
-      <c r="P3" s="109">
+      <c r="P3" s="106">
         <f>O3/N3</f>
         <v>0.5</v>
       </c>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="112"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="125"/>
-      <c r="B4" s="113">
-        <v>13</v>
-      </c>
-      <c r="C4" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="114">
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="109"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="121"/>
+      <c r="B4" s="110">
+        <v>30</v>
+      </c>
+      <c r="C4" s="111" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="111">
         <v>1300</v>
       </c>
-      <c r="E4" s="114">
+      <c r="E4" s="111">
         <v>600</v>
       </c>
-      <c r="F4" s="114">
+      <c r="F4" s="111">
         <v>0.1</v>
       </c>
-      <c r="G4" s="114">
+      <c r="G4" s="111">
         <v>900</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="116" t="e">
-        <f t="shared" ref="J4:J8" si="0">I4/H4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="117" t="e">
-        <f t="shared" ref="M4:M8" si="1">L4/K4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="116" t="e">
-        <f t="shared" ref="P4:P8" si="2">O4/N4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="119"/>
+      <c r="H4" s="111">
+        <v>60</v>
+      </c>
+      <c r="I4" s="111">
+        <v>24</v>
+      </c>
+      <c r="J4" s="112">
+        <f t="shared" ref="J4:J7" si="0">I4/H4</f>
+        <v>0.4</v>
+      </c>
+      <c r="K4" s="111">
+        <v>258953</v>
+      </c>
+      <c r="L4" s="111">
+        <v>117636</v>
+      </c>
+      <c r="M4" s="113">
+        <f t="shared" ref="M4:M7" si="1">L4/K4</f>
+        <v>0.45427548628515602</v>
+      </c>
+      <c r="N4" s="111">
+        <v>2</v>
+      </c>
+      <c r="O4" s="111">
+        <v>1</v>
+      </c>
+      <c r="P4" s="112">
+        <f t="shared" ref="P4:P7" si="2">O4/N4</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="114">
+        <v>4.4479999999999999E-2</v>
+      </c>
+      <c r="R4" s="114">
+        <v>2.23E-2</v>
+      </c>
+      <c r="S4" s="115">
+        <v>1.8089999999999998E-2</v>
+      </c>
+      <c r="W4">
+        <f>AVERAGE(V13:V31)</f>
+        <v>1.8377447147823529E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="125"/>
-      <c r="B5" s="113">
-        <v>30</v>
-      </c>
-      <c r="C5" s="114" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="110">
+        <v>31</v>
+      </c>
+      <c r="C5" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="114">
+      <c r="D5" s="111">
         <v>1300</v>
       </c>
-      <c r="E5" s="114">
+      <c r="E5" s="111">
         <v>600</v>
       </c>
-      <c r="F5" s="114">
+      <c r="F5" s="111">
         <v>0.1</v>
       </c>
-      <c r="G5" s="114">
+      <c r="G5" s="111">
         <v>900</v>
       </c>
-      <c r="H5" s="114">
+      <c r="H5" s="111">
         <v>60</v>
       </c>
-      <c r="I5" s="114">
-        <v>24</v>
-      </c>
-      <c r="J5" s="116">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="K5" s="114">
-        <v>258953</v>
-      </c>
-      <c r="L5" s="114">
-        <v>117636</v>
-      </c>
-      <c r="M5" s="117">
-        <f t="shared" si="1"/>
-        <v>0.45427548628515602</v>
-      </c>
-      <c r="N5" s="114">
-        <v>2</v>
-      </c>
-      <c r="O5" s="114">
-        <v>1</v>
-      </c>
-      <c r="P5" s="116">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="118">
-        <v>4.4479999999999999E-2</v>
-      </c>
-      <c r="R5" s="118">
-        <v>2.23E-2</v>
-      </c>
-      <c r="S5" s="119">
-        <v>1.8089999999999998E-2</v>
-      </c>
-      <c r="W5">
-        <f>AVERAGE(V15:V35)</f>
-        <v>1.8377445272789474E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
-      <c r="B6" s="113">
+      <c r="I5" s="111">
         <v>31</v>
       </c>
-      <c r="C6" s="114" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="114">
-        <v>1300</v>
-      </c>
-      <c r="E6" s="114">
-        <v>600</v>
-      </c>
-      <c r="F6" s="114">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="114">
-        <v>900</v>
-      </c>
-      <c r="H6" s="114">
-        <v>60</v>
-      </c>
-      <c r="I6" s="114">
-        <v>31</v>
-      </c>
-      <c r="J6" s="116">
+      <c r="J5" s="112">
         <f t="shared" si="0"/>
         <v>0.51666666666666672</v>
       </c>
-      <c r="K6" s="114">
+      <c r="K5" s="111">
         <v>258930</v>
       </c>
-      <c r="L6" s="114">
+      <c r="L5" s="111">
         <v>117736</v>
       </c>
-      <c r="M6" s="117">
-        <f>L6/K6</f>
+      <c r="M5" s="113">
+        <f>L5/K5</f>
         <v>0.45470204302321093</v>
       </c>
-      <c r="N6" s="114">
+      <c r="N5" s="111">
         <v>2</v>
       </c>
-      <c r="O6" s="114">
+      <c r="O5" s="111">
         <v>0</v>
       </c>
-      <c r="P6" s="116">
+      <c r="P5" s="112">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="118">
+      <c r="Q5" s="114">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="R6" s="118">
+      <c r="R5" s="114">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="S6" s="119">
+      <c r="S5" s="115">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
-      <c r="B7" s="113">
+    <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="121"/>
+      <c r="B6" s="110">
         <v>32</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C6" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="114">
+      <c r="D6" s="111">
         <v>1300</v>
       </c>
-      <c r="E7" s="114">
+      <c r="E6" s="111">
         <v>600</v>
       </c>
-      <c r="F7" s="114">
+      <c r="F6" s="111">
         <v>0.1</v>
       </c>
-      <c r="G7" s="114">
+      <c r="G6" s="111">
         <v>900</v>
       </c>
-      <c r="H7" s="114">
+      <c r="H6" s="111">
         <v>60</v>
       </c>
-      <c r="I7" s="114">
+      <c r="I6" s="111">
         <v>35</v>
       </c>
-      <c r="J7" s="116">
+      <c r="J6" s="112">
         <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="K7" s="114">
+      <c r="K6" s="111">
         <v>258950</v>
       </c>
-      <c r="L7" s="114">
+      <c r="L6" s="111">
         <v>117647</v>
       </c>
-      <c r="M7" s="117">
+      <c r="M6" s="113">
         <f t="shared" si="1"/>
         <v>0.45432322842247536</v>
       </c>
-      <c r="N7" s="114">
+      <c r="N6" s="111">
         <v>2</v>
       </c>
-      <c r="O7" s="114">
+      <c r="O6" s="111">
         <v>0.9</v>
       </c>
-      <c r="P7" s="116">
+      <c r="P6" s="112">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
-      <c r="Q7" s="118">
+      <c r="Q6" s="114">
         <v>3.49E-2</v>
       </c>
-      <c r="R7" s="118">
+      <c r="R6" s="114">
         <v>2.24E-2</v>
       </c>
-      <c r="S7" s="119">
+      <c r="S6" s="115">
         <v>1.78E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
-      <c r="B8" s="120">
+    <row r="7" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="122"/>
+      <c r="B7" s="116">
         <v>33</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C7" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="121">
+      <c r="D7" s="117">
         <v>1300</v>
       </c>
-      <c r="E8" s="121">
+      <c r="E7" s="117">
         <v>600</v>
       </c>
-      <c r="F8" s="121">
+      <c r="F7" s="117">
         <v>0.1</v>
       </c>
-      <c r="G8" s="121">
+      <c r="G7" s="117">
         <v>900</v>
       </c>
-      <c r="H8" s="121">
+      <c r="H7" s="117">
         <v>60</v>
       </c>
-      <c r="I8" s="121">
+      <c r="I7" s="117">
         <v>26</v>
       </c>
-      <c r="J8" s="116">
+      <c r="J7" s="112">
         <f t="shared" si="0"/>
         <v>0.43333333333333335</v>
       </c>
-      <c r="K8" s="121">
+      <c r="K7" s="117">
         <v>258938</v>
       </c>
-      <c r="L8" s="121">
+      <c r="L7" s="117">
         <v>117464</v>
       </c>
-      <c r="M8" s="117">
+      <c r="M7" s="113">
         <f t="shared" si="1"/>
         <v>0.45363755030161662</v>
       </c>
-      <c r="N8" s="121">
+      <c r="N7" s="117">
         <v>2</v>
       </c>
-      <c r="O8" s="121">
+      <c r="O7" s="117">
         <v>0</v>
       </c>
-      <c r="P8" s="116">
+      <c r="P7" s="112">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="122">
+      <c r="Q7" s="118">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="R8" s="122">
+      <c r="R7" s="118">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="S8" s="123">
+      <c r="S7" s="119">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="69">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="66">
         <v>0</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D8" s="67">
         <v>950</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E8" s="67">
         <v>300</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F8" s="67">
         <v>0.04</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G8" s="67">
         <v>900</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H8" s="67">
         <f>4*20</f>
         <v>80</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I8" s="67">
         <v>22</v>
       </c>
-      <c r="J9" s="71">
-        <f t="shared" ref="J9:J20" si="3">I9/H9</f>
+      <c r="J8" s="68">
+        <f t="shared" ref="J8:J18" si="3">I8/H8</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="K9" s="70">
+      <c r="K8" s="67">
         <v>472319</v>
       </c>
-      <c r="L9" s="70">
+      <c r="L8" s="67">
         <v>102801</v>
       </c>
-      <c r="M9" s="71">
-        <f t="shared" ref="M9:M20" si="4">L9/K9</f>
+      <c r="M8" s="68">
+        <f t="shared" ref="M8:M18" si="4">L8/K8</f>
         <v>0.21765162951310449</v>
       </c>
-      <c r="N9" s="70">
+      <c r="N8" s="67">
         <v>2</v>
       </c>
-      <c r="O9" s="70">
+      <c r="O8" s="67">
         <v>1</v>
       </c>
-      <c r="P9" s="71">
-        <f t="shared" ref="P9:P20" si="5">O9/N9</f>
+      <c r="P8" s="68">
+        <f t="shared" ref="P8:P18" si="5">O8/N8</f>
         <v>0.5</v>
       </c>
-      <c r="Q9" s="72">
+      <c r="Q8" s="69">
         <v>1.9012</v>
       </c>
-      <c r="R9" s="73">
+      <c r="R8" s="70">
         <v>2.70797</v>
       </c>
-      <c r="S9" s="74">
+      <c r="S8" s="71">
         <v>1.8370000000000001E-2</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
+    <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="126"/>
+      <c r="B9" s="21">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="19">
+        <v>950</v>
+      </c>
+      <c r="E9" s="19">
+        <v>300</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="G9" s="19">
+        <v>900</v>
+      </c>
+      <c r="H9" s="19">
+        <v>80</v>
+      </c>
+      <c r="I9" s="19">
+        <v>23</v>
+      </c>
+      <c r="J9" s="22">
+        <f t="shared" si="3"/>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="K9" s="19">
+        <v>472315</v>
+      </c>
+      <c r="L9" s="19">
+        <v>102701</v>
+      </c>
+      <c r="M9" s="22">
+        <f t="shared" si="4"/>
+        <v>0.21744174967976879</v>
+      </c>
+      <c r="N9" s="19">
+        <v>2</v>
+      </c>
+      <c r="O9" s="19">
+        <v>1</v>
+      </c>
+      <c r="P9" s="22">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="34">
+        <v>1.9094</v>
+      </c>
+      <c r="R9" s="34">
+        <v>2.6869000000000001</v>
+      </c>
+      <c r="S9" s="72">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="126"/>
       <c r="B10" s="21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>6</v>
@@ -2143,2445 +2602,2214 @@
       <c r="G10" s="19">
         <v>900</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="22" t="e">
+      <c r="H10" s="19">
+        <v>80</v>
+      </c>
+      <c r="I10" s="19">
+        <v>21</v>
+      </c>
+      <c r="J10" s="22">
+        <f t="shared" si="3"/>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="K10" s="19">
+        <v>472328</v>
+      </c>
+      <c r="L10" s="19">
+        <v>102613</v>
+      </c>
+      <c r="M10" s="22">
+        <f t="shared" si="4"/>
+        <v>0.21724945376941449</v>
+      </c>
+      <c r="N10" s="19">
+        <v>2</v>
+      </c>
+      <c r="O10" s="19">
+        <v>1</v>
+      </c>
+      <c r="P10" s="22">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="34">
+        <v>1.9399</v>
+      </c>
+      <c r="R10" s="34">
+        <v>2.6638000000000002</v>
+      </c>
+      <c r="S10" s="72">
+        <v>4.99E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="126"/>
+      <c r="B11" s="21">
+        <v>4</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="19">
+        <v>950</v>
+      </c>
+      <c r="E11" s="19">
+        <v>300</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="G11" s="19">
+        <v>900</v>
+      </c>
+      <c r="H11" s="19">
+        <v>80</v>
+      </c>
+      <c r="I11" s="19">
+        <v>19</v>
+      </c>
+      <c r="J11" s="22">
+        <f t="shared" si="3"/>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="K11" s="19">
+        <v>472500</v>
+      </c>
+      <c r="L11" s="19">
+        <v>102454</v>
+      </c>
+      <c r="M11" s="22">
+        <f t="shared" si="4"/>
+        <v>0.21683386243386243</v>
+      </c>
+      <c r="N11" s="19">
+        <v>2</v>
+      </c>
+      <c r="O11" s="19">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>2.1547000000000001</v>
+      </c>
+      <c r="R11" s="34">
+        <v>2.7778</v>
+      </c>
+      <c r="S11" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="127"/>
+      <c r="B12" s="73">
+        <v>2</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="74">
+        <v>950</v>
+      </c>
+      <c r="E12" s="74">
+        <v>300</v>
+      </c>
+      <c r="F12" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="G12" s="74">
+        <v>900</v>
+      </c>
+      <c r="H12" s="74">
+        <v>80</v>
+      </c>
+      <c r="I12" s="74">
+        <v>30</v>
+      </c>
+      <c r="J12" s="75">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="K12" s="74">
+        <v>472361</v>
+      </c>
+      <c r="L12" s="74">
+        <v>102601</v>
+      </c>
+      <c r="M12" s="75">
+        <f t="shared" si="4"/>
+        <v>0.21720887202796166</v>
+      </c>
+      <c r="N12" s="74">
+        <v>2</v>
+      </c>
+      <c r="O12" s="74">
+        <v>1</v>
+      </c>
+      <c r="P12" s="75">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="76">
+        <v>1.8173999999999999</v>
+      </c>
+      <c r="R12" s="76">
+        <v>2.8208000000000002</v>
+      </c>
+      <c r="S12" s="77">
+        <v>3.5299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="62">
+        <v>57</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="63">
+        <v>4000</v>
+      </c>
+      <c r="E13" s="63">
+        <v>3600</v>
+      </c>
+      <c r="F13" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="63">
+        <v>3600</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="22" t="e">
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="22" t="e">
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="64" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="64"/>
-      <c r="V10">
-        <v>1.8377438632999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="21">
-        <v>1</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="V13">
+        <v>1.8377415779000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="124"/>
+      <c r="B14" s="41">
+        <v>58</v>
+      </c>
+      <c r="C14" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="19">
-        <v>950</v>
-      </c>
-      <c r="E11" s="19">
-        <v>300</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="G11" s="19">
-        <v>900</v>
-      </c>
-      <c r="H11" s="19">
-        <v>80</v>
-      </c>
-      <c r="I11" s="19">
-        <v>23</v>
-      </c>
-      <c r="J11" s="22">
-        <f t="shared" si="3"/>
-        <v>0.28749999999999998</v>
-      </c>
-      <c r="K11" s="19">
-        <v>472315</v>
-      </c>
-      <c r="L11" s="19">
-        <v>102701</v>
-      </c>
-      <c r="M11" s="22">
-        <f t="shared" si="4"/>
-        <v>0.21744174967976879</v>
-      </c>
-      <c r="N11" s="19">
-        <v>2</v>
-      </c>
-      <c r="O11" s="19">
-        <v>1</v>
-      </c>
-      <c r="P11" s="22">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q11" s="34">
-        <v>1.9094</v>
-      </c>
-      <c r="R11" s="34">
-        <v>2.6869000000000001</v>
-      </c>
-      <c r="S11" s="75">
-        <v>1.83E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
-      <c r="B12" s="21">
-        <v>3</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="D14" s="42">
+        <v>400</v>
+      </c>
+      <c r="E14" s="42">
+        <v>3600</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="42">
+        <v>3600</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="V14">
+        <v>1.8377486969E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="124"/>
+      <c r="B15" s="41">
+        <v>59</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="19">
-        <v>950</v>
-      </c>
-      <c r="E12" s="19">
-        <v>300</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="G12" s="19">
-        <v>900</v>
-      </c>
-      <c r="H12" s="19">
-        <v>80</v>
-      </c>
-      <c r="I12" s="19">
-        <v>21</v>
-      </c>
-      <c r="J12" s="22">
-        <f t="shared" si="3"/>
-        <v>0.26250000000000001</v>
-      </c>
-      <c r="K12" s="19">
-        <v>472328</v>
-      </c>
-      <c r="L12" s="19">
-        <v>102613</v>
-      </c>
-      <c r="M12" s="22">
-        <f t="shared" si="4"/>
-        <v>0.21724945376941449</v>
-      </c>
-      <c r="N12" s="19">
-        <v>2</v>
-      </c>
-      <c r="O12" s="19">
-        <v>1</v>
-      </c>
-      <c r="P12" s="22">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q12" s="34">
-        <v>1.9399</v>
-      </c>
-      <c r="R12" s="34">
-        <v>2.6638000000000002</v>
-      </c>
-      <c r="S12" s="75">
-        <v>4.99E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
-      <c r="B13" s="21">
-        <v>4</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="19">
-        <v>950</v>
-      </c>
-      <c r="E13" s="19">
-        <v>300</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="G13" s="19">
-        <v>900</v>
-      </c>
-      <c r="H13" s="19">
-        <v>80</v>
-      </c>
-      <c r="I13" s="19">
-        <v>19</v>
-      </c>
-      <c r="J13" s="22">
-        <f t="shared" si="3"/>
-        <v>0.23749999999999999</v>
-      </c>
-      <c r="K13" s="19">
-        <v>472500</v>
-      </c>
-      <c r="L13" s="19">
-        <v>102454</v>
-      </c>
-      <c r="M13" s="22">
-        <f t="shared" si="4"/>
-        <v>0.21683386243386243</v>
-      </c>
-      <c r="N13" s="19">
-        <v>2</v>
-      </c>
-      <c r="O13" s="19">
-        <v>0</v>
-      </c>
-      <c r="P13" s="22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="34">
-        <v>2.1547000000000001</v>
-      </c>
-      <c r="R13" s="34">
-        <v>2.7778</v>
-      </c>
-      <c r="S13" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="131"/>
-      <c r="B14" s="76">
-        <v>2</v>
-      </c>
-      <c r="C14" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="77">
-        <v>950</v>
-      </c>
-      <c r="E14" s="77">
-        <v>300</v>
-      </c>
-      <c r="F14" s="77">
-        <v>0.04</v>
-      </c>
-      <c r="G14" s="77">
-        <v>900</v>
-      </c>
-      <c r="H14" s="77">
-        <v>80</v>
-      </c>
-      <c r="I14" s="77">
-        <v>30</v>
-      </c>
-      <c r="J14" s="78">
-        <f t="shared" si="3"/>
-        <v>0.375</v>
-      </c>
-      <c r="K14" s="77">
-        <v>472361</v>
-      </c>
-      <c r="L14" s="77">
-        <v>102601</v>
-      </c>
-      <c r="M14" s="78">
-        <f t="shared" si="4"/>
-        <v>0.21720887202796166</v>
-      </c>
-      <c r="N14" s="77">
-        <v>2</v>
-      </c>
-      <c r="O14" s="77">
-        <v>1</v>
-      </c>
-      <c r="P14" s="78">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q14" s="79">
-        <v>1.8173999999999999</v>
-      </c>
-      <c r="R14" s="79">
-        <v>2.8208000000000002</v>
-      </c>
-      <c r="S14" s="80">
-        <v>3.5299999999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="65">
-        <v>57</v>
-      </c>
-      <c r="C15" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="66">
+      <c r="D15" s="42">
         <v>4000</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="42">
         <v>3600</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="42">
         <v>0.1</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="42">
         <v>3600</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67" t="e">
-        <f t="shared" si="3"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43" t="e">
+        <f>I15/H15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67" t="e">
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="67" t="e">
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="43" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
       <c r="V15">
-        <v>1.8377415779000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="128"/>
-      <c r="B16" s="41">
-        <v>58</v>
-      </c>
-      <c r="C16" s="42" t="s">
+        <v>1.8377447735E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="42">
-        <v>400</v>
-      </c>
-      <c r="E16" s="42">
+      <c r="D16" s="20">
+        <v>7500</v>
+      </c>
+      <c r="E16" s="3">
         <v>3600</v>
       </c>
-      <c r="F16" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="G16" s="42">
+      <c r="F16" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G16" s="3">
         <v>3600</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="V16">
-        <v>1.8377486969E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="128"/>
-      <c r="B17" s="41">
-        <v>59</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="42">
-        <v>4000</v>
-      </c>
-      <c r="E17" s="42">
-        <v>3600</v>
-      </c>
-      <c r="F17" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="42">
-        <v>3600</v>
-      </c>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43" t="e">
-        <f>I17/H17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="43" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="43" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="V17">
-        <v>1.8377447735E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="127" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>57</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="20">
-        <v>7500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H16" s="3">
         <f>3*20</f>
         <v>60</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I16" s="3">
         <v>52</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J16" s="23">
         <f t="shared" si="3"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K16" s="3">
         <f>5*20</f>
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L16" s="3">
         <v>98</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M16" s="27">
         <f t="shared" si="4"/>
         <v>0.98</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N16" s="3">
         <v>3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O16" s="3">
         <v>3</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P16" s="30">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="10"/>
-      <c r="V18">
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="10"/>
+      <c r="V16">
         <v>1.8377469962000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
-      <c r="B19" s="1">
+    <row r="17" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="123"/>
+      <c r="B17" s="1">
         <v>58</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D17" s="3">
         <v>7500</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E17" s="3">
         <v>3600</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H17" s="3">
         <f>3*20</f>
         <v>60</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I17" s="3">
         <v>55</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J17" s="23">
         <f t="shared" si="3"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K17" s="3">
         <f>5*20</f>
         <v>100</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L17" s="3">
         <v>99</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M17" s="27">
         <f t="shared" si="4"/>
         <v>0.99</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N17" s="3">
         <v>3</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O17" s="3">
         <v>3</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P17" s="30">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="10"/>
-      <c r="V19">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="10"/>
+      <c r="V17">
         <v>1.8377466778E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
-      <c r="B20" s="91">
+    <row r="18" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="123"/>
+      <c r="B18" s="88">
         <v>59</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C18" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="92">
+      <c r="D18" s="89">
         <v>7500</v>
       </c>
-      <c r="E20" s="92">
+      <c r="E18" s="89">
         <v>3600</v>
       </c>
-      <c r="F20" s="92">
+      <c r="F18" s="89">
         <v>1500</v>
       </c>
-      <c r="G20" s="92">
+      <c r="G18" s="89">
         <v>3600</v>
       </c>
-      <c r="H20" s="92">
+      <c r="H18" s="89">
         <f>3*20</f>
         <v>60</v>
       </c>
-      <c r="I20" s="92">
+      <c r="I18" s="89">
         <v>60</v>
       </c>
-      <c r="J20" s="93">
+      <c r="J18" s="90">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="K20" s="92">
+      <c r="K18" s="89">
         <f>5*20</f>
         <v>100</v>
       </c>
-      <c r="L20" s="92">
+      <c r="L18" s="89">
         <v>98</v>
       </c>
-      <c r="M20" s="94">
+      <c r="M18" s="91">
         <f t="shared" si="4"/>
         <v>0.98</v>
       </c>
-      <c r="N20" s="92">
+      <c r="N18" s="89">
         <v>3</v>
       </c>
-      <c r="O20" s="92">
+      <c r="O18" s="89">
         <v>3</v>
       </c>
-      <c r="P20" s="95">
+      <c r="P18" s="92">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="97"/>
-      <c r="V20">
+      <c r="Q18" s="93"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="94"/>
+      <c r="V18">
         <v>1.8377459259000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="132" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="98">
+    <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="95">
         <v>42</v>
       </c>
-      <c r="C21" s="99" t="s">
+      <c r="C19" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="99">
+      <c r="D19" s="96">
         <v>1850</v>
       </c>
-      <c r="E21" s="99">
+      <c r="E19" s="96">
         <v>1800</v>
       </c>
-      <c r="F21" s="99">
+      <c r="F19" s="96">
         <v>0.1</v>
       </c>
-      <c r="G21" s="99">
+      <c r="G19" s="96">
         <v>900</v>
       </c>
-      <c r="H21" s="99">
+      <c r="H19" s="96">
         <v>40</v>
       </c>
-      <c r="I21" s="99">
+      <c r="I19" s="96">
         <v>20</v>
       </c>
-      <c r="J21" s="100">
-        <f>I21/H21</f>
+      <c r="J19" s="97">
+        <f>I19/H19</f>
         <v>0.5</v>
       </c>
-      <c r="K21" s="99">
+      <c r="K19" s="96">
         <v>362953</v>
       </c>
-      <c r="L21" s="99">
+      <c r="L19" s="96">
         <v>165036</v>
       </c>
-      <c r="M21" s="101">
-        <f t="shared" ref="M21:M27" si="6">L21/K21</f>
+      <c r="M19" s="98">
+        <f t="shared" ref="M19:M23" si="6">L19/K19</f>
         <v>0.45470350155529782</v>
       </c>
-      <c r="N21" s="99">
+      <c r="N19" s="96">
         <v>3</v>
       </c>
-      <c r="O21" s="99">
+      <c r="O19" s="96">
         <v>1</v>
       </c>
-      <c r="P21" s="100">
-        <f t="shared" ref="P21:P27" si="7">O21/N21</f>
+      <c r="P19" s="97">
+        <f t="shared" ref="P19:P23" si="7">O19/N19</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q21" s="102">
+      <c r="Q19" s="99">
         <v>4.8379999999999999E-2</v>
       </c>
-      <c r="R21" s="102">
+      <c r="R19" s="99">
         <v>2.24E-2</v>
       </c>
-      <c r="S21" s="103">
+      <c r="S19" s="100">
         <v>1.8089999999999998E-2</v>
       </c>
-      <c r="V21">
+      <c r="V19">
         <v>1.8377436931999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
-      <c r="B22" s="81">
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="129"/>
+      <c r="B20" s="78">
         <v>43</v>
       </c>
-      <c r="C22" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="82">
+      <c r="C20" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="79">
         <v>1850</v>
       </c>
-      <c r="E22" s="82">
+      <c r="E20" s="79">
         <v>1800</v>
       </c>
-      <c r="F22" s="82">
+      <c r="F20" s="79">
         <v>0.1</v>
       </c>
-      <c r="G22" s="82">
+      <c r="G20" s="79">
         <v>900</v>
       </c>
-      <c r="H22" s="82">
+      <c r="H20" s="79">
         <v>40</v>
       </c>
-      <c r="I22" s="82">
-        <v>40</v>
-      </c>
-      <c r="J22" s="83">
-        <f t="shared" ref="J22:J25" si="8">I22/H22</f>
-        <v>1</v>
-      </c>
-      <c r="K22" s="82">
-        <v>362931</v>
-      </c>
-      <c r="L22" s="82">
-        <v>362926</v>
-      </c>
-      <c r="M22" s="84">
-        <f t="shared" si="6"/>
-        <v>0.99998622327660081</v>
-      </c>
-      <c r="N22" s="82">
-        <v>3</v>
-      </c>
-      <c r="O22" s="82">
-        <v>2.9</v>
-      </c>
-      <c r="P22" s="83">
-        <f t="shared" si="7"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="Q22" s="87">
-        <v>5.5199999999999997E-3</v>
-      </c>
-      <c r="R22" s="87">
-        <v>4.8560000000000001E-3</v>
-      </c>
-      <c r="S22" s="86">
-        <v>1.9229E-2</v>
-      </c>
-      <c r="V22">
-        <v>1.8377437143999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
-      <c r="B23" s="81">
-        <v>44</v>
-      </c>
-      <c r="C23" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="82">
-        <v>1850</v>
-      </c>
-      <c r="E23" s="82">
-        <v>1800</v>
-      </c>
-      <c r="F23" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="G23" s="82">
-        <v>900</v>
-      </c>
-      <c r="H23" s="82">
-        <v>40</v>
-      </c>
-      <c r="I23" s="82">
-        <v>39</v>
-      </c>
-      <c r="J23" s="83">
-        <f t="shared" si="8"/>
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="K23" s="82">
-        <v>362950</v>
-      </c>
-      <c r="L23" s="82">
-        <v>355322</v>
-      </c>
-      <c r="M23" s="84">
-        <f t="shared" si="6"/>
-        <v>0.97898333103733293</v>
-      </c>
-      <c r="N23" s="82">
-        <v>3</v>
-      </c>
-      <c r="O23" s="82">
-        <v>3</v>
-      </c>
-      <c r="P23" s="83">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q23" s="87">
-        <v>1.375E-2</v>
-      </c>
-      <c r="R23" s="85">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="S23" s="86">
-        <v>1.29E-2</v>
-      </c>
-      <c r="V23">
-        <v>1.8377421525999998E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="133"/>
-      <c r="B24" s="81">
-        <v>43</v>
-      </c>
-      <c r="C24" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="82">
-        <v>1850</v>
-      </c>
-      <c r="E24" s="82">
-        <v>1800</v>
-      </c>
-      <c r="F24" s="82">
-        <v>0.1</v>
-      </c>
-      <c r="G24" s="82">
-        <v>900</v>
-      </c>
-      <c r="H24" s="82">
-        <v>40</v>
-      </c>
-      <c r="I24" s="82">
+      <c r="I20" s="79">
         <v>20</v>
       </c>
-      <c r="J24" s="83">
-        <f t="shared" si="8"/>
+      <c r="J20" s="80">
+        <f t="shared" ref="J20:J21" si="8">I20/H20</f>
         <v>0.5</v>
       </c>
-      <c r="K24" s="82">
+      <c r="K20" s="79">
         <v>368953</v>
       </c>
-      <c r="L24" s="82">
+      <c r="L20" s="79">
         <v>167788</v>
       </c>
-      <c r="M24" s="84">
+      <c r="M20" s="81">
         <f t="shared" si="6"/>
         <v>0.45476795147349391</v>
       </c>
-      <c r="N24" s="82">
+      <c r="N20" s="79">
         <v>3</v>
       </c>
-      <c r="O24" s="82">
+      <c r="O20" s="79">
         <v>1</v>
       </c>
-      <c r="P24" s="83">
+      <c r="P20" s="80">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q24" s="87">
+      <c r="Q20" s="84">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="R24" s="85">
+      <c r="R20" s="82">
         <v>2.24E-2</v>
       </c>
-      <c r="S24" s="86">
+      <c r="S20" s="83">
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="133"/>
-      <c r="B25" s="81">
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="129"/>
+      <c r="B21" s="78">
         <v>44</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C21" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D21" s="79">
         <v>1850</v>
       </c>
-      <c r="E25" s="82">
+      <c r="E21" s="79">
         <v>1800</v>
       </c>
-      <c r="F25" s="82">
+      <c r="F21" s="79">
         <v>0.1</v>
       </c>
-      <c r="G25" s="82">
+      <c r="G21" s="79">
         <v>900</v>
       </c>
-      <c r="H25" s="82">
+      <c r="H21" s="79">
         <v>40</v>
       </c>
-      <c r="I25" s="82">
+      <c r="I21" s="79">
         <v>21</v>
       </c>
-      <c r="J25" s="83">
+      <c r="J21" s="80">
         <f t="shared" si="8"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="K25" s="82">
+      <c r="K21" s="79">
         <v>368930</v>
       </c>
-      <c r="L25" s="82">
+      <c r="L21" s="79">
         <v>167600</v>
       </c>
-      <c r="M25" s="84">
+      <c r="M21" s="81">
         <f t="shared" si="6"/>
         <v>0.45428672105819534</v>
       </c>
-      <c r="N25" s="82">
+      <c r="N21" s="79">
         <v>3</v>
       </c>
-      <c r="O25" s="82">
+      <c r="O21" s="79">
         <v>0.9</v>
       </c>
-      <c r="P25" s="83">
+      <c r="P21" s="80">
         <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
-      <c r="Q25" s="87">
+      <c r="Q21" s="84">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="R25" s="85">
+      <c r="R21" s="82">
         <v>2.248E-2</v>
       </c>
-      <c r="S25" s="86">
+      <c r="S21" s="83">
         <v>4.3700000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="133"/>
-      <c r="B26" s="81">
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="129"/>
+      <c r="B22" s="78">
         <v>70</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C22" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D22" s="79">
         <v>1850</v>
       </c>
-      <c r="E26" s="82">
+      <c r="E22" s="79">
         <v>1800</v>
       </c>
-      <c r="F26" s="82">
+      <c r="F22" s="79">
         <v>0.1</v>
       </c>
-      <c r="G26" s="82">
+      <c r="G22" s="79">
         <v>900</v>
       </c>
-      <c r="H26" s="82">
+      <c r="H22" s="79">
         <v>40</v>
       </c>
-      <c r="I26" s="82">
+      <c r="I22" s="79">
         <v>20</v>
       </c>
-      <c r="J26" s="83">
-        <f>I26/H26</f>
+      <c r="J22" s="80">
+        <f>I22/H22</f>
         <v>0.5</v>
       </c>
-      <c r="K26" s="82">
+      <c r="K22" s="79">
         <v>368953</v>
       </c>
-      <c r="L26" s="82">
+      <c r="L22" s="79">
         <v>167788</v>
       </c>
-      <c r="M26" s="84">
+      <c r="M22" s="81">
         <f t="shared" si="6"/>
         <v>0.45476795147349391</v>
       </c>
-      <c r="N26" s="82">
+      <c r="N22" s="79">
         <v>3</v>
       </c>
-      <c r="O26" s="82">
+      <c r="O22" s="79">
         <v>1</v>
       </c>
-      <c r="P26" s="83">
+      <c r="P22" s="80">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q26" s="85">
+      <c r="Q22" s="82">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="R26" s="85">
+      <c r="R22" s="82">
         <v>2.24E-2</v>
       </c>
-      <c r="S26" s="86">
+      <c r="S22" s="83">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="V26">
+      <c r="V22">
         <v>1.8377446012999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="134"/>
-      <c r="B27" s="104">
+    <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="130"/>
+      <c r="B23" s="101">
         <v>71</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C23" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="88">
+      <c r="D23" s="85">
         <v>1850</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E23" s="85">
         <v>1800</v>
       </c>
-      <c r="F27" s="88">
+      <c r="F23" s="85">
         <v>0.1</v>
       </c>
-      <c r="G27" s="88">
+      <c r="G23" s="85">
         <v>900</v>
       </c>
-      <c r="H27" s="88">
+      <c r="H23" s="85">
         <v>40</v>
       </c>
-      <c r="I27" s="88">
+      <c r="I23" s="85">
         <v>21</v>
       </c>
-      <c r="J27" s="105">
-        <f>I27/H27</f>
+      <c r="J23" s="102">
+        <f>I23/H23</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="K27" s="88">
+      <c r="K23" s="85">
         <v>368930</v>
       </c>
-      <c r="L27" s="88">
+      <c r="L23" s="85">
         <v>167600</v>
       </c>
-      <c r="M27" s="106">
+      <c r="M23" s="103">
         <f t="shared" si="6"/>
         <v>0.45428672105819534</v>
       </c>
-      <c r="N27" s="88">
+      <c r="N23" s="85">
         <v>3</v>
       </c>
-      <c r="O27" s="88">
+      <c r="O23" s="85">
         <v>1</v>
       </c>
-      <c r="P27" s="105">
+      <c r="P23" s="102">
         <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="Q27" s="89">
+      <c r="Q23" s="86">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="R27" s="89">
+      <c r="R23" s="86">
         <v>2.24E-2</v>
       </c>
-      <c r="S27" s="90">
+      <c r="S23" s="87">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="V27">
+      <c r="V23">
         <v>1.8377415083E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V28">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V24">
         <v>1.8377455434E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K29">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="K25">
         <f>250/60</f>
         <v>4.166666666666667</v>
       </c>
+      <c r="V25">
+        <v>1.8377440200000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>18</v>
+      </c>
+      <c r="T26">
+        <f>AVERAGE(R27:R56)</f>
+        <v>1.8094548745599997E-2</v>
+      </c>
+      <c r="V26">
+        <v>1.8377468394E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27">
+        <f>K25*5</f>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="M27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27">
+        <f>SUM(M28:M47)</f>
+        <v>18165</v>
+      </c>
+      <c r="V27">
+        <v>1.8377416337000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28">
+        <v>1.8094541658E-2</v>
+      </c>
+      <c r="M28">
+        <v>18165</v>
+      </c>
+      <c r="U28">
+        <f>SUM(T31:T50)</f>
+        <v>368953</v>
+      </c>
+      <c r="V28">
+        <v>1.8377437404999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23545</v>
+      </c>
+      <c r="C29">
+        <f>SUM(A29:A48)</f>
+        <v>472315</v>
+      </c>
+      <c r="D29">
+        <v>1.9650456230667E-2</v>
+      </c>
+      <c r="H29">
+        <f>SUM(D29:D48)/20</f>
+        <v>1.9229383186550299E-2</v>
+      </c>
+      <c r="J29">
+        <v>1.8094542471000001E-2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>18</v>
+      </c>
       <c r="V29">
-        <v>1.8377440200000001E-2</v>
+        <v>1.8377429143000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>23705</v>
+      </c>
+      <c r="D30">
+        <v>1.9650433376667002E-2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30">
+        <v>1.8094550208E-2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30">
+        <f>AVERAGE(L30:L49)</f>
+        <v>0.9</v>
+      </c>
       <c r="R30" t="s">
         <v>18</v>
       </c>
-      <c r="T30">
-        <f>AVERAGE(R31:R60)</f>
-        <v>1.8094548745599997E-2</v>
+      <c r="T30" t="s">
+        <v>18</v>
       </c>
       <c r="V30">
-        <v>1.8377468394E-2</v>
+        <v>1.8377459302999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J31" t="s">
-        <v>18</v>
+      <c r="A31">
+        <v>23609</v>
+      </c>
+      <c r="D31">
+        <v>1.9650504566667001E-2</v>
+      </c>
+      <c r="F31">
+        <v>18487</v>
+      </c>
+      <c r="G31">
+        <f>SUM(F31:F50)</f>
+        <v>368930</v>
+      </c>
+      <c r="J31">
+        <v>1.8094553467999999E-2</v>
       </c>
       <c r="L31">
-        <f>K29*5</f>
-        <v>20.833333333333336</v>
-      </c>
-      <c r="M31" t="s">
-        <v>18</v>
-      </c>
-      <c r="P31">
-        <f>SUM(M32:M51)</f>
-        <v>18165</v>
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>4.8586364016E-2</v>
+      </c>
+      <c r="R31">
+        <v>1.8094590051E-2</v>
+      </c>
+      <c r="T31">
+        <v>18481</v>
       </c>
       <c r="V31">
-        <v>1.8377416337000001E-2</v>
+        <v>1.8377450787E-2</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
+      <c r="A32">
+        <v>23531</v>
+      </c>
+      <c r="D32">
+        <v>1.9650465332667E-2</v>
+      </c>
+      <c r="F32">
+        <v>18485</v>
       </c>
       <c r="J32">
-        <v>1.8094541658E-2</v>
-      </c>
-      <c r="M32">
-        <v>18165</v>
-      </c>
-      <c r="U32">
-        <f>SUM(T35:T54)</f>
-        <v>368953</v>
-      </c>
-      <c r="V32">
-        <v>1.8377437404999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.8094553691E-2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>4.8586347008999997E-2</v>
+      </c>
+      <c r="Q32" t="e">
+        <f>#REF!*2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R32">
+        <v>1.8094585715E-2</v>
+      </c>
+      <c r="T32">
+        <v>18478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>23545</v>
-      </c>
-      <c r="C33">
-        <f>SUM(A33:A52)</f>
-        <v>472315</v>
+        <v>23539</v>
       </c>
       <c r="D33">
-        <v>1.9650456230667E-2</v>
+        <v>1.9650487559667001E-2</v>
+      </c>
+      <c r="F33">
+        <v>18482</v>
       </c>
       <c r="H33">
-        <f>SUM(D33:D52)/20</f>
-        <v>1.9229383186550299E-2</v>
+        <f>SUM(H36:H55)</f>
+        <v>368930</v>
       </c>
       <c r="J33">
-        <v>1.8094542471000001E-2</v>
-      </c>
-      <c r="L33" t="s">
-        <v>18</v>
-      </c>
-      <c r="V33">
-        <v>1.8377429143000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1.8094532173E-2</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>4.8586345441000003E-2</v>
+      </c>
+      <c r="R33">
+        <v>1.8094584843999999E-2</v>
+      </c>
+      <c r="T33">
+        <v>18477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>23705</v>
+        <v>23539</v>
       </c>
       <c r="D34">
-        <v>1.9650433376667002E-2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
+        <v>1.9650484375667E-2</v>
+      </c>
+      <c r="F34">
+        <v>18478</v>
       </c>
       <c r="J34">
-        <v>1.8094550208E-2</v>
+        <v>1.8094553138999998E-2</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34">
+        <v>4.8586343825000003E-2</v>
+      </c>
+      <c r="R34">
+        <v>1.8094555589E-2</v>
+      </c>
+      <c r="T34">
+        <v>18474</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>23664</v>
+      </c>
+      <c r="D35">
+        <v>1.5439683337499999E-2</v>
+      </c>
+      <c r="F35">
+        <v>18473</v>
+      </c>
+      <c r="H35" t="s">
         <v>18</v>
       </c>
-      <c r="P34">
-        <f>AVERAGE(L34:L53)</f>
-        <v>0.9</v>
-      </c>
-      <c r="R34" t="s">
-        <v>18</v>
-      </c>
-      <c r="T34" t="s">
-        <v>18</v>
-      </c>
-      <c r="V34">
-        <v>1.8377459302999999E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>23609</v>
-      </c>
-      <c r="D35">
-        <v>1.9650504566667001E-2</v>
-      </c>
-      <c r="F35">
-        <v>18487</v>
-      </c>
-      <c r="G35">
-        <f>SUM(F35:F54)</f>
-        <v>368930</v>
-      </c>
       <c r="J35">
-        <v>1.8094553467999999E-2</v>
+        <v>1.8094539773000001E-2</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="N35">
-        <v>4.8586364016E-2</v>
+        <v>4.8586336350000002E-2</v>
       </c>
       <c r="R35">
-        <v>1.8094590051E-2</v>
+        <v>1.8094553691E-2</v>
       </c>
       <c r="T35">
-        <v>18481</v>
-      </c>
-      <c r="V35">
-        <v>1.8377450787E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>23531</v>
+        <v>23712</v>
       </c>
       <c r="D36">
-        <v>1.9650465332667E-2</v>
+        <v>1.9650454529666999E-2</v>
       </c>
       <c r="F36">
-        <v>18485</v>
+        <v>18466</v>
+      </c>
+      <c r="H36">
+        <v>18487</v>
       </c>
       <c r="J36">
-        <v>1.8094553691E-2</v>
+        <v>1.8094518819999999E-2</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="N36">
-        <v>4.8586347008999997E-2</v>
-      </c>
-      <c r="Q36">
-        <f>Q22*2</f>
-        <v>1.1039999999999999E-2</v>
+        <v>4.8586336305999997E-2</v>
       </c>
       <c r="R36">
-        <v>1.8094585715E-2</v>
+        <v>1.8094553467999999E-2</v>
       </c>
       <c r="T36">
-        <v>18478</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18470</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>23539</v>
+        <v>23575</v>
       </c>
       <c r="D37">
-        <v>1.9650487559667001E-2</v>
+        <v>1.9650454741667E-2</v>
       </c>
       <c r="F37">
-        <v>18482</v>
+        <v>18464</v>
       </c>
       <c r="H37">
-        <f>SUM(H40:H59)</f>
-        <v>368930</v>
+        <v>18485</v>
       </c>
       <c r="J37">
-        <v>1.8094532173E-2</v>
+        <v>1.8094555589E-2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="N37">
-        <v>4.8586345441000003E-2</v>
+        <v>4.8586332481E-2</v>
       </c>
       <c r="R37">
-        <v>1.8094584843999999E-2</v>
+        <v>1.8094553138999998E-2</v>
       </c>
       <c r="T37">
-        <v>18477</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>23539</v>
+        <v>23592</v>
       </c>
       <c r="D38">
-        <v>1.9650484375667E-2</v>
+        <v>1.9650439123666999E-2</v>
       </c>
       <c r="F38">
-        <v>18478</v>
+        <v>18453</v>
+      </c>
+      <c r="H38">
+        <v>18482</v>
       </c>
       <c r="J38">
-        <v>1.8094553138999998E-2</v>
+        <v>1.8094536118E-2</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="N38">
-        <v>4.8586343825000003E-2</v>
+        <v>4.8586327834E-2</v>
       </c>
       <c r="R38">
-        <v>1.8094555589E-2</v>
+        <v>1.8094550208E-2</v>
       </c>
       <c r="T38">
-        <v>18474</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>23664</v>
+        <v>23574</v>
       </c>
       <c r="D39">
-        <v>1.5439683337499999E-2</v>
+        <v>1.9650463610667E-2</v>
       </c>
       <c r="F39">
-        <v>18473</v>
-      </c>
-      <c r="H39" t="s">
-        <v>18</v>
+        <v>18453</v>
+      </c>
+      <c r="H39">
+        <v>18478</v>
       </c>
       <c r="J39">
-        <v>1.8094539773000001E-2</v>
+        <v>1.8094542006999999E-2</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="N39">
-        <v>4.8586336350000002E-2</v>
+        <v>4.8586324782E-2</v>
+      </c>
+      <c r="P39">
+        <f>AVERAGE(N31:N50)</f>
+        <v>4.3727691484150004E-2</v>
       </c>
       <c r="R39">
-        <v>1.8094553691E-2</v>
+        <v>1.8094547175E-2</v>
       </c>
       <c r="T39">
-        <v>18471</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>23712</v>
+        <v>23633</v>
       </c>
       <c r="D40">
-        <v>1.9650454529666999E-2</v>
+        <v>1.9650432680667001E-2</v>
       </c>
       <c r="F40">
-        <v>18466</v>
+        <v>18444</v>
       </c>
       <c r="H40">
-        <v>18487</v>
+        <v>18473</v>
       </c>
       <c r="J40">
-        <v>1.8094518819999999E-2</v>
+        <v>1.8094539082E-2</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="N40">
-        <v>4.8586336305999997E-2</v>
+        <v>4.8586323059999999E-2</v>
       </c>
       <c r="R40">
-        <v>1.8094553467999999E-2</v>
+        <v>1.8094542471000001E-2</v>
       </c>
       <c r="T40">
-        <v>18470</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18448</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>23575</v>
+        <v>23681</v>
       </c>
       <c r="D41">
-        <v>1.9650454741667E-2</v>
+        <v>1.54396795125E-2</v>
       </c>
       <c r="F41">
-        <v>18464</v>
+        <v>18437</v>
       </c>
       <c r="H41">
-        <v>18485</v>
+        <v>18466</v>
       </c>
       <c r="J41">
-        <v>1.8094555589E-2</v>
+        <v>1.8094534214000001E-2</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="N41">
-        <v>4.8586332481E-2</v>
+        <v>4.8586315679999999E-2</v>
       </c>
       <c r="R41">
-        <v>1.8094553138999998E-2</v>
+        <v>1.8094542006999999E-2</v>
       </c>
       <c r="T41">
-        <v>18461</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>23592</v>
+        <v>23660</v>
       </c>
       <c r="D42">
-        <v>1.9650439123666999E-2</v>
+        <v>1.9650457797667002E-2</v>
       </c>
       <c r="F42">
-        <v>18453</v>
+        <v>18434</v>
       </c>
       <c r="H42">
-        <v>18482</v>
+        <v>18464</v>
       </c>
       <c r="J42">
-        <v>1.8094536118E-2</v>
+        <v>1.8094585715E-2</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="N42">
-        <v>4.8586327834E-2</v>
+        <v>4.8586314451999998E-2</v>
       </c>
       <c r="R42">
-        <v>1.8094550208E-2</v>
+        <v>1.8094541658E-2</v>
       </c>
       <c r="T42">
-        <v>18456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>23574</v>
+        <v>23694</v>
       </c>
       <c r="D43">
-        <v>1.9650463610667E-2</v>
+        <v>1.9650485991667001E-2</v>
       </c>
       <c r="F43">
+        <v>18431</v>
+      </c>
+      <c r="H43">
         <v>18453</v>
       </c>
-      <c r="H43">
-        <v>18478</v>
-      </c>
       <c r="J43">
-        <v>1.8094542006999999E-2</v>
+        <v>1.8094584843999999E-2</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="N43">
-        <v>4.8586324782E-2</v>
-      </c>
-      <c r="P43">
-        <f>AVERAGE(N35:N54)</f>
-        <v>4.3727691484150004E-2</v>
+        <v>4.8586314190999999E-2</v>
       </c>
       <c r="R43">
-        <v>1.8094547175E-2</v>
+        <v>1.8094539773000001E-2</v>
       </c>
       <c r="T43">
-        <v>18450</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>23633</v>
+        <v>23549</v>
       </c>
       <c r="D44">
-        <v>1.9650432680667001E-2</v>
+        <v>1.9650433934666998E-2</v>
       </c>
       <c r="F44">
-        <v>18444</v>
+        <v>18430</v>
       </c>
       <c r="H44">
-        <v>18473</v>
+        <v>18453</v>
       </c>
       <c r="J44">
-        <v>1.8094539082E-2</v>
+        <v>1.8094590051E-2</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="N44">
-        <v>4.8586323059999999E-2</v>
+        <v>4.8586313978999998E-2</v>
       </c>
       <c r="R44">
-        <v>1.8094542471000001E-2</v>
+        <v>1.8094539082E-2</v>
       </c>
       <c r="T44">
-        <v>18448</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>23681</v>
+        <v>23633</v>
       </c>
       <c r="D45">
-        <v>1.54396795125E-2</v>
+        <v>1.9650455002666999E-2</v>
       </c>
       <c r="F45">
-        <v>18437</v>
+        <v>18430</v>
       </c>
       <c r="H45">
-        <v>18466</v>
+        <v>18444</v>
       </c>
       <c r="J45">
-        <v>1.8094534214000001E-2</v>
+        <v>1.8094547175E-2</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="N45">
-        <v>4.8586315679999999E-2</v>
+        <v>4.8586306189999998E-2</v>
       </c>
       <c r="R45">
-        <v>1.8094542006999999E-2</v>
+        <v>1.8094538394E-2</v>
       </c>
       <c r="T45">
-        <v>18444</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>23660</v>
+        <v>23718</v>
       </c>
       <c r="D46">
-        <v>1.9650457797667002E-2</v>
+        <v>1.9650446740666998E-2</v>
       </c>
       <c r="F46">
-        <v>18434</v>
+        <v>18420</v>
       </c>
       <c r="H46">
-        <v>18464</v>
+        <v>18437</v>
       </c>
       <c r="J46">
-        <v>1.8094585715E-2</v>
+        <v>1.8094536322000001E-2</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="N46">
-        <v>4.8586314451999998E-2</v>
+        <v>4.8586298573000002E-2</v>
       </c>
       <c r="R46">
-        <v>1.8094541658E-2</v>
+        <v>1.8094536322000001E-2</v>
       </c>
       <c r="T46">
-        <v>18442</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18426</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>23694</v>
+        <v>23585</v>
       </c>
       <c r="D47">
-        <v>1.9650485991667001E-2</v>
+        <v>1.9650476900666999E-2</v>
       </c>
       <c r="F47">
-        <v>18431</v>
+        <v>18418</v>
       </c>
       <c r="H47">
-        <v>18453</v>
+        <v>18434</v>
       </c>
       <c r="J47">
-        <v>1.8094584843999999E-2</v>
+        <v>1.8094538394E-2</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="N47">
-        <v>4.8586314190999999E-2</v>
+        <v>4.8586293384000001E-2</v>
       </c>
       <c r="R47">
-        <v>1.8094539773000001E-2</v>
+        <v>1.8094536118E-2</v>
       </c>
       <c r="T47">
-        <v>18438</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+        <v>18424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>23549</v>
+        <v>23577</v>
       </c>
       <c r="D48">
-        <v>1.9650433934666998E-2</v>
+        <v>1.9650468384667E-2</v>
       </c>
       <c r="F48">
+        <v>18416</v>
+      </c>
+      <c r="H48">
+        <v>18431</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>4.858629213E-2</v>
+      </c>
+      <c r="R48">
+        <v>1.8094534214000001E-2</v>
+      </c>
+      <c r="T48">
+        <v>18422</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>18416</v>
+      </c>
+      <c r="H49">
         <v>18430</v>
       </c>
-      <c r="H48">
-        <v>18453</v>
-      </c>
-      <c r="J48">
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1.8094532173E-2</v>
+      </c>
+      <c r="T49">
+        <v>18418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>18413</v>
+      </c>
+      <c r="H50">
+        <v>18430</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1.8094518819999999E-2</v>
+      </c>
+      <c r="T50">
+        <v>18409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>18420</v>
+      </c>
+      <c r="J51" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51">
+        <f>SUM(J52:J71)</f>
+        <v>368953</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>18418</v>
+      </c>
+      <c r="J52">
+        <v>18481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53">
+        <v>18416</v>
+      </c>
+      <c r="J53">
+        <v>18478</v>
+      </c>
+      <c r="N53">
+        <f>SUM(K54:K73)</f>
+        <v>47030</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>23721</v>
+      </c>
+      <c r="H54">
+        <v>18416</v>
+      </c>
+      <c r="J54">
+        <v>18477</v>
+      </c>
+      <c r="S54">
+        <f>AVERAGE(R31:R50)</f>
+        <v>1.8094548745599997E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>23720</v>
+      </c>
+      <c r="H55">
+        <v>18413</v>
+      </c>
+      <c r="J55">
+        <v>18474</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>23693</v>
+      </c>
+      <c r="J56">
+        <v>18471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57">
+        <f>AVERAGE(A58:A77)</f>
+        <v>1.8094548745599997E-2</v>
+      </c>
+      <c r="D57">
+        <v>23668</v>
+      </c>
+      <c r="J57">
+        <v>18470</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>1.8094590051E-2</v>
       </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>4.8586313978999998E-2</v>
-      </c>
-      <c r="R48">
-        <v>1.8094539082E-2</v>
-      </c>
-      <c r="T48">
-        <v>18435</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>23633</v>
-      </c>
-      <c r="D49">
-        <v>1.9650455002666999E-2</v>
-      </c>
-      <c r="F49">
-        <v>18430</v>
-      </c>
-      <c r="H49">
-        <v>18444</v>
-      </c>
-      <c r="J49">
-        <v>1.8094547175E-2</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>4.8586306189999998E-2</v>
-      </c>
-      <c r="R49">
-        <v>1.8094538394E-2</v>
-      </c>
-      <c r="T49">
-        <v>18429</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>23718</v>
-      </c>
-      <c r="D50">
-        <v>1.9650446740666998E-2</v>
-      </c>
-      <c r="F50">
-        <v>18420</v>
-      </c>
-      <c r="H50">
-        <v>18437</v>
-      </c>
-      <c r="J50">
-        <v>1.8094536322000001E-2</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>4.8586298573000002E-2</v>
-      </c>
-      <c r="R50">
-        <v>1.8094536322000001E-2</v>
-      </c>
-      <c r="T50">
-        <v>18426</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>23585</v>
-      </c>
-      <c r="D51">
-        <v>1.9650476900666999E-2</v>
-      </c>
-      <c r="F51">
-        <v>18418</v>
-      </c>
-      <c r="H51">
-        <v>18434</v>
-      </c>
-      <c r="J51">
-        <v>1.8094538394E-2</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>4.8586293384000001E-2</v>
-      </c>
-      <c r="R51">
-        <v>1.8094536118E-2</v>
-      </c>
-      <c r="T51">
-        <v>18424</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>23577</v>
-      </c>
-      <c r="D52">
-        <v>1.9650468384667E-2</v>
-      </c>
-      <c r="F52">
-        <v>18416</v>
-      </c>
-      <c r="H52">
-        <v>18431</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>4.858629213E-2</v>
-      </c>
-      <c r="R52">
-        <v>1.8094534214000001E-2</v>
-      </c>
-      <c r="T52">
-        <v>18422</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F53">
-        <v>18416</v>
-      </c>
-      <c r="H53">
-        <v>18430</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>1.8094532173E-2</v>
-      </c>
-      <c r="T53">
-        <v>18418</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F54">
-        <v>18413</v>
-      </c>
-      <c r="H54">
-        <v>18430</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>1.8094518819999999E-2</v>
-      </c>
-      <c r="T54">
-        <v>18409</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H55">
-        <v>18420</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="D58">
+        <v>23664</v>
+      </c>
+      <c r="G58" t="s">
         <v>18</v>
       </c>
-      <c r="M55">
-        <f>SUM(J56:J75)</f>
-        <v>368953</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H56">
-        <v>18418</v>
-      </c>
-      <c r="J56">
+      <c r="J58">
+        <v>18461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1.8094585715E-2</v>
+      </c>
+      <c r="D59">
+        <v>23654</v>
+      </c>
+      <c r="G59">
         <v>18481</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
+      <c r="J59">
+        <v>18456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1.8094584843999999E-2</v>
+      </c>
+      <c r="D60">
+        <v>23652</v>
+      </c>
+      <c r="G60">
+        <v>18478</v>
+      </c>
+      <c r="J60">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1.8094555589E-2</v>
+      </c>
+      <c r="D61">
+        <v>23636</v>
+      </c>
+      <c r="G61">
+        <v>18477</v>
+      </c>
+      <c r="J61">
+        <v>18448</v>
+      </c>
+      <c r="M61" t="s">
         <v>18</v>
       </c>
-      <c r="H57">
-        <v>18416</v>
-      </c>
-      <c r="J57">
-        <v>18478</v>
-      </c>
-      <c r="N57">
-        <f>SUM(K58:K77)</f>
-        <v>47030</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D58">
-        <v>23721</v>
-      </c>
-      <c r="H58">
-        <v>18416</v>
-      </c>
-      <c r="J58">
-        <v>18477</v>
-      </c>
-      <c r="S58">
-        <f>AVERAGE(R35:R54)</f>
-        <v>1.8094548745599997E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D59">
-        <v>23720</v>
-      </c>
-      <c r="H59">
-        <v>18413</v>
-      </c>
-      <c r="J59">
-        <v>18474</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D60">
-        <v>23693</v>
-      </c>
-      <c r="J60">
-        <v>18471</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61">
-        <f>AVERAGE(A62:A81)</f>
-        <v>1.8094548745599997E-2</v>
-      </c>
-      <c r="D61">
-        <v>23668</v>
-      </c>
-      <c r="J61">
-        <v>18470</v>
+      <c r="P61">
+        <f>SUM(M62:M81)</f>
+        <v>258953</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1.8094590051E-2</v>
+        <v>1.8094553691E-2</v>
       </c>
       <c r="D62">
-        <v>23664</v>
-      </c>
-      <c r="G62" t="s">
-        <v>18</v>
+        <v>23632</v>
+      </c>
+      <c r="G62">
+        <v>18474</v>
       </c>
       <c r="J62">
-        <v>18461</v>
+        <v>18444</v>
+      </c>
+      <c r="M62">
+        <v>12981</v>
+      </c>
+      <c r="S62">
+        <f>SUM(S65:S84)</f>
+        <v>258950</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1.8094585715E-2</v>
+        <v>1.8094553467999999E-2</v>
       </c>
       <c r="D63">
-        <v>23654</v>
+        <v>23630</v>
       </c>
       <c r="G63">
-        <v>18481</v>
+        <v>18471</v>
       </c>
       <c r="J63">
-        <v>18456</v>
+        <v>18442</v>
+      </c>
+      <c r="M63">
+        <v>12978</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1.8094584843999999E-2</v>
+        <v>1.8094553138999998E-2</v>
       </c>
       <c r="D64">
-        <v>23652</v>
+        <v>23623</v>
       </c>
       <c r="G64">
-        <v>18478</v>
+        <v>18470</v>
       </c>
       <c r="J64">
-        <v>18450</v>
+        <v>18438</v>
+      </c>
+      <c r="M64">
+        <v>12977</v>
+      </c>
+      <c r="S64" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1.8094555589E-2</v>
+        <v>1.8094550208E-2</v>
       </c>
       <c r="D65">
-        <v>23636</v>
+        <v>23599</v>
       </c>
       <c r="G65">
-        <v>18477</v>
+        <v>18461</v>
       </c>
       <c r="J65">
-        <v>18448</v>
-      </c>
-      <c r="M65" t="s">
+        <v>18435</v>
+      </c>
+      <c r="M65">
+        <v>12974</v>
+      </c>
+      <c r="P65" t="s">
         <v>18</v>
       </c>
-      <c r="P65">
-        <f>SUM(M66:M85)</f>
-        <v>258953</v>
+      <c r="Q65">
+        <f>SUM(P66:P85)</f>
+        <v>258930</v>
+      </c>
+      <c r="S65">
+        <v>12980</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1.8094553691E-2</v>
+        <v>1.8094547175E-2</v>
       </c>
       <c r="D66">
-        <v>23632</v>
+        <v>23594</v>
       </c>
       <c r="G66">
-        <v>18474</v>
+        <v>18456</v>
       </c>
       <c r="J66">
-        <v>18444</v>
+        <v>18429</v>
       </c>
       <c r="M66">
-        <v>12981</v>
+        <v>12971</v>
+      </c>
+      <c r="P66">
+        <v>12987</v>
       </c>
       <c r="S66">
-        <f>SUM(S69:S88)</f>
-        <v>258950</v>
+        <v>12980</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1.8094553467999999E-2</v>
+        <v>1.8094542471000001E-2</v>
       </c>
       <c r="D67">
-        <v>23630</v>
+        <v>23565</v>
       </c>
       <c r="G67">
-        <v>18471</v>
+        <v>18450</v>
       </c>
       <c r="J67">
-        <v>18442</v>
+        <v>18426</v>
       </c>
       <c r="M67">
-        <v>12978</v>
+        <v>12970</v>
+      </c>
+      <c r="P67">
+        <v>12985</v>
+      </c>
+      <c r="S67">
+        <v>12977</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1.8094553138999998E-2</v>
+        <v>1.8094542006999999E-2</v>
       </c>
       <c r="D68">
-        <v>23623</v>
+        <v>23564</v>
       </c>
       <c r="G68">
-        <v>18470</v>
+        <v>18448</v>
       </c>
       <c r="J68">
-        <v>18438</v>
+        <v>18424</v>
       </c>
       <c r="M68">
-        <v>12977</v>
-      </c>
-      <c r="S68" t="s">
-        <v>18</v>
+        <v>12961</v>
+      </c>
+      <c r="P68">
+        <v>12982</v>
+      </c>
+      <c r="S68">
+        <v>12975</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1.8094550208E-2</v>
+        <v>1.8094541658E-2</v>
       </c>
       <c r="D69">
-        <v>23599</v>
+        <v>23555</v>
       </c>
       <c r="G69">
-        <v>18461</v>
+        <v>18444</v>
       </c>
       <c r="J69">
-        <v>18435</v>
+        <v>18422</v>
       </c>
       <c r="M69">
+        <v>12956</v>
+      </c>
+      <c r="P69">
+        <v>12978</v>
+      </c>
+      <c r="S69">
         <v>12974</v>
-      </c>
-      <c r="P69" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q69">
-        <f>SUM(P70:P89)</f>
-        <v>258930</v>
-      </c>
-      <c r="S69">
-        <v>12980</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1.8094547175E-2</v>
+        <v>1.8094539773000001E-2</v>
       </c>
       <c r="D70">
-        <v>23594</v>
+        <v>23548</v>
       </c>
       <c r="G70">
-        <v>18456</v>
+        <v>18442</v>
       </c>
       <c r="J70">
-        <v>18429</v>
+        <v>18418</v>
       </c>
       <c r="M70">
+        <v>12950</v>
+      </c>
+      <c r="P70">
+        <v>12973</v>
+      </c>
+      <c r="S70">
         <v>12971</v>
-      </c>
-      <c r="P70">
-        <v>12987</v>
-      </c>
-      <c r="S70">
-        <v>12980</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1.8094542471000001E-2</v>
+        <v>1.8094539082E-2</v>
       </c>
       <c r="D71">
-        <v>23565</v>
+        <v>23543</v>
       </c>
       <c r="G71">
-        <v>18450</v>
+        <v>18438</v>
       </c>
       <c r="J71">
-        <v>18426</v>
+        <v>18409</v>
       </c>
       <c r="M71">
-        <v>12970</v>
+        <v>12948</v>
       </c>
       <c r="P71">
-        <v>12985</v>
+        <v>12966</v>
       </c>
       <c r="S71">
-        <v>12977</v>
+        <v>12965</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1.8094542006999999E-2</v>
+        <v>1.8094538394E-2</v>
       </c>
       <c r="D72">
-        <v>23564</v>
+        <v>23542</v>
       </c>
       <c r="G72">
-        <v>18448</v>
-      </c>
-      <c r="J72">
-        <v>18424</v>
+        <v>18435</v>
+      </c>
+      <c r="K72">
+        <v>23517</v>
       </c>
       <c r="M72">
-        <v>12961</v>
+        <v>12944</v>
       </c>
       <c r="P72">
-        <v>12982</v>
+        <v>12964</v>
       </c>
       <c r="S72">
-        <v>12975</v>
+        <v>12957</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1.8094541658E-2</v>
+        <v>1.8094536322000001E-2</v>
       </c>
       <c r="D73">
-        <v>23555</v>
+        <v>23525</v>
       </c>
       <c r="G73">
-        <v>18444</v>
-      </c>
-      <c r="J73">
-        <v>18422</v>
+        <v>18429</v>
+      </c>
+      <c r="K73">
+        <v>23513</v>
       </c>
       <c r="M73">
-        <v>12956</v>
+        <v>12942</v>
       </c>
       <c r="P73">
-        <v>12978</v>
+        <v>12953</v>
       </c>
       <c r="S73">
-        <v>12974</v>
+        <v>12948</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1.8094539773000001E-2</v>
-      </c>
-      <c r="D74">
-        <v>23548</v>
+        <v>1.8094536118E-2</v>
       </c>
       <c r="G74">
-        <v>18442</v>
-      </c>
-      <c r="J74">
-        <v>18418</v>
+        <v>18426</v>
       </c>
       <c r="M74">
-        <v>12950</v>
+        <v>12938</v>
       </c>
       <c r="P74">
-        <v>12973</v>
+        <v>12953</v>
       </c>
       <c r="S74">
-        <v>12971</v>
+        <v>12946</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1.8094539082E-2</v>
-      </c>
-      <c r="D75">
-        <v>23543</v>
+        <v>1.8094534214000001E-2</v>
       </c>
       <c r="G75">
-        <v>18438</v>
-      </c>
-      <c r="J75">
-        <v>18409</v>
+        <v>18424</v>
       </c>
       <c r="M75">
-        <v>12948</v>
+        <v>12935</v>
       </c>
       <c r="P75">
-        <v>12966</v>
+        <v>12944</v>
       </c>
       <c r="S75">
-        <v>12965</v>
+        <v>12945</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1.8094538394E-2</v>
-      </c>
-      <c r="D76">
-        <v>23542</v>
+        <v>1.8094532173E-2</v>
       </c>
       <c r="G76">
-        <v>18435</v>
-      </c>
-      <c r="K76">
-        <v>23517</v>
+        <v>18422</v>
       </c>
       <c r="M76">
-        <v>12944</v>
+        <v>12929</v>
       </c>
       <c r="P76">
-        <v>12964</v>
+        <v>12937</v>
       </c>
       <c r="S76">
-        <v>12957</v>
+        <v>12940</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1.8094536322000001E-2</v>
-      </c>
-      <c r="D77">
-        <v>23525</v>
+        <v>1.8094518819999999E-2</v>
       </c>
       <c r="G77">
-        <v>18429</v>
-      </c>
-      <c r="K77">
-        <v>23513</v>
+        <v>18418</v>
       </c>
       <c r="M77">
-        <v>12942</v>
+        <v>12926</v>
       </c>
       <c r="P77">
-        <v>12953</v>
+        <v>12934</v>
       </c>
       <c r="S77">
-        <v>12948</v>
+        <v>12939</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1.8094536118E-2</v>
-      </c>
       <c r="G78">
-        <v>18426</v>
+        <v>18409</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78">
+        <f>AVERAGE(I79:I98)</f>
+        <v>0.9</v>
       </c>
       <c r="M78">
-        <v>12938</v>
+        <v>12924</v>
       </c>
       <c r="P78">
-        <v>12953</v>
+        <v>12931</v>
       </c>
       <c r="S78">
-        <v>12946</v>
+        <v>12935</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1.8094534214000001E-2</v>
-      </c>
-      <c r="G79">
-        <v>18424</v>
+      <c r="I79">
+        <v>1</v>
       </c>
       <c r="M79">
-        <v>12935</v>
+        <v>12922</v>
       </c>
       <c r="P79">
-        <v>12944</v>
+        <v>12930</v>
       </c>
       <c r="S79">
-        <v>12945</v>
+        <v>12932</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1.8094532173E-2</v>
-      </c>
-      <c r="G80">
-        <v>18422</v>
+      <c r="I80">
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>12929</v>
+        <v>12918</v>
       </c>
       <c r="P80">
-        <v>12937</v>
+        <v>12930</v>
       </c>
       <c r="S80">
-        <v>12940</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1.8094518819999999E-2</v>
-      </c>
-      <c r="G81">
-        <v>18418</v>
+        <v>12931</v>
+      </c>
+    </row>
+    <row r="81" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>1</v>
       </c>
       <c r="M81">
-        <v>12926</v>
+        <v>12909</v>
       </c>
       <c r="P81">
-        <v>12934</v>
+        <v>12920</v>
       </c>
       <c r="S81">
-        <v>12939</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G82">
-        <v>18409</v>
-      </c>
-      <c r="I82" t="s">
-        <v>18</v>
-      </c>
-      <c r="K82">
-        <f>AVERAGE(I83:I102)</f>
-        <v>0.9</v>
-      </c>
-      <c r="M82">
-        <v>12924</v>
+        <v>12921</v>
+      </c>
+    </row>
+    <row r="82" spans="9:19" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>1</v>
       </c>
       <c r="P82">
-        <v>12931</v>
+        <v>12918</v>
       </c>
       <c r="S82">
-        <v>12935</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+        <v>12919</v>
+      </c>
+    </row>
+    <row r="83" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="M83">
-        <v>12922</v>
-      </c>
       <c r="P83">
-        <v>12930</v>
+        <v>12916</v>
       </c>
       <c r="S83">
-        <v>12932</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+        <v>12914</v>
+      </c>
+    </row>
+    <row r="84" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="M84">
-        <v>12918</v>
-      </c>
       <c r="P84">
-        <v>12930</v>
+        <v>12916</v>
       </c>
       <c r="S84">
-        <v>12931</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+        <v>12901</v>
+      </c>
+    </row>
+    <row r="85" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="M85">
-        <v>12909</v>
-      </c>
       <c r="P85">
-        <v>12920</v>
-      </c>
-      <c r="S85">
-        <v>12921</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+        <v>12913</v>
+      </c>
+    </row>
+    <row r="86" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="P86">
-        <v>12918</v>
-      </c>
-      <c r="S86">
-        <v>12919</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K86" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86">
+        <f>SUM(K87:K106)</f>
+        <v>258938</v>
+      </c>
+    </row>
+    <row r="87" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="P87">
-        <v>12916</v>
-      </c>
-      <c r="S87">
-        <v>12914</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>12989</v>
+      </c>
+    </row>
+    <row r="88" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="P88">
-        <v>12916</v>
-      </c>
-      <c r="S88">
-        <v>12901</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>12988</v>
+      </c>
+    </row>
+    <row r="89" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="P89">
-        <v>12913</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>12978</v>
+      </c>
+    </row>
+    <row r="90" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="K90" t="s">
-        <v>18</v>
-      </c>
-      <c r="N90">
-        <f>SUM(K91:K110)</f>
-        <v>258938</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>12967</v>
+      </c>
+    </row>
+    <row r="91" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I91">
         <v>1</v>
       </c>
       <c r="K91">
-        <v>12989</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+        <v>12966</v>
+      </c>
+    </row>
+    <row r="92" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I92">
         <v>1</v>
       </c>
       <c r="K92">
-        <v>12988</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+        <v>12962</v>
+      </c>
+    </row>
+    <row r="93" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I93">
         <v>1</v>
       </c>
       <c r="K93">
-        <v>12978</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+        <v>12961</v>
+      </c>
+    </row>
+    <row r="94" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I94">
         <v>1</v>
       </c>
       <c r="K94">
-        <v>12967</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+        <v>12955</v>
+      </c>
+    </row>
+    <row r="95" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I95">
         <v>1</v>
       </c>
       <c r="K95">
-        <v>12966</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+        <v>12953</v>
+      </c>
+    </row>
+    <row r="96" spans="9:19" x14ac:dyDescent="0.25">
       <c r="I96">
         <v>1</v>
       </c>
       <c r="K96">
-        <v>12962</v>
+        <v>12952</v>
       </c>
     </row>
     <row r="97" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
-        <v>12961</v>
+        <v>12950</v>
       </c>
     </row>
     <row r="98" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>12955</v>
+        <v>12940</v>
       </c>
     </row>
     <row r="99" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="K99">
-        <v>12953</v>
+        <v>12938</v>
       </c>
     </row>
     <row r="100" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I100">
-        <v>1</v>
-      </c>
       <c r="K100">
-        <v>12952</v>
+        <v>12926</v>
       </c>
     </row>
     <row r="101" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I101">
-        <v>0</v>
-      </c>
       <c r="K101">
-        <v>12950</v>
+        <v>12926</v>
       </c>
     </row>
     <row r="102" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I102">
-        <v>0</v>
-      </c>
       <c r="K102">
-        <v>12940</v>
+        <v>12922</v>
       </c>
     </row>
     <row r="103" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K103">
-        <v>12938</v>
+        <v>12920</v>
       </c>
     </row>
     <row r="104" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K104">
-        <v>12926</v>
+        <v>12918</v>
       </c>
     </row>
     <row r="105" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K105">
-        <v>12926</v>
+        <v>12917</v>
       </c>
     </row>
     <row r="106" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K106">
-        <v>12922</v>
-      </c>
-    </row>
-    <row r="107" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K107">
-        <v>12920</v>
-      </c>
-    </row>
-    <row r="108" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K108">
-        <v>12918</v>
-      </c>
-    </row>
-    <row r="109" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K109">
-        <v>12917</v>
-      </c>
-    </row>
-    <row r="110" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K110">
         <v>12910</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4834,7 +5062,7 @@
       <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="130" t="s">
+      <c r="A6" s="126" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="21">
@@ -4878,7 +5106,7 @@
       <c r="S6" s="34"/>
     </row>
     <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="131"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="21">
         <v>0</v>
       </c>
@@ -4920,7 +5148,7 @@
       <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="124" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="41">
@@ -4964,7 +5192,7 @@
       <c r="S8" s="14"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="41">
         <v>58</v>
       </c>
@@ -4997,7 +5225,7 @@
       <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="41">
         <v>59</v>
       </c>
@@ -5039,7 +5267,7 @@
       <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="131" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="35">
@@ -5083,7 +5311,7 @@
       <c r="S11" s="40"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="135"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="2">
         <v>43</v>
       </c>
@@ -5125,7 +5353,7 @@
       <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="135"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="35">
         <v>44</v>
       </c>
@@ -5220,31 +5448,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:V28"/>
+  <dimension ref="B1:AG37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="X1" s="157" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="157"/>
+      <c r="AA1" s="157"/>
+      <c r="AB1" s="157"/>
+      <c r="AC1" s="157"/>
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="157"/>
+      <c r="AG1" s="157"/>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="X2" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="157"/>
+      <c r="AG2" s="157"/>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="X3" s="157"/>
+      <c r="Y3" s="157"/>
+      <c r="Z3" s="157"/>
+      <c r="AA3" s="157"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="157"/>
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="157"/>
+      <c r="AG3" s="157"/>
+    </row>
+    <row r="4" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X4" s="157" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="157"/>
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="157"/>
+      <c r="AF4" s="157"/>
+      <c r="AG4" s="157"/>
+    </row>
+    <row r="5" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="52"/>
-      <c r="D5" s="136" t="s">
+      <c r="D5" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="137"/>
-      <c r="O5" s="141" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="142"/>
-      <c r="R5" s="147" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="148"/>
-    </row>
-    <row r="6" spans="3:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="133"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="132" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="133"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="X5" s="157" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="157"/>
+      <c r="Z5" s="157"/>
+      <c r="AA5" s="157"/>
+      <c r="AB5" s="157"/>
+      <c r="AC5" s="157"/>
+      <c r="AD5" s="157"/>
+      <c r="AE5" s="157"/>
+      <c r="AF5" s="157"/>
+      <c r="AG5" s="157"/>
+    </row>
+    <row r="6" spans="2:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="53" t="s">
         <v>30</v>
       </c>
@@ -5254,302 +5546,766 @@
       <c r="E6" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="143"/>
-      <c r="P6" s="144"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="150"/>
-    </row>
-    <row r="7" spans="3:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
+    </row>
+    <row r="7" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>300</v>
       </c>
-      <c r="D7" s="51">
-        <f>P14</f>
-        <v>31.666666666666668</v>
-      </c>
-      <c r="E7" s="55">
-        <v>34</v>
-      </c>
-      <c r="O7" s="145"/>
-      <c r="P7" s="146"/>
-      <c r="R7" s="145"/>
-      <c r="S7" s="146"/>
-      <c r="V7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="149">
+        <f>C20</f>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="E7" s="151">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>300</v>
+      </c>
+      <c r="M7" s="149">
+        <f>M21</f>
+        <v>0.21727711348482237</v>
+      </c>
+      <c r="N7" s="151">
+        <v>0.4</v>
+      </c>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="132" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" s="133"/>
+      <c r="AB7" s="155"/>
+      <c r="AC7" s="155"/>
+    </row>
+    <row r="8" spans="2:33" ht="21" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>600</v>
       </c>
-      <c r="D8" s="51">
-        <f>P21</f>
-        <v>17.223333333333333</v>
-      </c>
-      <c r="E8" s="55">
-        <v>23</v>
-      </c>
-      <c r="O8" s="139">
-        <v>300</v>
-      </c>
-      <c r="P8" s="140"/>
-      <c r="R8" s="139">
-        <v>300</v>
-      </c>
-      <c r="S8" s="140"/>
-      <c r="V8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="149">
+        <f>C27</f>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="E8" s="152">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="L8" s="1">
+        <v>600</v>
+      </c>
+      <c r="M8" s="149">
+        <f>M28</f>
+        <v>0.45559309640589241</v>
+      </c>
+      <c r="N8" s="152">
+        <v>0.8</v>
+      </c>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
+      <c r="V8" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB8" s="155"/>
+      <c r="AC8" s="155"/>
+    </row>
+    <row r="9" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>1800</v>
       </c>
-      <c r="D9" s="56">
-        <f>P28</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="E9" s="57">
-        <v>20</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="D9" s="150">
+        <f>C34</f>
+        <v>0.51</v>
+      </c>
+      <c r="E9" s="153">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1800</v>
+      </c>
+      <c r="M9" s="150">
+        <f>M35</f>
+        <v>0.45456256932373529</v>
+      </c>
+      <c r="N9" s="153">
+        <v>0.8</v>
+      </c>
+      <c r="R9" s="154"/>
+      <c r="S9" s="154"/>
+      <c r="V9" s="1">
+        <v>300</v>
+      </c>
+      <c r="W9" s="149">
+        <f>W23</f>
+        <v>0.4</v>
+      </c>
+      <c r="X9" s="151">
+        <v>0.5</v>
+      </c>
+      <c r="AB9" s="156"/>
+      <c r="AC9" s="156"/>
+    </row>
+    <row r="10" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="V10" s="1">
+        <v>600</v>
+      </c>
+      <c r="W10" s="149">
+        <f>W30</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X10" s="152">
+        <v>0.3</v>
+      </c>
+      <c r="AB10" s="156"/>
+      <c r="AC10" s="156"/>
+    </row>
+    <row r="11" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="138"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
+      <c r="V11" s="5">
+        <v>1800</v>
+      </c>
+      <c r="W11" s="150">
+        <f>W37</f>
+        <v>0.32666666666666661</v>
+      </c>
+      <c r="X11" s="153">
+        <v>0.4</v>
+      </c>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154"/>
+    </row>
+    <row r="12" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="139"/>
+      <c r="C12" s="140"/>
+      <c r="L12" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="138"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="154"/>
+      <c r="AB12" s="154"/>
+      <c r="AC12" s="154"/>
+    </row>
+    <row r="13" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="141"/>
+      <c r="C13" s="142"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="140"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="154"/>
+      <c r="AB13" s="154"/>
+      <c r="AC13" s="154"/>
+    </row>
+    <row r="14" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="135">
+        <v>300</v>
+      </c>
+      <c r="C14" s="136"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="142"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="154"/>
+      <c r="V14" s="137" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" s="138"/>
+      <c r="AB14" s="154"/>
+      <c r="AC14" s="154"/>
+    </row>
+    <row r="15" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="59">
-        <v>28.75</v>
-      </c>
-      <c r="R9" s="7" t="s">
+      <c r="C15" s="147">
+        <f>PLC!J8</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="L15" s="135">
+        <v>0.04</v>
+      </c>
+      <c r="M15" s="136"/>
+      <c r="R15" s="156"/>
+      <c r="S15" s="156"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="140"/>
+      <c r="AB15" s="154"/>
+      <c r="AC15" s="154"/>
+    </row>
+    <row r="16" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="147">
+        <f>PLC!J9</f>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="59">
-        <v>28.75</v>
-      </c>
-    </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O10" s="7" t="s">
+      <c r="M16" s="147">
+        <f>PLC!M8</f>
+        <v>0.21765162951310449</v>
+      </c>
+      <c r="R16" s="154"/>
+      <c r="S16" s="154"/>
+      <c r="V16" s="141"/>
+      <c r="W16" s="142"/>
+      <c r="AB16" s="154"/>
+      <c r="AC16" s="154"/>
+    </row>
+    <row r="17" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="147">
+        <f>PLC!J10</f>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="59">
-        <v>28.75</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="59"/>
-      <c r="V10" t="s">
+      <c r="M17" s="147">
+        <f>PLC!M9</f>
+        <v>0.21744174967976879</v>
+      </c>
+      <c r="R17" s="154"/>
+      <c r="S17" s="154"/>
+      <c r="V17" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="W17" s="136"/>
+      <c r="AB17" s="156"/>
+      <c r="AC17" s="156"/>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O11" s="7" t="s">
+      <c r="C18" s="147">
+        <f>PLC!J11</f>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P11" s="59">
-        <v>37.5</v>
-      </c>
-      <c r="R11" s="7"/>
-      <c r="S11" s="59"/>
-      <c r="V11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O12" s="7" t="s">
+      <c r="M18" s="147">
+        <f>PLC!M10</f>
+        <v>0.21724945376941449</v>
+      </c>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="V18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="147">
+        <f>PLC!P8</f>
+        <v>0.5</v>
+      </c>
+      <c r="AB18" s="154"/>
+      <c r="AC18" s="154"/>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B19" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="59"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="59"/>
-    </row>
-    <row r="13" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O13" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="59"/>
-      <c r="R13" s="8" t="s">
+      <c r="C19" s="147">
+        <f>PLC!J12</f>
+        <v>0.375</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="147">
+        <f>PLC!M11</f>
+        <v>0.21683386243386243</v>
+      </c>
+      <c r="R19" s="154"/>
+      <c r="S19" s="154"/>
+      <c r="V19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" s="147">
+        <f>PLC!P9</f>
+        <v>0.5</v>
+      </c>
+      <c r="AB19" s="154"/>
+      <c r="AC19" s="154"/>
+    </row>
+    <row r="20" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="60">
-        <f>AVERAGE(S9:S11)</f>
-        <v>28.75</v>
-      </c>
-    </row>
-    <row r="14" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O14" s="8" t="s">
+      <c r="C20" s="148">
+        <f>AVERAGE(C15:C19)</f>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="147">
+        <f>PLC!M12</f>
+        <v>0.21720887202796166</v>
+      </c>
+      <c r="R20" s="154"/>
+      <c r="S20" s="154"/>
+      <c r="V20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W20" s="147">
+        <f>PLC!P10</f>
+        <v>0.5</v>
+      </c>
+      <c r="AB20" s="154"/>
+      <c r="AC20" s="154"/>
+    </row>
+    <row r="21" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="135">
+        <v>600</v>
+      </c>
+      <c r="C21" s="136"/>
+      <c r="L21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P14" s="60">
-        <f>AVERAGE(P9:P13)</f>
-        <v>31.666666666666668</v>
-      </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="59"/>
-    </row>
-    <row r="15" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="139">
-        <v>600</v>
-      </c>
-      <c r="P15" s="140"/>
-      <c r="R15" s="139">
-        <v>600</v>
-      </c>
-      <c r="S15" s="140"/>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O16" s="7" t="s">
+      <c r="M21" s="148">
+        <f>AVERAGE(M16:M20)</f>
+        <v>0.21727711348482237</v>
+      </c>
+      <c r="R21" s="154"/>
+      <c r="S21" s="154"/>
+      <c r="V21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="147">
+        <f>PLC!P11</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="154"/>
+      <c r="AC21" s="154"/>
+    </row>
+    <row r="22" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="59">
-        <v>51.67</v>
-      </c>
-      <c r="R16" s="7" t="s">
+      <c r="C22" s="147">
+        <f>PLC!J3</f>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="L22" s="135" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="136"/>
+      <c r="R22" s="156"/>
+      <c r="S22" s="156"/>
+      <c r="V22" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="W22" s="147">
+        <f>PLC!P12</f>
+        <v>0.5</v>
+      </c>
+      <c r="AB22" s="154"/>
+      <c r="AC22" s="154"/>
+    </row>
+    <row r="23" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="147">
+        <f>PLC!J4</f>
+        <v>0.4</v>
+      </c>
+      <c r="J23" s="134"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="S16" s="59">
-        <v>28.75</v>
-      </c>
-    </row>
-    <row r="17" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="O17" s="7" t="s">
+      <c r="M23" s="147">
+        <f>PLC!M3</f>
+        <v>0.46102717399700299</v>
+      </c>
+      <c r="R23" s="154"/>
+      <c r="S23" s="154"/>
+      <c r="V23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="W23" s="148">
+        <f>AVERAGE(W18:W22)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AB23" s="154"/>
+      <c r="AC23" s="154"/>
+    </row>
+    <row r="24" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="147">
+        <f>PLC!J5</f>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="59">
+      <c r="M24" s="147">
+        <f>PLC!M4</f>
+        <v>0.45427548628515602</v>
+      </c>
+      <c r="R24" s="154"/>
+      <c r="S24" s="154"/>
+      <c r="V24" s="135" t="s">
+        <v>51</v>
+      </c>
+      <c r="W24" s="136"/>
+      <c r="AB24" s="156"/>
+      <c r="AC24" s="156"/>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="147">
+        <f>PLC!J6</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J25" s="58"/>
+      <c r="L25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="147">
+        <f>PLC!M5</f>
+        <v>0.45470204302321093</v>
+      </c>
+      <c r="R25" s="154"/>
+      <c r="S25" s="154"/>
+      <c r="V25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W25" s="147">
+        <f>PLC!P3</f>
+        <v>0.5</v>
+      </c>
+      <c r="AB25" s="154"/>
+      <c r="AC25" s="154"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B26" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="147">
+        <f>PLC!J7</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="147">
+        <f>PLC!M6</f>
+        <v>0.45432322842247536</v>
+      </c>
+      <c r="R26" s="154"/>
+      <c r="S26" s="154"/>
+      <c r="V26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W26" s="147">
+        <f>PLC!P4</f>
+        <v>0.5</v>
+      </c>
+      <c r="AB26" s="154"/>
+      <c r="AC26" s="154"/>
+    </row>
+    <row r="27" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="148">
+        <f>AVERAGE(C22:C26)</f>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="L27" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="147">
+        <f>PLC!M7</f>
+        <v>0.45363755030161662</v>
+      </c>
+      <c r="R27" s="154"/>
+      <c r="S27" s="154"/>
+      <c r="V27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W27" s="147">
+        <f>PLC!P5</f>
         <v>0</v>
       </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="59"/>
-    </row>
-    <row r="18" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="O18" s="7" t="s">
+      <c r="AB27" s="154"/>
+      <c r="AC27" s="154"/>
+    </row>
+    <row r="28" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="135">
+        <v>1800</v>
+      </c>
+      <c r="C28" s="136"/>
+      <c r="L28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="148">
+        <f>AVERAGE(M23:M27)</f>
+        <v>0.45559309640589241</v>
+      </c>
+      <c r="R28" s="154"/>
+      <c r="S28" s="154"/>
+      <c r="V28" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" s="147">
+        <f>PLC!P6</f>
+        <v>0.45</v>
+      </c>
+      <c r="AB28" s="154"/>
+      <c r="AC28" s="154"/>
+    </row>
+    <row r="29" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="147">
+        <f>PLC!J19</f>
+        <v>0.5</v>
+      </c>
+      <c r="L29" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="M29" s="136"/>
+      <c r="R29" s="154"/>
+      <c r="S29" s="154"/>
+      <c r="V29" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="W29" s="147">
+        <f>PLC!P7</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="154"/>
+      <c r="AC29" s="154"/>
+    </row>
+    <row r="30" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="147">
+        <f>PLC!J20</f>
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M30" s="147">
+        <f>PLC!M19</f>
+        <v>0.45470350155529782</v>
+      </c>
+      <c r="R30" s="154"/>
+      <c r="S30" s="154"/>
+      <c r="V30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="W30" s="148">
+        <f>AVERAGE(W25:W29)</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AB30" s="154"/>
+      <c r="AC30" s="154"/>
+    </row>
+    <row r="31" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="59">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7"/>
-      <c r="S18" s="59"/>
-    </row>
-    <row r="19" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="O19" s="7" t="s">
+      <c r="C31" s="147">
+        <f>PLC!J21</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="147">
+        <f>PLC!M20</f>
+        <v>0.45476795147349391</v>
+      </c>
+      <c r="R31" s="154"/>
+      <c r="S31" s="154"/>
+      <c r="V31" s="135" t="s">
+        <v>52</v>
+      </c>
+      <c r="W31" s="136"/>
+      <c r="AB31" s="154"/>
+      <c r="AC31" s="154"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="147">
+        <f>PLC!J22</f>
+        <v>0.5</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="147">
+        <f>PLC!M21</f>
+        <v>0.45428672105819534</v>
+      </c>
+      <c r="R32" s="154"/>
+      <c r="S32" s="154"/>
+      <c r="V32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W32" s="147">
+        <f>PLC!P19</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB32" s="154"/>
+      <c r="AC32" s="154"/>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B33" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="59"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="59"/>
-    </row>
-    <row r="20" spans="10:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O20" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="59"/>
-      <c r="R20" s="8" t="s">
+      <c r="C33" s="147">
+        <f>PLC!J23</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="147">
+        <f>PLC!M22</f>
+        <v>0.45476795147349391</v>
+      </c>
+      <c r="R33" s="154"/>
+      <c r="S33" s="154"/>
+      <c r="V33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="W33" s="147">
+        <f>PLC!P20</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB33" s="154"/>
+      <c r="AC33" s="154"/>
+    </row>
+    <row r="34" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S20" s="60">
-        <f>AVERAGE(S16:S18)</f>
-        <v>28.75</v>
-      </c>
-    </row>
-    <row r="21" spans="10:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O21" s="8" t="s">
+      <c r="C34" s="148">
+        <f>AVERAGE(C29:C33)</f>
+        <v>0.51</v>
+      </c>
+      <c r="L34" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="147">
+        <f>PLC!M23</f>
+        <v>0.45428672105819534</v>
+      </c>
+      <c r="R34" s="154"/>
+      <c r="S34" s="154"/>
+      <c r="V34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="W34" s="147">
+        <f>PLC!P21</f>
+        <v>0.3</v>
+      </c>
+      <c r="AB34" s="154"/>
+      <c r="AC34" s="154"/>
+    </row>
+    <row r="35" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="60">
-        <f>AVERAGE(P16:P20)</f>
-        <v>17.223333333333333</v>
-      </c>
-      <c r="R21" s="7"/>
-      <c r="S21" s="59"/>
-    </row>
-    <row r="22" spans="10:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="139">
-        <v>1800</v>
-      </c>
-      <c r="P22" s="140"/>
-      <c r="R22" s="139">
-        <v>1800</v>
-      </c>
-      <c r="S22" s="140"/>
-    </row>
-    <row r="23" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
-      <c r="O23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P23" s="59">
-        <v>50</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S23" s="59">
-        <v>28.75</v>
-      </c>
-    </row>
-    <row r="24" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="O24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P24" s="59">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7"/>
-      <c r="S24" s="59"/>
-    </row>
-    <row r="25" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="J25" s="58"/>
-      <c r="O25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" s="59">
-        <v>0</v>
-      </c>
-      <c r="R25" s="7"/>
-      <c r="S25" s="59"/>
-    </row>
-    <row r="26" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="O26" s="7" t="s">
+      <c r="M35" s="148">
+        <f>AVERAGE(M30:M34)</f>
+        <v>0.45456256932373529</v>
+      </c>
+      <c r="R35" s="154"/>
+      <c r="S35" s="154"/>
+      <c r="V35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W35" s="147">
+        <f>PLC!P22</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB35" s="154"/>
+      <c r="AC35" s="154"/>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="V36" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="P26" s="59"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="59"/>
-    </row>
-    <row r="27" spans="10:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O27" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="59"/>
-      <c r="R27" s="8" t="s">
+      <c r="W36" s="147">
+        <f>PLC!P23</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB36" s="154"/>
+      <c r="AC36" s="154"/>
+    </row>
+    <row r="37" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S27" s="60">
-        <f>AVERAGE(S23:S25)</f>
-        <v>28.75</v>
-      </c>
-    </row>
-    <row r="28" spans="10:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O28" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P28" s="60">
-        <f>AVERAGE(P23:P27)</f>
-        <v>16.666666666666668</v>
-      </c>
+      <c r="W37" s="148">
+        <f>AVERAGE(W32:W36)</f>
+        <v>0.32666666666666661</v>
+      </c>
+      <c r="AB37" s="154"/>
+      <c r="AC37" s="154"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="R7:S7"/>
+  <mergeCells count="19">
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="V14:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V24:W24"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="J23:K23"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O5:P6"/>
-    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5570,26 +6326,26 @@
     <row r="2" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C3" s="52"/>
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="154"/>
+      <c r="E3" s="146"/>
     </row>
     <row r="4" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
-      <c r="D4" s="151" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="152"/>
+      <c r="D4" s="143" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="144"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="60" t="s">
         <v>29</v>
       </c>
     </row>

--- a/trunk/SurveyFiles/Log simulaciones PLC.xlsx
+++ b/trunk/SurveyFiles/Log simulaciones PLC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="16515" windowHeight="7755"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="16515" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PLC" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="59">
   <si>
     <t>PDR AMR</t>
   </si>
@@ -187,14 +187,24 @@
   <si>
     <t>PDR RTP - PLC</t>
   </si>
+  <si>
+    <t>EED AMR</t>
+  </si>
+  <si>
+    <t>EED WAM</t>
+  </si>
+  <si>
+    <t>EED RTP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -721,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1148,6 +1158,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,7 +1236,7 @@
                   <c:v>0.28749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49000000000000005</c:v>
+                  <c:v>0.51333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.51</c:v>
@@ -1394,7 +1410,7 @@
                   <c:v>0.21727711348482237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45559309640589241</c:v>
+                  <c:v>0.45556390462788904</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.45456256932373529</c:v>
@@ -1568,7 +1584,7 @@
                   <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.32666666666666661</c:v>
@@ -2073,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,35 +2198,41 @@
         <v>60</v>
       </c>
       <c r="I3" s="105">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J3" s="106">
         <f>I3/H3</f>
-        <v>0.51666666666666672</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="K3" s="105">
-        <v>258924</v>
+        <v>259006</v>
       </c>
       <c r="L3" s="105">
         <v>119371</v>
       </c>
       <c r="M3" s="107">
         <f>L3/K3</f>
-        <v>0.46102717399700299</v>
+        <v>0.46088121510698593</v>
       </c>
       <c r="N3" s="105">
         <v>2</v>
       </c>
       <c r="O3" s="105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="106">
         <f>O3/N3</f>
-        <v>0.5</v>
-      </c>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="109"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="108">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R3" s="108">
+        <v>2.223E-2</v>
+      </c>
+      <c r="S3" s="109">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="121"/>
@@ -3386,15 +3408,43 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I25" s="161">
+        <f>AVERAGE(Q3:Q7)</f>
+        <v>4.0475999999999998E-2</v>
+      </c>
       <c r="K25">
         <f>250/60</f>
         <v>4.166666666666667</v>
       </c>
+      <c r="M25" s="161">
+        <f>AVERAGE(Q8:Q12)</f>
+        <v>1.94452</v>
+      </c>
+      <c r="O25" s="161">
+        <f>AVERAGE(R8:R12)</f>
+        <v>2.7314539999999998</v>
+      </c>
+      <c r="Q25" s="161">
+        <f>AVERAGE(R19:R23)</f>
+        <v>2.2416000000000002E-2</v>
+      </c>
       <c r="V25">
         <v>1.8377440200000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F26" s="158">
+        <f>AVERAGE(J8:J12)</f>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="I26" s="161">
+        <f>AVERAGE(S8:S12)</f>
+        <v>2.4374E-2</v>
+      </c>
+      <c r="K26" s="161">
+        <f>AVERAGE(Q19:Q23)</f>
+        <v>4.1916000000000002E-2</v>
+      </c>
       <c r="R26" t="s">
         <v>18</v>
       </c>
@@ -3407,6 +3457,10 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H27" s="161">
+        <f>AVERAGE(R8:R12)</f>
+        <v>2.7314539999999998</v>
+      </c>
       <c r="J27" t="s">
         <v>18</v>
       </c>
@@ -3417,6 +3471,10 @@
       <c r="M27" t="s">
         <v>18</v>
       </c>
+      <c r="N27" s="161">
+        <f>AVERAGE(S3:S7)</f>
+        <v>7.1779999999999995E-3</v>
+      </c>
       <c r="P27">
         <f>SUM(M28:M47)</f>
         <v>18165</v>
@@ -3432,11 +3490,19 @@
       <c r="D28" t="s">
         <v>18</v>
       </c>
+      <c r="H28" s="161">
+        <f>AVERAGE(R3:R7)</f>
+        <v>2.2406000000000002E-2</v>
+      </c>
       <c r="J28">
         <v>1.8094541658E-2</v>
       </c>
       <c r="M28">
         <v>18165</v>
+      </c>
+      <c r="N28" s="161">
+        <f>AVERAGE(S19:S23)</f>
+        <v>2.9257999999999999E-2</v>
       </c>
       <c r="U28">
         <f>SUM(T31:T50)</f>
@@ -5448,10 +5514,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG37"/>
+  <dimension ref="B1:AG43"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5595,7 +5661,7 @@
       </c>
       <c r="D8" s="149">
         <f>C27</f>
-        <v>0.49000000000000005</v>
+        <v>0.51333333333333331</v>
       </c>
       <c r="E8" s="152">
         <v>0.68600000000000005</v>
@@ -5605,7 +5671,7 @@
       </c>
       <c r="M8" s="149">
         <f>M28</f>
-        <v>0.45559309640589241</v>
+        <v>0.45556390462788904</v>
       </c>
       <c r="N8" s="152">
         <v>0.8</v>
@@ -5668,7 +5734,7 @@
       </c>
       <c r="W10" s="149">
         <f>W30</f>
-        <v>0.28999999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="X10" s="152">
         <v>0.3</v>
@@ -5910,7 +5976,7 @@
       </c>
       <c r="C22" s="147">
         <f>PLC!J3</f>
-        <v>0.51666666666666672</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L22" s="135" t="s">
         <v>47</v>
@@ -5943,7 +6009,7 @@
       </c>
       <c r="M23" s="147">
         <f>PLC!M3</f>
-        <v>0.46102717399700299</v>
+        <v>0.46088121510698593</v>
       </c>
       <c r="R23" s="154"/>
       <c r="S23" s="154"/>
@@ -6004,7 +6070,7 @@
       </c>
       <c r="W25" s="147">
         <f>PLC!P3</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="154"/>
       <c r="AC25" s="154"/>
@@ -6042,7 +6108,7 @@
       </c>
       <c r="C27" s="148">
         <f>AVERAGE(C22:C26)</f>
-        <v>0.49000000000000005</v>
+        <v>0.51333333333333331</v>
       </c>
       <c r="L27" s="61" t="s">
         <v>42</v>
@@ -6073,7 +6139,7 @@
       </c>
       <c r="M28" s="148">
         <f>AVERAGE(M23:M27)</f>
-        <v>0.45559309640589241</v>
+        <v>0.45556390462788904</v>
       </c>
       <c r="R28" s="154"/>
       <c r="S28" s="154"/>
@@ -6133,7 +6199,7 @@
       </c>
       <c r="W30" s="148">
         <f>AVERAGE(W25:W29)</f>
-        <v>0.28999999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="AB30" s="154"/>
       <c r="AC30" s="154"/>
@@ -6285,9 +6351,128 @@
       <c r="AB37" s="154"/>
       <c r="AC37" s="154"/>
     </row>
+    <row r="38" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B39" s="52"/>
+      <c r="C39" s="132" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="133"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="133"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="L39" s="133"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B40" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" s="54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>300</v>
+      </c>
+      <c r="C41" s="162">
+        <v>1.9444999999999999</v>
+      </c>
+      <c r="D41" s="159"/>
+      <c r="F41" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G41" s="162">
+        <v>2.7313999999999998</v>
+      </c>
+      <c r="H41" s="159"/>
+      <c r="J41" s="1">
+        <v>900</v>
+      </c>
+      <c r="K41" s="162">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="L41" s="159"/>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>600</v>
+      </c>
+      <c r="C42" s="162">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="D42" s="159"/>
+      <c r="F42" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G42" s="162">
+        <v>2.24E-2</v>
+      </c>
+      <c r="H42" s="159"/>
+      <c r="J42" s="1">
+        <v>900</v>
+      </c>
+      <c r="K42" s="162">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L42" s="159"/>
+    </row>
+    <row r="43" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
+        <v>1800</v>
+      </c>
+      <c r="C43" s="163">
+        <v>4.19E-2</v>
+      </c>
+      <c r="D43" s="160"/>
+      <c r="F43" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G43" s="163">
+        <v>2.24E-2</v>
+      </c>
+      <c r="H43" s="160"/>
+      <c r="J43" s="5">
+        <v>900</v>
+      </c>
+      <c r="K43" s="163">
+        <v>2.92E-2</v>
+      </c>
+      <c r="L43" s="160"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
     <mergeCell ref="V31:W31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="W7:X7"/>
     <mergeCell ref="V14:W15"/>
@@ -6402,14 +6587,124 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F7:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>12987</v>
+      </c>
+      <c r="H8">
+        <f>SUM(F8:F27)</f>
+        <v>259006</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>12987</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>12985</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>12975</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>12974</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>12971</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>12970</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>12969</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>12967</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>12962</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>12957</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>12951</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>12934</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>12915</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>12915</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>12913</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>12912</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>12907</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>12905</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trunk/SurveyFiles/Log simulaciones PLC.xlsx
+++ b/trunk/SurveyFiles/Log simulaciones PLC.xlsx
@@ -1279,15 +1279,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.36499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68600000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1453,15 +1444,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1627,15 +1609,6 @@
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5517,7 +5490,7 @@
   <dimension ref="B1:AG43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5632,9 +5605,7 @@
         <f>C20</f>
         <v>0.28749999999999998</v>
       </c>
-      <c r="E7" s="151">
-        <v>0.36499999999999999</v>
-      </c>
+      <c r="E7" s="151"/>
       <c r="L7" s="1">
         <v>300</v>
       </c>
@@ -5642,9 +5613,7 @@
         <f>M21</f>
         <v>0.21727711348482237</v>
       </c>
-      <c r="N7" s="151">
-        <v>0.4</v>
-      </c>
+      <c r="N7" s="151"/>
       <c r="R7" s="156"/>
       <c r="S7" s="156"/>
       <c r="V7" s="52"/>
@@ -5663,9 +5632,7 @@
         <f>C27</f>
         <v>0.51333333333333331</v>
       </c>
-      <c r="E8" s="152">
-        <v>0.68600000000000005</v>
-      </c>
+      <c r="E8" s="152"/>
       <c r="L8" s="1">
         <v>600</v>
       </c>
@@ -5673,9 +5640,7 @@
         <f>M28</f>
         <v>0.45556390462788904</v>
       </c>
-      <c r="N8" s="152">
-        <v>0.8</v>
-      </c>
+      <c r="N8" s="152"/>
       <c r="R8" s="156"/>
       <c r="S8" s="156"/>
       <c r="V8" s="53" t="s">
@@ -5698,9 +5663,7 @@
         <f>C34</f>
         <v>0.51</v>
       </c>
-      <c r="E9" s="153">
-        <v>0.8</v>
-      </c>
+      <c r="E9" s="153"/>
       <c r="L9" s="5">
         <v>1800</v>
       </c>
@@ -5708,9 +5671,7 @@
         <f>M35</f>
         <v>0.45456256932373529</v>
       </c>
-      <c r="N9" s="153">
-        <v>0.8</v>
-      </c>
+      <c r="N9" s="153"/>
       <c r="R9" s="154"/>
       <c r="S9" s="154"/>
       <c r="V9" s="1">
@@ -5720,9 +5681,7 @@
         <f>W23</f>
         <v>0.4</v>
       </c>
-      <c r="X9" s="151">
-        <v>0.5</v>
-      </c>
+      <c r="X9" s="151"/>
       <c r="AB9" s="156"/>
       <c r="AC9" s="156"/>
     </row>
@@ -5736,9 +5695,7 @@
         <f>W30</f>
         <v>0.19</v>
       </c>
-      <c r="X10" s="152">
-        <v>0.3</v>
-      </c>
+      <c r="X10" s="152"/>
       <c r="AB10" s="156"/>
       <c r="AC10" s="156"/>
     </row>
@@ -5756,9 +5713,7 @@
         <f>W37</f>
         <v>0.32666666666666661</v>
       </c>
-      <c r="X11" s="153">
-        <v>0.4</v>
-      </c>
+      <c r="X11" s="153"/>
       <c r="AB11" s="154"/>
       <c r="AC11" s="154"/>
     </row>

--- a/trunk/SurveyFiles/Log simulaciones PLC.xlsx
+++ b/trunk/SurveyFiles/Log simulaciones PLC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="16515" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="16515" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="PLC" sheetId="1" r:id="rId1"/>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5489,7 +5489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>

--- a/trunk/SurveyFiles/Log simulaciones PLC.xlsx
+++ b/trunk/SurveyFiles/Log simulaciones PLC.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Analisis por f" sheetId="3" r:id="rId3"/>
     <sheet name="Analisis por densidad" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="Hoja3" sheetId="6" r:id="rId5"/>
+    <sheet name="Mesh Log" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="59">
   <si>
     <t>PDR AMR</t>
   </si>
@@ -204,7 +205,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -731,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1066,84 +1067,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1162,8 +1085,92 @@
     <xf numFmtId="2" fontId="0" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="14" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,11 +1299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="97264768"/>
-        <c:axId val="97265344"/>
+        <c:axId val="98116736"/>
+        <c:axId val="98117312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97264768"/>
+        <c:axId val="98116736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,12 +1313,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97265344"/>
+        <c:crossAx val="98117312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97265344"/>
+        <c:axId val="98117312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,14 +1329,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97264768"/>
+        <c:crossAx val="98116736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1457,11 +1463,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="70321280"/>
-        <c:axId val="70321856"/>
+        <c:axId val="98119040"/>
+        <c:axId val="98119616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70321280"/>
+        <c:axId val="98119040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,12 +1477,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70321856"/>
+        <c:crossAx val="98119616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70321856"/>
+        <c:axId val="98119616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,14 +1493,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70321280"/>
+        <c:crossAx val="98119040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1622,11 +1627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68077248"/>
-        <c:axId val="68080704"/>
+        <c:axId val="98121344"/>
+        <c:axId val="98121920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68077248"/>
+        <c:axId val="98121344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1636,12 +1641,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68080704"/>
+        <c:crossAx val="98121920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68080704"/>
+        <c:axId val="98121920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,14 +1657,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68077248"/>
+        <c:crossAx val="98121344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2063,7 +2067,7 @@
   <dimension ref="A1:W106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2145,7 +2149,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="139" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="104">
@@ -2208,7 +2212,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
+      <c r="A4" s="140"/>
       <c r="B4" s="110">
         <v>30</v>
       </c>
@@ -2272,7 +2276,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
+      <c r="A5" s="140"/>
       <c r="B5" s="110">
         <v>31</v>
       </c>
@@ -2332,7 +2336,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
+      <c r="A6" s="140"/>
       <c r="B6" s="110">
         <v>32</v>
       </c>
@@ -2392,7 +2396,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="122"/>
+      <c r="A7" s="141"/>
       <c r="B7" s="116">
         <v>33</v>
       </c>
@@ -2452,7 +2456,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="144" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="66">
@@ -2518,7 +2522,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
+      <c r="A9" s="145"/>
       <c r="B9" s="21">
         <v>1</v>
       </c>
@@ -2578,7 +2582,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="126"/>
+      <c r="A10" s="145"/>
       <c r="B10" s="21">
         <v>3</v>
       </c>
@@ -2638,7 +2642,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
+      <c r="A11" s="145"/>
       <c r="B11" s="21">
         <v>4</v>
       </c>
@@ -2698,7 +2702,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="73">
         <v>2</v>
       </c>
@@ -2758,7 +2762,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="143" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="62">
@@ -2805,7 +2809,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="124"/>
+      <c r="A14" s="143"/>
       <c r="B14" s="41">
         <v>58</v>
       </c>
@@ -2841,7 +2845,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="124"/>
+      <c r="A15" s="143"/>
       <c r="B15" s="41">
         <v>59</v>
       </c>
@@ -2886,7 +2890,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="123" t="s">
+      <c r="A16" s="142" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1">
@@ -2947,7 +2951,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="123"/>
+      <c r="A17" s="142"/>
       <c r="B17" s="1">
         <v>58</v>
       </c>
@@ -3006,7 +3010,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="123"/>
+      <c r="A18" s="142"/>
       <c r="B18" s="88">
         <v>59</v>
       </c>
@@ -3065,7 +3069,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="128" t="s">
+      <c r="A19" s="147" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="95">
@@ -3130,7 +3134,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
+      <c r="A20" s="148"/>
       <c r="B20" s="78">
         <v>43</v>
       </c>
@@ -3190,7 +3194,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="129"/>
+      <c r="A21" s="148"/>
       <c r="B21" s="78">
         <v>44</v>
       </c>
@@ -3250,7 +3254,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="129"/>
+      <c r="A22" s="148"/>
       <c r="B22" s="78">
         <v>70</v>
       </c>
@@ -3313,7 +3317,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="130"/>
+      <c r="A23" s="149"/>
       <c r="B23" s="101">
         <v>71</v>
       </c>
@@ -3381,7 +3385,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I25" s="161">
+      <c r="I25" s="135">
         <f>AVERAGE(Q3:Q7)</f>
         <v>4.0475999999999998E-2</v>
       </c>
@@ -3389,15 +3393,15 @@
         <f>250/60</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="M25" s="161">
+      <c r="M25" s="135">
         <f>AVERAGE(Q8:Q12)</f>
         <v>1.94452</v>
       </c>
-      <c r="O25" s="161">
+      <c r="O25" s="135">
         <f>AVERAGE(R8:R12)</f>
         <v>2.7314539999999998</v>
       </c>
-      <c r="Q25" s="161">
+      <c r="Q25" s="135">
         <f>AVERAGE(R19:R23)</f>
         <v>2.2416000000000002E-2</v>
       </c>
@@ -3406,15 +3410,26 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F26" s="158">
+      <c r="B26" s="138">
+        <v>450000</v>
+      </c>
+      <c r="C26">
+        <f>B28-700000</f>
+        <v>280000</v>
+      </c>
+      <c r="D26">
+        <f>80000</f>
+        <v>80000</v>
+      </c>
+      <c r="F26" s="132">
         <f>AVERAGE(J8:J12)</f>
         <v>0.28749999999999998</v>
       </c>
-      <c r="I26" s="161">
+      <c r="I26" s="135">
         <f>AVERAGE(S8:S12)</f>
         <v>2.4374E-2</v>
       </c>
-      <c r="K26" s="161">
+      <c r="K26" s="135">
         <f>AVERAGE(Q19:Q23)</f>
         <v>4.1916000000000002E-2</v>
       </c>
@@ -3430,7 +3445,15 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H27" s="161">
+      <c r="B27">
+        <f>B26+450000</f>
+        <v>900000</v>
+      </c>
+      <c r="D27">
+        <f>D26+4700000</f>
+        <v>4780000</v>
+      </c>
+      <c r="H27" s="135">
         <f>AVERAGE(R8:R12)</f>
         <v>2.7314539999999998</v>
       </c>
@@ -3444,7 +3467,7 @@
       <c r="M27" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="161">
+      <c r="N27" s="135">
         <f>AVERAGE(S3:S7)</f>
         <v>7.1779999999999995E-3</v>
       </c>
@@ -3460,10 +3483,14 @@
       <c r="A28" t="s">
         <v>18</v>
       </c>
+      <c r="B28">
+        <f>B27+80000</f>
+        <v>980000</v>
+      </c>
       <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="161">
+      <c r="H28" s="135">
         <f>AVERAGE(R3:R7)</f>
         <v>2.2406000000000002E-2</v>
       </c>
@@ -3473,7 +3500,7 @@
       <c r="M28">
         <v>18165</v>
       </c>
-      <c r="N28" s="161">
+      <c r="N28" s="135">
         <f>AVERAGE(S19:S23)</f>
         <v>2.9257999999999999E-2</v>
       </c>
@@ -4857,10 +4884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4925,7 +4952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -4969,217 +4996,205 @@
       <c r="R2" s="50"/>
       <c r="S2" s="50"/>
     </row>
-    <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="145" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="19">
+        <v>950</v>
+      </c>
+      <c r="E3" s="19">
+        <v>300</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="G3" s="19">
+        <v>900</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="22" t="e">
+        <f t="shared" ref="J3:J10" si="0">I3/H3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="22" t="e">
+        <f t="shared" ref="M3:M10" si="1">L3/K3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="22" t="e">
+        <f t="shared" ref="P3:P10" si="2">O3/N3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="146"/>
+      <c r="B4" s="21">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3">
-        <v>1300</v>
-      </c>
-      <c r="E3" s="3">
-        <v>600</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="D4" s="19">
+        <v>950</v>
+      </c>
+      <c r="E4" s="19">
+        <v>300</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="G4" s="19">
         <v>900</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="23" t="e">
-        <f>I3/I4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="27" t="e">
-        <f t="shared" ref="M3:M13" si="0">L3/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="30" t="e">
-        <f t="shared" ref="P3:P13" si="1">O3/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-    </row>
-    <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>900</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>900</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="23" t="e">
-        <f>#REF!/H4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="27" t="e">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="30" t="e">
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="24" t="e">
         <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="24" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>900</v>
-      </c>
-      <c r="F5" s="3">
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="143" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="41">
+        <v>57</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="42">
+        <v>4000</v>
+      </c>
+      <c r="E5" s="42">
+        <v>3600</v>
+      </c>
+      <c r="F5" s="42">
         <v>0.1</v>
       </c>
-      <c r="G5" s="3">
-        <v>900</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="23" t="e">
-        <f t="shared" ref="J5:J13" si="2">I5/H5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="27" t="e">
+      <c r="G5" s="42">
+        <v>3600</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="30" t="e">
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43" t="e">
         <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="43" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="21">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19" t="s">
+    <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="143"/>
+      <c r="B6" s="41">
+        <v>58</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="19">
-        <v>950</v>
-      </c>
-      <c r="E6" s="19">
-        <v>300</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="G6" s="19">
-        <v>900</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="22" t="e">
+      <c r="D6" s="42">
+        <v>400</v>
+      </c>
+      <c r="E6" s="42">
+        <v>3600</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="42">
+        <v>3600</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="143"/>
+      <c r="B7" s="41">
+        <v>59</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="42">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="42">
+        <v>3600</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="42">
+        <v>3600</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="22" t="e">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
-      <c r="B7" s="21">
-        <v>0</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="19">
-        <v>950</v>
-      </c>
-      <c r="E7" s="19">
-        <v>300</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="G7" s="19">
-        <v>900</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="24" t="e">
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43" t="e">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="24" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="24" t="e">
-        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q7" s="14"/>
@@ -5187,299 +5202,180 @@
       <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="41">
-        <v>57</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="A8" s="150" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="35">
+        <v>42</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42">
-        <v>4000</v>
-      </c>
-      <c r="E8" s="42">
-        <v>3600</v>
-      </c>
-      <c r="F8" s="42">
+      <c r="D8" s="36">
+        <v>1850</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1800</v>
+      </c>
+      <c r="F8" s="36">
         <v>0.1</v>
       </c>
-      <c r="G8" s="42">
-        <v>3600</v>
-      </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43" t="e">
+      <c r="G8" s="36">
+        <v>900</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="37" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="43" t="e">
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="40"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="150"/>
+      <c r="B9" s="2">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1850</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>900</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="43" t="e">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="28" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-    </row>
-    <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="124"/>
-      <c r="B9" s="41">
-        <v>58</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="42">
-        <v>400</v>
-      </c>
-      <c r="E9" s="42">
-        <v>3600</v>
-      </c>
-      <c r="F9" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="42">
-        <v>3600</v>
-      </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-    </row>
-    <row r="10" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="124"/>
-      <c r="B10" s="41">
-        <v>59</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="42">
-        <v>4000</v>
-      </c>
-      <c r="E10" s="42">
-        <v>3600</v>
-      </c>
-      <c r="F10" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="42">
-        <v>3600</v>
-      </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43" t="e">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43" t="e">
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="10"/>
+    </row>
+    <row r="10" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="150"/>
+      <c r="B10" s="35">
+        <v>44</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="36">
+        <v>1850</v>
+      </c>
+      <c r="E10" s="36">
+        <v>1800</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="36">
+        <v>900</v>
+      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="43" t="e">
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="38" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="35">
-        <v>42</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="36">
-        <v>1850</v>
-      </c>
-      <c r="E11" s="36">
-        <v>1800</v>
-      </c>
-      <c r="F11" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="36">
-        <v>900</v>
-      </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37" t="e">
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="44" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="37" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="40"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="131"/>
-      <c r="B12" s="2">
-        <v>43</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1850</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>900</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="31" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="10"/>
-    </row>
-    <row r="13" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="131"/>
-      <c r="B13" s="35">
-        <v>44</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="36">
-        <v>1850</v>
-      </c>
-      <c r="E13" s="36">
-        <v>1800</v>
-      </c>
-      <c r="F13" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="36">
-        <v>900</v>
-      </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="38" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="44" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="40"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="10"/>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="13"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="40"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="10"/>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5496,84 +5392,84 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="X1" s="157" t="s">
+      <c r="X1" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="157"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="131"/>
+      <c r="AD1" s="131"/>
+      <c r="AE1" s="131"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="131"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="X2" s="157" t="s">
+      <c r="X2" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="157"/>
-      <c r="AC2" s="157"/>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="157"/>
-      <c r="AG2" s="157"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="157"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="157"/>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="157"/>
-      <c r="AG3" s="157"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
     </row>
     <row r="4" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X4" s="157" t="s">
+      <c r="X4" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="157"/>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="157"/>
-      <c r="AC4" s="157"/>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="157"/>
-      <c r="AF4" s="157"/>
-      <c r="AG4" s="157"/>
+      <c r="Y4" s="131"/>
+      <c r="Z4" s="131"/>
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="131"/>
     </row>
     <row r="5" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="52"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="133"/>
+      <c r="E5" s="154"/>
       <c r="L5" s="52"/>
-      <c r="M5" s="132" t="s">
+      <c r="M5" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="133"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
-      <c r="X5" s="157" t="s">
+      <c r="N5" s="154"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="X5" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="157"/>
-      <c r="Z5" s="157"/>
-      <c r="AA5" s="157"/>
-      <c r="AB5" s="157"/>
-      <c r="AC5" s="157"/>
-      <c r="AD5" s="157"/>
-      <c r="AE5" s="157"/>
-      <c r="AF5" s="157"/>
-      <c r="AG5" s="157"/>
+      <c r="Y5" s="131"/>
+      <c r="Z5" s="131"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="131"/>
+      <c r="AC5" s="131"/>
+      <c r="AD5" s="131"/>
+      <c r="AE5" s="131"/>
+      <c r="AF5" s="131"/>
+      <c r="AG5" s="131"/>
     </row>
     <row r="6" spans="2:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="53" t="s">
@@ -5594,55 +5490,55 @@
       <c r="N6" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
     </row>
     <row r="7" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>300</v>
       </c>
-      <c r="D7" s="149">
+      <c r="D7" s="123">
         <f>C20</f>
         <v>0.28749999999999998</v>
       </c>
-      <c r="E7" s="151"/>
+      <c r="E7" s="125"/>
       <c r="L7" s="1">
         <v>300</v>
       </c>
-      <c r="M7" s="149">
+      <c r="M7" s="123">
         <f>M21</f>
         <v>0.21727711348482237</v>
       </c>
-      <c r="N7" s="151"/>
-      <c r="R7" s="156"/>
-      <c r="S7" s="156"/>
+      <c r="N7" s="125"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
       <c r="V7" s="52"/>
-      <c r="W7" s="132" t="s">
+      <c r="W7" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="133"/>
-      <c r="AB7" s="155"/>
-      <c r="AC7" s="155"/>
+      <c r="X7" s="154"/>
+      <c r="AB7" s="129"/>
+      <c r="AC7" s="129"/>
     </row>
     <row r="8" spans="2:33" ht="21" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>600</v>
       </c>
-      <c r="D8" s="149">
+      <c r="D8" s="123">
         <f>C27</f>
         <v>0.51333333333333331</v>
       </c>
-      <c r="E8" s="152"/>
+      <c r="E8" s="126"/>
       <c r="L8" s="1">
         <v>600</v>
       </c>
-      <c r="M8" s="149">
+      <c r="M8" s="123">
         <f>M28</f>
         <v>0.45556390462788904</v>
       </c>
-      <c r="N8" s="152"/>
-      <c r="R8" s="156"/>
-      <c r="S8" s="156"/>
+      <c r="N8" s="126"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
       <c r="V8" s="53" t="s">
         <v>30</v>
       </c>
@@ -5652,361 +5548,361 @@
       <c r="X8" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="AB8" s="155"/>
-      <c r="AC8" s="155"/>
+      <c r="AB8" s="129"/>
+      <c r="AC8" s="129"/>
     </row>
     <row r="9" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>1800</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="124">
         <f>C34</f>
         <v>0.51</v>
       </c>
-      <c r="E9" s="153"/>
+      <c r="E9" s="127"/>
       <c r="L9" s="5">
         <v>1800</v>
       </c>
-      <c r="M9" s="150">
+      <c r="M9" s="124">
         <f>M35</f>
         <v>0.45456256932373529</v>
       </c>
-      <c r="N9" s="153"/>
-      <c r="R9" s="154"/>
-      <c r="S9" s="154"/>
+      <c r="N9" s="127"/>
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
       <c r="V9" s="1">
         <v>300</v>
       </c>
-      <c r="W9" s="149">
+      <c r="W9" s="123">
         <f>W23</f>
         <v>0.4</v>
       </c>
-      <c r="X9" s="151"/>
-      <c r="AB9" s="156"/>
-      <c r="AC9" s="156"/>
+      <c r="X9" s="125"/>
+      <c r="AB9" s="130"/>
+      <c r="AC9" s="130"/>
     </row>
     <row r="10" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
       <c r="V10" s="1">
         <v>600</v>
       </c>
-      <c r="W10" s="149">
+      <c r="W10" s="123">
         <f>W30</f>
         <v>0.19</v>
       </c>
-      <c r="X10" s="152"/>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="156"/>
+      <c r="X10" s="126"/>
+      <c r="AB10" s="130"/>
+      <c r="AC10" s="130"/>
     </row>
     <row r="11" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="154"/>
+      <c r="C11" s="156"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="128"/>
       <c r="V11" s="5">
         <v>1800</v>
       </c>
-      <c r="W11" s="150">
+      <c r="W11" s="124">
         <f>W37</f>
         <v>0.32666666666666661</v>
       </c>
-      <c r="X11" s="153"/>
-      <c r="AB11" s="154"/>
-      <c r="AC11" s="154"/>
+      <c r="X11" s="127"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="128"/>
     </row>
     <row r="12" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="139"/>
-      <c r="C12" s="140"/>
-      <c r="L12" s="137" t="s">
+      <c r="B12" s="157"/>
+      <c r="C12" s="158"/>
+      <c r="L12" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="138"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="154"/>
-      <c r="AB12" s="154"/>
-      <c r="AC12" s="154"/>
+      <c r="M12" s="156"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
     </row>
     <row r="13" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="141"/>
-      <c r="C13" s="142"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="140"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="154"/>
-      <c r="AB13" s="154"/>
-      <c r="AC13" s="154"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="160"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="158"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="128"/>
     </row>
     <row r="14" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="135">
+      <c r="B14" s="151">
         <v>300</v>
       </c>
-      <c r="C14" s="136"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="142"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="154"/>
-      <c r="V14" s="137" t="s">
+      <c r="C14" s="152"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="160"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128"/>
+      <c r="V14" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="W14" s="138"/>
-      <c r="AB14" s="154"/>
-      <c r="AC14" s="154"/>
+      <c r="W14" s="156"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="128"/>
     </row>
     <row r="15" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="147">
+      <c r="C15" s="121">
         <f>PLC!J8</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="L15" s="135">
+      <c r="L15" s="151">
         <v>0.04</v>
       </c>
-      <c r="M15" s="136"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="156"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="140"/>
-      <c r="AB15" s="154"/>
-      <c r="AC15" s="154"/>
+      <c r="M15" s="152"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
+      <c r="V15" s="157"/>
+      <c r="W15" s="158"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
     </row>
     <row r="16" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="147">
+      <c r="C16" s="121">
         <f>PLC!J9</f>
         <v>0.28749999999999998</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="147">
+      <c r="M16" s="121">
         <f>PLC!M8</f>
         <v>0.21765162951310449</v>
       </c>
-      <c r="R16" s="154"/>
-      <c r="S16" s="154"/>
-      <c r="V16" s="141"/>
-      <c r="W16" s="142"/>
-      <c r="AB16" s="154"/>
-      <c r="AC16" s="154"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="V16" s="159"/>
+      <c r="W16" s="160"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="128"/>
     </row>
     <row r="17" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="147">
+      <c r="C17" s="121">
         <f>PLC!J10</f>
         <v>0.26250000000000001</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="147">
+      <c r="M17" s="121">
         <f>PLC!M9</f>
         <v>0.21744174967976879</v>
       </c>
-      <c r="R17" s="154"/>
-      <c r="S17" s="154"/>
-      <c r="V17" s="135" t="s">
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="V17" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="W17" s="136"/>
-      <c r="AB17" s="156"/>
-      <c r="AC17" s="156"/>
+      <c r="W17" s="152"/>
+      <c r="AB17" s="130"/>
+      <c r="AC17" s="130"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="147">
+      <c r="C18" s="121">
         <f>PLC!J11</f>
         <v>0.23749999999999999</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="147">
+      <c r="M18" s="121">
         <f>PLC!M10</f>
         <v>0.21724945376941449</v>
       </c>
-      <c r="R18" s="154"/>
-      <c r="S18" s="154"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
       <c r="V18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W18" s="147">
+      <c r="W18" s="121">
         <f>PLC!P8</f>
         <v>0.5</v>
       </c>
-      <c r="AB18" s="154"/>
-      <c r="AC18" s="154"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="147">
+      <c r="C19" s="121">
         <f>PLC!J12</f>
         <v>0.375</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="147">
+      <c r="M19" s="121">
         <f>PLC!M11</f>
         <v>0.21683386243386243</v>
       </c>
-      <c r="R19" s="154"/>
-      <c r="S19" s="154"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
       <c r="V19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W19" s="147">
+      <c r="W19" s="121">
         <f>PLC!P9</f>
         <v>0.5</v>
       </c>
-      <c r="AB19" s="154"/>
-      <c r="AC19" s="154"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
     </row>
     <row r="20" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="148">
+      <c r="C20" s="122">
         <f>AVERAGE(C15:C19)</f>
         <v>0.28749999999999998</v>
       </c>
       <c r="L20" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="147">
+      <c r="M20" s="121">
         <f>PLC!M12</f>
         <v>0.21720887202796166</v>
       </c>
-      <c r="R20" s="154"/>
-      <c r="S20" s="154"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="128"/>
       <c r="V20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W20" s="147">
+      <c r="W20" s="121">
         <f>PLC!P10</f>
         <v>0.5</v>
       </c>
-      <c r="AB20" s="154"/>
-      <c r="AC20" s="154"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="128"/>
     </row>
     <row r="21" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="135">
+      <c r="B21" s="151">
         <v>600</v>
       </c>
-      <c r="C21" s="136"/>
+      <c r="C21" s="152"/>
       <c r="L21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M21" s="148">
+      <c r="M21" s="122">
         <f>AVERAGE(M16:M20)</f>
         <v>0.21727711348482237</v>
       </c>
-      <c r="R21" s="154"/>
-      <c r="S21" s="154"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
       <c r="V21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="W21" s="147">
+      <c r="W21" s="121">
         <f>PLC!P11</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="154"/>
-      <c r="AC21" s="154"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
     </row>
     <row r="22" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="147">
+      <c r="C22" s="121">
         <f>PLC!J3</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="L22" s="135" t="s">
+      <c r="L22" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="136"/>
-      <c r="R22" s="156"/>
-      <c r="S22" s="156"/>
+      <c r="M22" s="152"/>
+      <c r="R22" s="130"/>
+      <c r="S22" s="130"/>
       <c r="V22" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="W22" s="147">
+      <c r="W22" s="121">
         <f>PLC!P12</f>
         <v>0.5</v>
       </c>
-      <c r="AB22" s="154"/>
-      <c r="AC22" s="154"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
     </row>
     <row r="23" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="147">
+      <c r="C23" s="121">
         <f>PLC!J4</f>
         <v>0.4</v>
       </c>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
       <c r="L23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="147">
+      <c r="M23" s="121">
         <f>PLC!M3</f>
         <v>0.46088121510698593</v>
       </c>
-      <c r="R23" s="154"/>
-      <c r="S23" s="154"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
       <c r="V23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W23" s="148">
+      <c r="W23" s="122">
         <f>AVERAGE(W18:W22)</f>
         <v>0.4</v>
       </c>
-      <c r="AB23" s="154"/>
-      <c r="AC23" s="154"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
     </row>
     <row r="24" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="147">
+      <c r="C24" s="121">
         <f>PLC!J5</f>
         <v>0.51666666666666672</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="147">
+      <c r="M24" s="121">
         <f>PLC!M4</f>
         <v>0.45427548628515602</v>
       </c>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
-      <c r="V24" s="135" t="s">
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="V24" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="W24" s="136"/>
-      <c r="AB24" s="156"/>
-      <c r="AC24" s="156"/>
+      <c r="W24" s="152"/>
+      <c r="AB24" s="130"/>
+      <c r="AC24" s="130"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="147">
+      <c r="C25" s="121">
         <f>PLC!J6</f>
         <v>0.58333333333333337</v>
       </c>
@@ -6014,315 +5910,315 @@
       <c r="L25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="147">
+      <c r="M25" s="121">
         <f>PLC!M5</f>
         <v>0.45470204302321093</v>
       </c>
-      <c r="R25" s="154"/>
-      <c r="S25" s="154"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
       <c r="V25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W25" s="147">
+      <c r="W25" s="121">
         <f>PLC!P3</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="154"/>
-      <c r="AC25" s="154"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="128"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="147">
+      <c r="C26" s="121">
         <f>PLC!J7</f>
         <v>0.43333333333333335</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="147">
+      <c r="M26" s="121">
         <f>PLC!M6</f>
         <v>0.45432322842247536</v>
       </c>
-      <c r="R26" s="154"/>
-      <c r="S26" s="154"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
       <c r="V26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W26" s="147">
+      <c r="W26" s="121">
         <f>PLC!P4</f>
         <v>0.5</v>
       </c>
-      <c r="AB26" s="154"/>
-      <c r="AC26" s="154"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
     </row>
     <row r="27" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="148">
+      <c r="C27" s="122">
         <f>AVERAGE(C22:C26)</f>
         <v>0.51333333333333331</v>
       </c>
       <c r="L27" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="147">
+      <c r="M27" s="121">
         <f>PLC!M7</f>
         <v>0.45363755030161662</v>
       </c>
-      <c r="R27" s="154"/>
-      <c r="S27" s="154"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
       <c r="V27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W27" s="147">
+      <c r="W27" s="121">
         <f>PLC!P5</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="154"/>
-      <c r="AC27" s="154"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
     </row>
     <row r="28" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="135">
+      <c r="B28" s="151">
         <v>1800</v>
       </c>
-      <c r="C28" s="136"/>
+      <c r="C28" s="152"/>
       <c r="L28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M28" s="148">
+      <c r="M28" s="122">
         <f>AVERAGE(M23:M27)</f>
         <v>0.45556390462788904</v>
       </c>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
       <c r="V28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="W28" s="147">
+      <c r="W28" s="121">
         <f>PLC!P6</f>
         <v>0.45</v>
       </c>
-      <c r="AB28" s="154"/>
-      <c r="AC28" s="154"/>
+      <c r="AB28" s="128"/>
+      <c r="AC28" s="128"/>
     </row>
     <row r="29" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="147">
+      <c r="C29" s="121">
         <f>PLC!J19</f>
         <v>0.5</v>
       </c>
-      <c r="L29" s="135" t="s">
+      <c r="L29" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="136"/>
-      <c r="R29" s="154"/>
-      <c r="S29" s="154"/>
+      <c r="M29" s="152"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
       <c r="V29" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="W29" s="147">
+      <c r="W29" s="121">
         <f>PLC!P7</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="154"/>
-      <c r="AC29" s="154"/>
+      <c r="AB29" s="128"/>
+      <c r="AC29" s="128"/>
     </row>
     <row r="30" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="147">
+      <c r="C30" s="121">
         <f>PLC!J20</f>
         <v>0.5</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="147">
+      <c r="M30" s="121">
         <f>PLC!M19</f>
         <v>0.45470350155529782</v>
       </c>
-      <c r="R30" s="154"/>
-      <c r="S30" s="154"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="128"/>
       <c r="V30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W30" s="148">
+      <c r="W30" s="122">
         <f>AVERAGE(W25:W29)</f>
         <v>0.19</v>
       </c>
-      <c r="AB30" s="154"/>
-      <c r="AC30" s="154"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
     </row>
     <row r="31" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="147">
+      <c r="C31" s="121">
         <f>PLC!J21</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="147">
+      <c r="M31" s="121">
         <f>PLC!M20</f>
         <v>0.45476795147349391</v>
       </c>
-      <c r="R31" s="154"/>
-      <c r="S31" s="154"/>
-      <c r="V31" s="135" t="s">
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="V31" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="136"/>
-      <c r="AB31" s="154"/>
-      <c r="AC31" s="154"/>
+      <c r="W31" s="152"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128"/>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="147">
+      <c r="C32" s="121">
         <f>PLC!J22</f>
         <v>0.5</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="147">
+      <c r="M32" s="121">
         <f>PLC!M21</f>
         <v>0.45428672105819534</v>
       </c>
-      <c r="R32" s="154"/>
-      <c r="S32" s="154"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="128"/>
       <c r="V32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W32" s="147">
+      <c r="W32" s="121">
         <f>PLC!P19</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AB32" s="154"/>
-      <c r="AC32" s="154"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128"/>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="147">
+      <c r="C33" s="121">
         <f>PLC!J23</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M33" s="147">
+      <c r="M33" s="121">
         <f>PLC!M22</f>
         <v>0.45476795147349391</v>
       </c>
-      <c r="R33" s="154"/>
-      <c r="S33" s="154"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="128"/>
       <c r="V33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W33" s="147">
+      <c r="W33" s="121">
         <f>PLC!P20</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AB33" s="154"/>
-      <c r="AC33" s="154"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="128"/>
     </row>
     <row r="34" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="148">
+      <c r="C34" s="122">
         <f>AVERAGE(C29:C33)</f>
         <v>0.51</v>
       </c>
       <c r="L34" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="M34" s="147">
+      <c r="M34" s="121">
         <f>PLC!M23</f>
         <v>0.45428672105819534</v>
       </c>
-      <c r="R34" s="154"/>
-      <c r="S34" s="154"/>
+      <c r="R34" s="128"/>
+      <c r="S34" s="128"/>
       <c r="V34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W34" s="147">
+      <c r="W34" s="121">
         <f>PLC!P21</f>
         <v>0.3</v>
       </c>
-      <c r="AB34" s="154"/>
-      <c r="AC34" s="154"/>
+      <c r="AB34" s="128"/>
+      <c r="AC34" s="128"/>
     </row>
     <row r="35" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M35" s="148">
+      <c r="M35" s="122">
         <f>AVERAGE(M30:M34)</f>
         <v>0.45456256932373529</v>
       </c>
-      <c r="R35" s="154"/>
-      <c r="S35" s="154"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="128"/>
       <c r="V35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="W35" s="147">
+      <c r="W35" s="121">
         <f>PLC!P22</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AB35" s="154"/>
-      <c r="AC35" s="154"/>
+      <c r="AB35" s="128"/>
+      <c r="AC35" s="128"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="V36" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="W36" s="147">
+      <c r="W36" s="121">
         <f>PLC!P23</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AB36" s="154"/>
-      <c r="AC36" s="154"/>
+      <c r="AB36" s="128"/>
+      <c r="AC36" s="128"/>
     </row>
     <row r="37" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W37" s="148">
+      <c r="W37" s="122">
         <f>AVERAGE(W32:W36)</f>
         <v>0.32666666666666661</v>
       </c>
-      <c r="AB37" s="154"/>
-      <c r="AC37" s="154"/>
+      <c r="AB37" s="128"/>
+      <c r="AC37" s="128"/>
     </row>
     <row r="38" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B39" s="52"/>
-      <c r="C39" s="132" t="s">
+      <c r="C39" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="133"/>
+      <c r="D39" s="154"/>
       <c r="F39" s="52"/>
-      <c r="G39" s="132" t="s">
+      <c r="G39" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="133"/>
+      <c r="H39" s="154"/>
       <c r="J39" s="52"/>
-      <c r="K39" s="132" t="s">
+      <c r="K39" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="L39" s="133"/>
+      <c r="L39" s="154"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="53" t="s">
@@ -6357,83 +6253,78 @@
       <c r="B41" s="1">
         <v>300</v>
       </c>
-      <c r="C41" s="162">
+      <c r="C41" s="136">
         <v>1.9444999999999999</v>
       </c>
-      <c r="D41" s="159"/>
+      <c r="D41" s="133"/>
       <c r="F41" s="1">
         <v>0.04</v>
       </c>
-      <c r="G41" s="162">
+      <c r="G41" s="136">
         <v>2.7313999999999998</v>
       </c>
-      <c r="H41" s="159"/>
+      <c r="H41" s="133"/>
       <c r="J41" s="1">
         <v>900</v>
       </c>
-      <c r="K41" s="162">
+      <c r="K41" s="136">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="L41" s="159"/>
+      <c r="L41" s="133"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>600</v>
       </c>
-      <c r="C42" s="162">
+      <c r="C42" s="136">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="D42" s="159"/>
+      <c r="D42" s="133"/>
       <c r="F42" s="1">
         <v>0.1</v>
       </c>
-      <c r="G42" s="162">
+      <c r="G42" s="136">
         <v>2.24E-2</v>
       </c>
-      <c r="H42" s="159"/>
+      <c r="H42" s="133"/>
       <c r="J42" s="1">
         <v>900</v>
       </c>
-      <c r="K42" s="162">
+      <c r="K42" s="136">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="L42" s="159"/>
+      <c r="L42" s="133"/>
     </row>
     <row r="43" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>1800</v>
       </c>
-      <c r="C43" s="163">
+      <c r="C43" s="137">
         <v>4.19E-2</v>
       </c>
-      <c r="D43" s="160"/>
+      <c r="D43" s="134"/>
       <c r="F43" s="5">
         <v>0.1</v>
       </c>
-      <c r="G43" s="163">
+      <c r="G43" s="137">
         <v>2.24E-2</v>
       </c>
-      <c r="H43" s="160"/>
+      <c r="H43" s="134"/>
       <c r="J43" s="5">
         <v>900</v>
       </c>
-      <c r="K43" s="163">
+      <c r="K43" s="137">
         <v>2.92E-2</v>
       </c>
-      <c r="L43" s="160"/>
+      <c r="L43" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="V14:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="B14:C14"/>
@@ -6441,11 +6332,16 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B11:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="V14:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V24:W24"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="L29:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6466,17 +6362,17 @@
     <row r="2" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C3" s="52"/>
-      <c r="D3" s="145" t="s">
+      <c r="D3" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="146"/>
+      <c r="E3" s="165"/>
     </row>
     <row r="4" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
-      <c r="D4" s="143" t="s">
+      <c r="D4" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="144"/>
+      <c r="E4" s="163"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -6662,4 +6558,2579 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V102"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="A4:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="120" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="104">
+        <v>34</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="105">
+        <v>1300</v>
+      </c>
+      <c r="E3" s="105">
+        <v>600</v>
+      </c>
+      <c r="F3" s="105">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="105">
+        <v>900</v>
+      </c>
+      <c r="H3" s="105">
+        <f>3*20</f>
+        <v>60</v>
+      </c>
+      <c r="I3" s="105">
+        <v>38</v>
+      </c>
+      <c r="J3" s="106">
+        <f>I3/H3</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="K3" s="105">
+        <v>259006</v>
+      </c>
+      <c r="L3" s="105">
+        <v>119371</v>
+      </c>
+      <c r="M3" s="107">
+        <f>L3/K3</f>
+        <v>0.46088121510698593</v>
+      </c>
+      <c r="N3" s="105">
+        <v>2</v>
+      </c>
+      <c r="O3" s="105">
+        <v>0</v>
+      </c>
+      <c r="P3" s="106">
+        <f>O3/N3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="108">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R3" s="108">
+        <v>2.223E-2</v>
+      </c>
+      <c r="S3" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="144" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="66">
+        <v>0</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="67">
+        <v>950</v>
+      </c>
+      <c r="E4" s="67">
+        <v>300</v>
+      </c>
+      <c r="F4" s="67">
+        <v>0.04</v>
+      </c>
+      <c r="G4" s="67">
+        <v>900</v>
+      </c>
+      <c r="H4" s="67">
+        <f>4*20</f>
+        <v>80</v>
+      </c>
+      <c r="I4" s="67">
+        <v>22</v>
+      </c>
+      <c r="J4" s="68">
+        <f t="shared" ref="J4:J14" si="0">I4/H4</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="K4" s="67">
+        <v>472319</v>
+      </c>
+      <c r="L4" s="67">
+        <v>102801</v>
+      </c>
+      <c r="M4" s="68">
+        <f t="shared" ref="M4:M19" si="1">L4/K4</f>
+        <v>0.21765162951310449</v>
+      </c>
+      <c r="N4" s="67">
+        <v>2</v>
+      </c>
+      <c r="O4" s="67">
+        <v>1</v>
+      </c>
+      <c r="P4" s="68">
+        <f t="shared" ref="P4:P19" si="2">O4/N4</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="69">
+        <v>1.9012</v>
+      </c>
+      <c r="R4" s="70">
+        <v>2.70797</v>
+      </c>
+      <c r="S4" s="71">
+        <v>1.8370000000000001E-2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="145"/>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="19">
+        <v>950</v>
+      </c>
+      <c r="E5" s="19">
+        <v>300</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="G5" s="19">
+        <v>900</v>
+      </c>
+      <c r="H5" s="19">
+        <v>80</v>
+      </c>
+      <c r="I5" s="19">
+        <v>23</v>
+      </c>
+      <c r="J5" s="22">
+        <f t="shared" si="0"/>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="K5" s="19">
+        <v>472315</v>
+      </c>
+      <c r="L5" s="19">
+        <v>102701</v>
+      </c>
+      <c r="M5" s="22">
+        <f t="shared" si="1"/>
+        <v>0.21744174967976879</v>
+      </c>
+      <c r="N5" s="19">
+        <v>2</v>
+      </c>
+      <c r="O5" s="19">
+        <v>1</v>
+      </c>
+      <c r="P5" s="22">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="34">
+        <v>1.9094</v>
+      </c>
+      <c r="R5" s="34">
+        <v>2.6869000000000001</v>
+      </c>
+      <c r="S5" s="72">
+        <v>1.83E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="145"/>
+      <c r="B6" s="21">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="19">
+        <v>950</v>
+      </c>
+      <c r="E6" s="19">
+        <v>300</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="19">
+        <v>900</v>
+      </c>
+      <c r="H6" s="19">
+        <v>80</v>
+      </c>
+      <c r="I6" s="19">
+        <v>21</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="0"/>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="K6" s="19">
+        <v>472328</v>
+      </c>
+      <c r="L6" s="19">
+        <v>102613</v>
+      </c>
+      <c r="M6" s="22">
+        <f t="shared" si="1"/>
+        <v>0.21724945376941449</v>
+      </c>
+      <c r="N6" s="19">
+        <v>2</v>
+      </c>
+      <c r="O6" s="19">
+        <v>1</v>
+      </c>
+      <c r="P6" s="22">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>1.9399</v>
+      </c>
+      <c r="R6" s="34">
+        <v>2.6638000000000002</v>
+      </c>
+      <c r="S6" s="72">
+        <v>4.99E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="145"/>
+      <c r="B7" s="21">
+        <v>4</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19">
+        <v>950</v>
+      </c>
+      <c r="E7" s="19">
+        <v>300</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="G7" s="19">
+        <v>900</v>
+      </c>
+      <c r="H7" s="19">
+        <v>80</v>
+      </c>
+      <c r="I7" s="19">
+        <v>19</v>
+      </c>
+      <c r="J7" s="22">
+        <f t="shared" si="0"/>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="K7" s="19">
+        <v>472500</v>
+      </c>
+      <c r="L7" s="19">
+        <v>102454</v>
+      </c>
+      <c r="M7" s="22">
+        <f t="shared" si="1"/>
+        <v>0.21683386243386243</v>
+      </c>
+      <c r="N7" s="19">
+        <v>2</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="34">
+        <v>2.1547000000000001</v>
+      </c>
+      <c r="R7" s="34">
+        <v>2.7778</v>
+      </c>
+      <c r="S7" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="146"/>
+      <c r="B8" s="73">
+        <v>2</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="74">
+        <v>950</v>
+      </c>
+      <c r="E8" s="74">
+        <v>300</v>
+      </c>
+      <c r="F8" s="74">
+        <v>0.04</v>
+      </c>
+      <c r="G8" s="74">
+        <v>900</v>
+      </c>
+      <c r="H8" s="74">
+        <v>80</v>
+      </c>
+      <c r="I8" s="74">
+        <v>30</v>
+      </c>
+      <c r="J8" s="75">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="K8" s="74">
+        <v>472361</v>
+      </c>
+      <c r="L8" s="74">
+        <v>102601</v>
+      </c>
+      <c r="M8" s="75">
+        <f t="shared" si="1"/>
+        <v>0.21720887202796166</v>
+      </c>
+      <c r="N8" s="74">
+        <v>2</v>
+      </c>
+      <c r="O8" s="74">
+        <v>1</v>
+      </c>
+      <c r="P8" s="75">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="76">
+        <v>1.8173999999999999</v>
+      </c>
+      <c r="R8" s="76">
+        <v>2.8208000000000002</v>
+      </c>
+      <c r="S8" s="77">
+        <v>3.5299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="143" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="62">
+        <v>57</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="63">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="63">
+        <v>3600</v>
+      </c>
+      <c r="F9" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="63">
+        <v>3600</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="64" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="V9">
+        <v>1.8377415779000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="143"/>
+      <c r="B10" s="41">
+        <v>58</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="42">
+        <v>400</v>
+      </c>
+      <c r="E10" s="42">
+        <v>3600</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="42">
+        <v>3600</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="V10">
+        <v>1.8377486969E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="143"/>
+      <c r="B11" s="41">
+        <v>59</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="42">
+        <v>4000</v>
+      </c>
+      <c r="E11" s="42">
+        <v>3600</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="42">
+        <v>3600</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43" t="e">
+        <f>I11/H11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="43" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="V11">
+        <v>1.8377447735E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="20">
+        <v>7500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H12" s="3">
+        <f>3*20</f>
+        <v>60</v>
+      </c>
+      <c r="I12" s="3">
+        <v>52</v>
+      </c>
+      <c r="J12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="K12" s="3">
+        <f>5*20</f>
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
+        <v>98</v>
+      </c>
+      <c r="M12" s="27">
+        <f t="shared" si="1"/>
+        <v>0.98</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3">
+        <v>3</v>
+      </c>
+      <c r="P12" s="30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="10"/>
+      <c r="V12">
+        <v>1.8377469962000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="142"/>
+      <c r="B13" s="1">
+        <v>58</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H13" s="3">
+        <f>3*20</f>
+        <v>60</v>
+      </c>
+      <c r="I13" s="3">
+        <v>55</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K13" s="3">
+        <f>5*20</f>
+        <v>100</v>
+      </c>
+      <c r="L13" s="3">
+        <v>99</v>
+      </c>
+      <c r="M13" s="27">
+        <f t="shared" si="1"/>
+        <v>0.99</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3">
+        <v>3</v>
+      </c>
+      <c r="P13" s="30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="10"/>
+      <c r="V13">
+        <v>1.8377466778E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="142"/>
+      <c r="B14" s="88">
+        <v>59</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="89">
+        <v>7500</v>
+      </c>
+      <c r="E14" s="89">
+        <v>3600</v>
+      </c>
+      <c r="F14" s="89">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="89">
+        <v>3600</v>
+      </c>
+      <c r="H14" s="89">
+        <f>3*20</f>
+        <v>60</v>
+      </c>
+      <c r="I14" s="89">
+        <v>60</v>
+      </c>
+      <c r="J14" s="90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="89">
+        <f>5*20</f>
+        <v>100</v>
+      </c>
+      <c r="L14" s="89">
+        <v>98</v>
+      </c>
+      <c r="M14" s="91">
+        <f t="shared" si="1"/>
+        <v>0.98</v>
+      </c>
+      <c r="N14" s="89">
+        <v>3</v>
+      </c>
+      <c r="O14" s="89">
+        <v>3</v>
+      </c>
+      <c r="P14" s="92">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="94"/>
+      <c r="V14">
+        <v>1.8377459259000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="95">
+        <v>42</v>
+      </c>
+      <c r="C15" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="96">
+        <v>1850</v>
+      </c>
+      <c r="E15" s="96">
+        <v>1800</v>
+      </c>
+      <c r="F15" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="G15" s="96">
+        <v>900</v>
+      </c>
+      <c r="H15" s="96">
+        <v>40</v>
+      </c>
+      <c r="I15" s="96">
+        <v>20</v>
+      </c>
+      <c r="J15" s="97">
+        <f>I15/H15</f>
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="96">
+        <v>362953</v>
+      </c>
+      <c r="L15" s="96">
+        <v>165036</v>
+      </c>
+      <c r="M15" s="98">
+        <f t="shared" si="1"/>
+        <v>0.45470350155529782</v>
+      </c>
+      <c r="N15" s="96">
+        <v>3</v>
+      </c>
+      <c r="O15" s="96">
+        <v>1</v>
+      </c>
+      <c r="P15" s="97">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q15" s="99">
+        <v>4.8379999999999999E-2</v>
+      </c>
+      <c r="R15" s="99">
+        <v>2.24E-2</v>
+      </c>
+      <c r="S15" s="100">
+        <v>1.8089999999999998E-2</v>
+      </c>
+      <c r="V15">
+        <v>1.8377436931999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="148"/>
+      <c r="B16" s="78">
+        <v>43</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="79">
+        <v>1850</v>
+      </c>
+      <c r="E16" s="79">
+        <v>1800</v>
+      </c>
+      <c r="F16" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="79">
+        <v>900</v>
+      </c>
+      <c r="H16" s="79">
+        <v>40</v>
+      </c>
+      <c r="I16" s="79">
+        <v>20</v>
+      </c>
+      <c r="J16" s="80">
+        <f t="shared" ref="J16:J17" si="3">I16/H16</f>
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="79">
+        <v>368953</v>
+      </c>
+      <c r="L16" s="79">
+        <v>167788</v>
+      </c>
+      <c r="M16" s="81">
+        <f t="shared" si="1"/>
+        <v>0.45476795147349391</v>
+      </c>
+      <c r="N16" s="79">
+        <v>3</v>
+      </c>
+      <c r="O16" s="79">
+        <v>1</v>
+      </c>
+      <c r="P16" s="80">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q16" s="84">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="R16" s="82">
+        <v>2.24E-2</v>
+      </c>
+      <c r="S16" s="83">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="148"/>
+      <c r="B17" s="78">
+        <v>44</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="79">
+        <v>1850</v>
+      </c>
+      <c r="E17" s="79">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="79">
+        <v>900</v>
+      </c>
+      <c r="H17" s="79">
+        <v>40</v>
+      </c>
+      <c r="I17" s="79">
+        <v>21</v>
+      </c>
+      <c r="J17" s="80">
+        <f t="shared" si="3"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K17" s="79">
+        <v>368930</v>
+      </c>
+      <c r="L17" s="79">
+        <v>167600</v>
+      </c>
+      <c r="M17" s="81">
+        <f t="shared" si="1"/>
+        <v>0.45428672105819534</v>
+      </c>
+      <c r="N17" s="79">
+        <v>3</v>
+      </c>
+      <c r="O17" s="79">
+        <v>0.9</v>
+      </c>
+      <c r="P17" s="80">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q17" s="84">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="R17" s="82">
+        <v>2.248E-2</v>
+      </c>
+      <c r="S17" s="83">
+        <v>4.3700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="148"/>
+      <c r="B18" s="78">
+        <v>70</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="79">
+        <v>1850</v>
+      </c>
+      <c r="E18" s="79">
+        <v>1800</v>
+      </c>
+      <c r="F18" s="79">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="79">
+        <v>900</v>
+      </c>
+      <c r="H18" s="79">
+        <v>40</v>
+      </c>
+      <c r="I18" s="79">
+        <v>20</v>
+      </c>
+      <c r="J18" s="80">
+        <f>I18/H18</f>
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="79">
+        <v>368953</v>
+      </c>
+      <c r="L18" s="79">
+        <v>167788</v>
+      </c>
+      <c r="M18" s="81">
+        <f t="shared" si="1"/>
+        <v>0.45476795147349391</v>
+      </c>
+      <c r="N18" s="79">
+        <v>3</v>
+      </c>
+      <c r="O18" s="79">
+        <v>1</v>
+      </c>
+      <c r="P18" s="80">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q18" s="82">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="R18" s="82">
+        <v>2.24E-2</v>
+      </c>
+      <c r="S18" s="83">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="V18">
+        <v>1.8377446012999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="149"/>
+      <c r="B19" s="101">
+        <v>71</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="85">
+        <v>1850</v>
+      </c>
+      <c r="E19" s="85">
+        <v>1800</v>
+      </c>
+      <c r="F19" s="85">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="85">
+        <v>900</v>
+      </c>
+      <c r="H19" s="85">
+        <v>40</v>
+      </c>
+      <c r="I19" s="85">
+        <v>21</v>
+      </c>
+      <c r="J19" s="102">
+        <f>I19/H19</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K19" s="85">
+        <v>368930</v>
+      </c>
+      <c r="L19" s="85">
+        <v>167600</v>
+      </c>
+      <c r="M19" s="103">
+        <f t="shared" si="1"/>
+        <v>0.45428672105819534</v>
+      </c>
+      <c r="N19" s="85">
+        <v>3</v>
+      </c>
+      <c r="O19" s="85">
+        <v>1</v>
+      </c>
+      <c r="P19" s="102">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q19" s="86">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="R19" s="86">
+        <v>2.24E-2</v>
+      </c>
+      <c r="S19" s="87">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="V19">
+        <v>1.8377415083E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V20">
+        <v>1.8377455434E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I21" s="135">
+        <f>AVERAGE(Q3:Q3)</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K21">
+        <f>250/60</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="M21" s="135">
+        <f>AVERAGE(Q4:Q8)</f>
+        <v>1.94452</v>
+      </c>
+      <c r="O21" s="135">
+        <f>AVERAGE(R4:R8)</f>
+        <v>2.7314539999999998</v>
+      </c>
+      <c r="Q21" s="135">
+        <f>AVERAGE(R15:R19)</f>
+        <v>2.2416000000000002E-2</v>
+      </c>
+      <c r="V21">
+        <v>1.8377440200000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="138">
+        <v>450000</v>
+      </c>
+      <c r="C22">
+        <f>B24-700000</f>
+        <v>280000</v>
+      </c>
+      <c r="D22">
+        <f>80000</f>
+        <v>80000</v>
+      </c>
+      <c r="F22" s="132">
+        <f>AVERAGE(J4:J8)</f>
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="I22" s="135">
+        <f>AVERAGE(S4:S8)</f>
+        <v>2.4374E-2</v>
+      </c>
+      <c r="K22" s="135">
+        <f>AVERAGE(Q15:Q19)</f>
+        <v>4.1916000000000002E-2</v>
+      </c>
+      <c r="R22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T22">
+        <f>AVERAGE(R23:R52)</f>
+        <v>1.8094548745599997E-2</v>
+      </c>
+      <c r="V22">
+        <v>1.8377468394E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>B22+450000</f>
+        <v>900000</v>
+      </c>
+      <c r="D23">
+        <f>D22+4700000</f>
+        <v>4780000</v>
+      </c>
+      <c r="H23" s="135">
+        <f>AVERAGE(R4:R8)</f>
+        <v>2.7314539999999998</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <f>K21*5</f>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="M23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="135">
+        <f>AVERAGE(S3:S3)</f>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>SUM(M24:M43)</f>
+        <v>18165</v>
+      </c>
+      <c r="V23">
+        <v>1.8377416337000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <f>B23+80000</f>
+        <v>980000</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="135">
+        <f>AVERAGE(R3:R3)</f>
+        <v>2.223E-2</v>
+      </c>
+      <c r="J24">
+        <v>1.8094541658E-2</v>
+      </c>
+      <c r="M24">
+        <v>18165</v>
+      </c>
+      <c r="N24" s="135">
+        <f>AVERAGE(S15:S19)</f>
+        <v>2.9257999999999999E-2</v>
+      </c>
+      <c r="U24">
+        <f>SUM(T27:T46)</f>
+        <v>368953</v>
+      </c>
+      <c r="V24">
+        <v>1.8377437404999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23545</v>
+      </c>
+      <c r="C25">
+        <f>SUM(A25:A44)</f>
+        <v>472315</v>
+      </c>
+      <c r="D25">
+        <v>1.9650456230667E-2</v>
+      </c>
+      <c r="H25">
+        <f>SUM(D25:D44)/20</f>
+        <v>1.9229383186550299E-2</v>
+      </c>
+      <c r="J25">
+        <v>1.8094542471000001E-2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>18</v>
+      </c>
+      <c r="V25">
+        <v>1.8377429143000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23705</v>
+      </c>
+      <c r="D26">
+        <v>1.9650433376667002E-2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26">
+        <v>1.8094550208E-2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26">
+        <f>AVERAGE(L26:L45)</f>
+        <v>0.9</v>
+      </c>
+      <c r="R26" t="s">
+        <v>18</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="V26">
+        <v>1.8377459302999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23609</v>
+      </c>
+      <c r="D27">
+        <v>1.9650504566667001E-2</v>
+      </c>
+      <c r="F27">
+        <v>18487</v>
+      </c>
+      <c r="G27">
+        <f>SUM(F27:F46)</f>
+        <v>368930</v>
+      </c>
+      <c r="J27">
+        <v>1.8094553467999999E-2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>4.8586364016E-2</v>
+      </c>
+      <c r="R27">
+        <v>1.8094590051E-2</v>
+      </c>
+      <c r="T27">
+        <v>18481</v>
+      </c>
+      <c r="V27">
+        <v>1.8377450787E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>23531</v>
+      </c>
+      <c r="D28">
+        <v>1.9650465332667E-2</v>
+      </c>
+      <c r="F28">
+        <v>18485</v>
+      </c>
+      <c r="J28">
+        <v>1.8094553691E-2</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>4.8586347008999997E-2</v>
+      </c>
+      <c r="Q28" t="e">
+        <f>#REF!*2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R28">
+        <v>1.8094585715E-2</v>
+      </c>
+      <c r="T28">
+        <v>18478</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23539</v>
+      </c>
+      <c r="D29">
+        <v>1.9650487559667001E-2</v>
+      </c>
+      <c r="F29">
+        <v>18482</v>
+      </c>
+      <c r="H29">
+        <f>SUM(H32:H51)</f>
+        <v>368930</v>
+      </c>
+      <c r="J29">
+        <v>1.8094532173E-2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>4.8586345441000003E-2</v>
+      </c>
+      <c r="R29">
+        <v>1.8094584843999999E-2</v>
+      </c>
+      <c r="T29">
+        <v>18477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>23539</v>
+      </c>
+      <c r="D30">
+        <v>1.9650484375667E-2</v>
+      </c>
+      <c r="F30">
+        <v>18478</v>
+      </c>
+      <c r="J30">
+        <v>1.8094553138999998E-2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>4.8586343825000003E-2</v>
+      </c>
+      <c r="R30">
+        <v>1.8094555589E-2</v>
+      </c>
+      <c r="T30">
+        <v>18474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>23664</v>
+      </c>
+      <c r="D31">
+        <v>1.5439683337499999E-2</v>
+      </c>
+      <c r="F31">
+        <v>18473</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31">
+        <v>1.8094539773000001E-2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>4.8586336350000002E-2</v>
+      </c>
+      <c r="R31">
+        <v>1.8094553691E-2</v>
+      </c>
+      <c r="T31">
+        <v>18471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>23712</v>
+      </c>
+      <c r="D32">
+        <v>1.9650454529666999E-2</v>
+      </c>
+      <c r="F32">
+        <v>18466</v>
+      </c>
+      <c r="H32">
+        <v>18487</v>
+      </c>
+      <c r="J32">
+        <v>1.8094518819999999E-2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>4.8586336305999997E-2</v>
+      </c>
+      <c r="R32">
+        <v>1.8094553467999999E-2</v>
+      </c>
+      <c r="T32">
+        <v>18470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>23575</v>
+      </c>
+      <c r="D33">
+        <v>1.9650454741667E-2</v>
+      </c>
+      <c r="F33">
+        <v>18464</v>
+      </c>
+      <c r="H33">
+        <v>18485</v>
+      </c>
+      <c r="J33">
+        <v>1.8094555589E-2</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>4.8586332481E-2</v>
+      </c>
+      <c r="R33">
+        <v>1.8094553138999998E-2</v>
+      </c>
+      <c r="T33">
+        <v>18461</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>23592</v>
+      </c>
+      <c r="D34">
+        <v>1.9650439123666999E-2</v>
+      </c>
+      <c r="F34">
+        <v>18453</v>
+      </c>
+      <c r="H34">
+        <v>18482</v>
+      </c>
+      <c r="J34">
+        <v>1.8094536118E-2</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>4.8586327834E-2</v>
+      </c>
+      <c r="R34">
+        <v>1.8094550208E-2</v>
+      </c>
+      <c r="T34">
+        <v>18456</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>23574</v>
+      </c>
+      <c r="D35">
+        <v>1.9650463610667E-2</v>
+      </c>
+      <c r="F35">
+        <v>18453</v>
+      </c>
+      <c r="H35">
+        <v>18478</v>
+      </c>
+      <c r="J35">
+        <v>1.8094542006999999E-2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>4.8586324782E-2</v>
+      </c>
+      <c r="P35">
+        <f>AVERAGE(N27:N46)</f>
+        <v>4.3727691484150004E-2</v>
+      </c>
+      <c r="R35">
+        <v>1.8094547175E-2</v>
+      </c>
+      <c r="T35">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>23633</v>
+      </c>
+      <c r="D36">
+        <v>1.9650432680667001E-2</v>
+      </c>
+      <c r="F36">
+        <v>18444</v>
+      </c>
+      <c r="H36">
+        <v>18473</v>
+      </c>
+      <c r="J36">
+        <v>1.8094539082E-2</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>4.8586323059999999E-2</v>
+      </c>
+      <c r="R36">
+        <v>1.8094542471000001E-2</v>
+      </c>
+      <c r="T36">
+        <v>18448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>23681</v>
+      </c>
+      <c r="D37">
+        <v>1.54396795125E-2</v>
+      </c>
+      <c r="F37">
+        <v>18437</v>
+      </c>
+      <c r="H37">
+        <v>18466</v>
+      </c>
+      <c r="J37">
+        <v>1.8094534214000001E-2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>4.8586315679999999E-2</v>
+      </c>
+      <c r="R37">
+        <v>1.8094542006999999E-2</v>
+      </c>
+      <c r="T37">
+        <v>18444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>23660</v>
+      </c>
+      <c r="D38">
+        <v>1.9650457797667002E-2</v>
+      </c>
+      <c r="F38">
+        <v>18434</v>
+      </c>
+      <c r="H38">
+        <v>18464</v>
+      </c>
+      <c r="J38">
+        <v>1.8094585715E-2</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>4.8586314451999998E-2</v>
+      </c>
+      <c r="R38">
+        <v>1.8094541658E-2</v>
+      </c>
+      <c r="T38">
+        <v>18442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>23694</v>
+      </c>
+      <c r="D39">
+        <v>1.9650485991667001E-2</v>
+      </c>
+      <c r="F39">
+        <v>18431</v>
+      </c>
+      <c r="H39">
+        <v>18453</v>
+      </c>
+      <c r="J39">
+        <v>1.8094584843999999E-2</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>4.8586314190999999E-2</v>
+      </c>
+      <c r="R39">
+        <v>1.8094539773000001E-2</v>
+      </c>
+      <c r="T39">
+        <v>18438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>23549</v>
+      </c>
+      <c r="D40">
+        <v>1.9650433934666998E-2</v>
+      </c>
+      <c r="F40">
+        <v>18430</v>
+      </c>
+      <c r="H40">
+        <v>18453</v>
+      </c>
+      <c r="J40">
+        <v>1.8094590051E-2</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>4.8586313978999998E-2</v>
+      </c>
+      <c r="R40">
+        <v>1.8094539082E-2</v>
+      </c>
+      <c r="T40">
+        <v>18435</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>23633</v>
+      </c>
+      <c r="D41">
+        <v>1.9650455002666999E-2</v>
+      </c>
+      <c r="F41">
+        <v>18430</v>
+      </c>
+      <c r="H41">
+        <v>18444</v>
+      </c>
+      <c r="J41">
+        <v>1.8094547175E-2</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>4.8586306189999998E-2</v>
+      </c>
+      <c r="R41">
+        <v>1.8094538394E-2</v>
+      </c>
+      <c r="T41">
+        <v>18429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>23718</v>
+      </c>
+      <c r="D42">
+        <v>1.9650446740666998E-2</v>
+      </c>
+      <c r="F42">
+        <v>18420</v>
+      </c>
+      <c r="H42">
+        <v>18437</v>
+      </c>
+      <c r="J42">
+        <v>1.8094536322000001E-2</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>4.8586298573000002E-2</v>
+      </c>
+      <c r="R42">
+        <v>1.8094536322000001E-2</v>
+      </c>
+      <c r="T42">
+        <v>18426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>23585</v>
+      </c>
+      <c r="D43">
+        <v>1.9650476900666999E-2</v>
+      </c>
+      <c r="F43">
+        <v>18418</v>
+      </c>
+      <c r="H43">
+        <v>18434</v>
+      </c>
+      <c r="J43">
+        <v>1.8094538394E-2</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>4.8586293384000001E-2</v>
+      </c>
+      <c r="R43">
+        <v>1.8094536118E-2</v>
+      </c>
+      <c r="T43">
+        <v>18424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>23577</v>
+      </c>
+      <c r="D44">
+        <v>1.9650468384667E-2</v>
+      </c>
+      <c r="F44">
+        <v>18416</v>
+      </c>
+      <c r="H44">
+        <v>18431</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>4.858629213E-2</v>
+      </c>
+      <c r="R44">
+        <v>1.8094534214000001E-2</v>
+      </c>
+      <c r="T44">
+        <v>18422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>18416</v>
+      </c>
+      <c r="H45">
+        <v>18430</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>1.8094532173E-2</v>
+      </c>
+      <c r="T45">
+        <v>18418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>18413</v>
+      </c>
+      <c r="H46">
+        <v>18430</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1.8094518819999999E-2</v>
+      </c>
+      <c r="T46">
+        <v>18409</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>18420</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M47">
+        <f>SUM(J48:J67)</f>
+        <v>368953</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>18418</v>
+      </c>
+      <c r="J48">
+        <v>18481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49">
+        <v>18416</v>
+      </c>
+      <c r="J49">
+        <v>18478</v>
+      </c>
+      <c r="N49">
+        <f>SUM(K50:K69)</f>
+        <v>47030</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>23721</v>
+      </c>
+      <c r="H50">
+        <v>18416</v>
+      </c>
+      <c r="J50">
+        <v>18477</v>
+      </c>
+      <c r="S50">
+        <f>AVERAGE(R27:R46)</f>
+        <v>1.8094548745599997E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>23720</v>
+      </c>
+      <c r="H51">
+        <v>18413</v>
+      </c>
+      <c r="J51">
+        <v>18474</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>23693</v>
+      </c>
+      <c r="J52">
+        <v>18471</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <f>AVERAGE(A54:A73)</f>
+        <v>1.8094548745599997E-2</v>
+      </c>
+      <c r="D53">
+        <v>23668</v>
+      </c>
+      <c r="J53">
+        <v>18470</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1.8094590051E-2</v>
+      </c>
+      <c r="D54">
+        <v>23664</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54">
+        <v>18461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1.8094585715E-2</v>
+      </c>
+      <c r="D55">
+        <v>23654</v>
+      </c>
+      <c r="G55">
+        <v>18481</v>
+      </c>
+      <c r="J55">
+        <v>18456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1.8094584843999999E-2</v>
+      </c>
+      <c r="D56">
+        <v>23652</v>
+      </c>
+      <c r="G56">
+        <v>18478</v>
+      </c>
+      <c r="J56">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1.8094555589E-2</v>
+      </c>
+      <c r="D57">
+        <v>23636</v>
+      </c>
+      <c r="G57">
+        <v>18477</v>
+      </c>
+      <c r="J57">
+        <v>18448</v>
+      </c>
+      <c r="M57" t="s">
+        <v>18</v>
+      </c>
+      <c r="P57">
+        <f>SUM(M58:M77)</f>
+        <v>258953</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1.8094553691E-2</v>
+      </c>
+      <c r="D58">
+        <v>23632</v>
+      </c>
+      <c r="G58">
+        <v>18474</v>
+      </c>
+      <c r="J58">
+        <v>18444</v>
+      </c>
+      <c r="M58">
+        <v>12981</v>
+      </c>
+      <c r="S58">
+        <f>SUM(S61:S80)</f>
+        <v>258950</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1.8094553467999999E-2</v>
+      </c>
+      <c r="D59">
+        <v>23630</v>
+      </c>
+      <c r="G59">
+        <v>18471</v>
+      </c>
+      <c r="J59">
+        <v>18442</v>
+      </c>
+      <c r="M59">
+        <v>12978</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1.8094553138999998E-2</v>
+      </c>
+      <c r="D60">
+        <v>23623</v>
+      </c>
+      <c r="G60">
+        <v>18470</v>
+      </c>
+      <c r="J60">
+        <v>18438</v>
+      </c>
+      <c r="M60">
+        <v>12977</v>
+      </c>
+      <c r="S60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1.8094550208E-2</v>
+      </c>
+      <c r="D61">
+        <v>23599</v>
+      </c>
+      <c r="G61">
+        <v>18461</v>
+      </c>
+      <c r="J61">
+        <v>18435</v>
+      </c>
+      <c r="M61">
+        <v>12974</v>
+      </c>
+      <c r="P61" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q61">
+        <f>SUM(P62:P81)</f>
+        <v>258930</v>
+      </c>
+      <c r="S61">
+        <v>12980</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1.8094547175E-2</v>
+      </c>
+      <c r="D62">
+        <v>23594</v>
+      </c>
+      <c r="G62">
+        <v>18456</v>
+      </c>
+      <c r="J62">
+        <v>18429</v>
+      </c>
+      <c r="M62">
+        <v>12971</v>
+      </c>
+      <c r="P62">
+        <v>12987</v>
+      </c>
+      <c r="S62">
+        <v>12980</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1.8094542471000001E-2</v>
+      </c>
+      <c r="D63">
+        <v>23565</v>
+      </c>
+      <c r="G63">
+        <v>18450</v>
+      </c>
+      <c r="J63">
+        <v>18426</v>
+      </c>
+      <c r="M63">
+        <v>12970</v>
+      </c>
+      <c r="P63">
+        <v>12985</v>
+      </c>
+      <c r="S63">
+        <v>12977</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1.8094542006999999E-2</v>
+      </c>
+      <c r="D64">
+        <v>23564</v>
+      </c>
+      <c r="G64">
+        <v>18448</v>
+      </c>
+      <c r="J64">
+        <v>18424</v>
+      </c>
+      <c r="M64">
+        <v>12961</v>
+      </c>
+      <c r="P64">
+        <v>12982</v>
+      </c>
+      <c r="S64">
+        <v>12975</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1.8094541658E-2</v>
+      </c>
+      <c r="D65">
+        <v>23555</v>
+      </c>
+      <c r="G65">
+        <v>18444</v>
+      </c>
+      <c r="J65">
+        <v>18422</v>
+      </c>
+      <c r="M65">
+        <v>12956</v>
+      </c>
+      <c r="P65">
+        <v>12978</v>
+      </c>
+      <c r="S65">
+        <v>12974</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1.8094539773000001E-2</v>
+      </c>
+      <c r="D66">
+        <v>23548</v>
+      </c>
+      <c r="G66">
+        <v>18442</v>
+      </c>
+      <c r="J66">
+        <v>18418</v>
+      </c>
+      <c r="M66">
+        <v>12950</v>
+      </c>
+      <c r="P66">
+        <v>12973</v>
+      </c>
+      <c r="S66">
+        <v>12971</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1.8094539082E-2</v>
+      </c>
+      <c r="D67">
+        <v>23543</v>
+      </c>
+      <c r="G67">
+        <v>18438</v>
+      </c>
+      <c r="J67">
+        <v>18409</v>
+      </c>
+      <c r="M67">
+        <v>12948</v>
+      </c>
+      <c r="P67">
+        <v>12966</v>
+      </c>
+      <c r="S67">
+        <v>12965</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1.8094538394E-2</v>
+      </c>
+      <c r="D68">
+        <v>23542</v>
+      </c>
+      <c r="G68">
+        <v>18435</v>
+      </c>
+      <c r="K68">
+        <v>23517</v>
+      </c>
+      <c r="M68">
+        <v>12944</v>
+      </c>
+      <c r="P68">
+        <v>12964</v>
+      </c>
+      <c r="S68">
+        <v>12957</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1.8094536322000001E-2</v>
+      </c>
+      <c r="D69">
+        <v>23525</v>
+      </c>
+      <c r="G69">
+        <v>18429</v>
+      </c>
+      <c r="K69">
+        <v>23513</v>
+      </c>
+      <c r="M69">
+        <v>12942</v>
+      </c>
+      <c r="P69">
+        <v>12953</v>
+      </c>
+      <c r="S69">
+        <v>12948</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1.8094536118E-2</v>
+      </c>
+      <c r="G70">
+        <v>18426</v>
+      </c>
+      <c r="M70">
+        <v>12938</v>
+      </c>
+      <c r="P70">
+        <v>12953</v>
+      </c>
+      <c r="S70">
+        <v>12946</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1.8094534214000001E-2</v>
+      </c>
+      <c r="G71">
+        <v>18424</v>
+      </c>
+      <c r="M71">
+        <v>12935</v>
+      </c>
+      <c r="P71">
+        <v>12944</v>
+      </c>
+      <c r="S71">
+        <v>12945</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1.8094532173E-2</v>
+      </c>
+      <c r="G72">
+        <v>18422</v>
+      </c>
+      <c r="M72">
+        <v>12929</v>
+      </c>
+      <c r="P72">
+        <v>12937</v>
+      </c>
+      <c r="S72">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1.8094518819999999E-2</v>
+      </c>
+      <c r="G73">
+        <v>18418</v>
+      </c>
+      <c r="M73">
+        <v>12926</v>
+      </c>
+      <c r="P73">
+        <v>12934</v>
+      </c>
+      <c r="S73">
+        <v>12939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>18409</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74">
+        <f>AVERAGE(I75:I94)</f>
+        <v>0.9</v>
+      </c>
+      <c r="M74">
+        <v>12924</v>
+      </c>
+      <c r="P74">
+        <v>12931</v>
+      </c>
+      <c r="S74">
+        <v>12935</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>12922</v>
+      </c>
+      <c r="P75">
+        <v>12930</v>
+      </c>
+      <c r="S75">
+        <v>12932</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>12918</v>
+      </c>
+      <c r="P76">
+        <v>12930</v>
+      </c>
+      <c r="S76">
+        <v>12931</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>12909</v>
+      </c>
+      <c r="P77">
+        <v>12920</v>
+      </c>
+      <c r="S77">
+        <v>12921</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>12918</v>
+      </c>
+      <c r="S78">
+        <v>12919</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <v>12916</v>
+      </c>
+      <c r="S79">
+        <v>12914</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>12916</v>
+      </c>
+      <c r="S80">
+        <v>12901</v>
+      </c>
+    </row>
+    <row r="81" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <v>12913</v>
+      </c>
+    </row>
+    <row r="82" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="s">
+        <v>18</v>
+      </c>
+      <c r="N82">
+        <f>SUM(K83:K102)</f>
+        <v>258938</v>
+      </c>
+    </row>
+    <row r="83" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>12989</v>
+      </c>
+    </row>
+    <row r="84" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>12988</v>
+      </c>
+    </row>
+    <row r="85" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>12978</v>
+      </c>
+    </row>
+    <row r="86" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>12967</v>
+      </c>
+    </row>
+    <row r="87" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>12966</v>
+      </c>
+    </row>
+    <row r="88" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>12962</v>
+      </c>
+    </row>
+    <row r="89" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>12961</v>
+      </c>
+    </row>
+    <row r="90" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>12955</v>
+      </c>
+    </row>
+    <row r="91" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>12953</v>
+      </c>
+    </row>
+    <row r="92" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>12952</v>
+      </c>
+    </row>
+    <row r="93" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="94" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="95" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>12938</v>
+      </c>
+    </row>
+    <row r="96" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>12920</v>
+      </c>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>12918</v>
+      </c>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>12917</v>
+      </c>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <v>12910</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/SurveyFiles/Log simulaciones PLC.xlsx
+++ b/trunk/SurveyFiles/Log simulaciones PLC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="16515" windowHeight="7755"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="16515" windowHeight="7755" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PLC" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Analisis por densidad" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="Hoja3" sheetId="6" r:id="rId5"/>
     <sheet name="Mesh Log" sheetId="7" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="71">
   <si>
     <t>PDR AMR</t>
   </si>
@@ -196,6 +197,42 @@
   </si>
   <si>
     <t>EED RTP</t>
+  </si>
+  <si>
+    <t>BEST CASE</t>
+  </si>
+  <si>
+    <t>PLd0</t>
+  </si>
+  <si>
+    <t>path loss exponent</t>
+  </si>
+  <si>
+    <t>d0</t>
+  </si>
+  <si>
+    <t>atenuación=</t>
+  </si>
+  <si>
+    <t>distancia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min </t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>dia y</t>
+  </si>
+  <si>
+    <t>minutos</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -385,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -727,12 +764,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1066,6 +1176,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1171,6 +1284,34 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="13" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="13" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2066,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -2149,7 +2290,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="140" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="104">
@@ -2212,7 +2353,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
+      <c r="A4" s="141"/>
       <c r="B4" s="110">
         <v>30</v>
       </c>
@@ -2276,7 +2417,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
+      <c r="A5" s="141"/>
       <c r="B5" s="110">
         <v>31</v>
       </c>
@@ -2336,7 +2477,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
+      <c r="A6" s="141"/>
       <c r="B6" s="110">
         <v>32</v>
       </c>
@@ -2396,7 +2537,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="141"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="116">
         <v>33</v>
       </c>
@@ -2456,7 +2597,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="145" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="66">
@@ -2522,7 +2663,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
+      <c r="A9" s="146"/>
       <c r="B9" s="21">
         <v>1</v>
       </c>
@@ -2582,7 +2723,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="145"/>
+      <c r="A10" s="146"/>
       <c r="B10" s="21">
         <v>3</v>
       </c>
@@ -2642,7 +2783,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="145"/>
+      <c r="A11" s="146"/>
       <c r="B11" s="21">
         <v>4</v>
       </c>
@@ -2702,7 +2843,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="146"/>
+      <c r="A12" s="147"/>
       <c r="B12" s="73">
         <v>2</v>
       </c>
@@ -2762,7 +2903,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="144" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="62">
@@ -2809,7 +2950,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="143"/>
+      <c r="A14" s="144"/>
       <c r="B14" s="41">
         <v>58</v>
       </c>
@@ -2845,7 +2986,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="143"/>
+      <c r="A15" s="144"/>
       <c r="B15" s="41">
         <v>59</v>
       </c>
@@ -2890,7 +3031,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="142" t="s">
+      <c r="A16" s="143" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="1">
@@ -2951,7 +3092,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="142"/>
+      <c r="A17" s="143"/>
       <c r="B17" s="1">
         <v>58</v>
       </c>
@@ -3010,7 +3151,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="142"/>
+      <c r="A18" s="143"/>
       <c r="B18" s="88">
         <v>59</v>
       </c>
@@ -3069,7 +3210,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="147" t="s">
+      <c r="A19" s="148" t="s">
         <v>45</v>
       </c>
       <c r="B19" s="95">
@@ -3134,7 +3275,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="148"/>
+      <c r="A20" s="149"/>
       <c r="B20" s="78">
         <v>43</v>
       </c>
@@ -3194,7 +3335,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="148"/>
+      <c r="A21" s="149"/>
       <c r="B21" s="78">
         <v>44</v>
       </c>
@@ -3254,7 +3395,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="148"/>
+      <c r="A22" s="149"/>
       <c r="B22" s="78">
         <v>70</v>
       </c>
@@ -3317,7 +3458,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="149"/>
+      <c r="A23" s="150"/>
       <c r="B23" s="101">
         <v>71</v>
       </c>
@@ -3385,7 +3526,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I25" s="135">
+      <c r="I25" s="136">
         <f>AVERAGE(Q3:Q7)</f>
         <v>4.0475999999999998E-2</v>
       </c>
@@ -3393,15 +3534,15 @@
         <f>250/60</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="M25" s="135">
+      <c r="M25" s="136">
         <f>AVERAGE(Q8:Q12)</f>
         <v>1.94452</v>
       </c>
-      <c r="O25" s="135">
+      <c r="O25" s="136">
         <f>AVERAGE(R8:R12)</f>
         <v>2.7314539999999998</v>
       </c>
-      <c r="Q25" s="135">
+      <c r="Q25" s="136">
         <f>AVERAGE(R19:R23)</f>
         <v>2.2416000000000002E-2</v>
       </c>
@@ -3410,7 +3551,7 @@
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B26" s="138">
+      <c r="B26" s="139">
         <v>450000</v>
       </c>
       <c r="C26">
@@ -3421,15 +3562,15 @@
         <f>80000</f>
         <v>80000</v>
       </c>
-      <c r="F26" s="132">
+      <c r="F26" s="133">
         <f>AVERAGE(J8:J12)</f>
         <v>0.28749999999999998</v>
       </c>
-      <c r="I26" s="135">
+      <c r="I26" s="136">
         <f>AVERAGE(S8:S12)</f>
         <v>2.4374E-2</v>
       </c>
-      <c r="K26" s="135">
+      <c r="K26" s="136">
         <f>AVERAGE(Q19:Q23)</f>
         <v>4.1916000000000002E-2</v>
       </c>
@@ -3453,7 +3594,7 @@
         <f>D26+4700000</f>
         <v>4780000</v>
       </c>
-      <c r="H27" s="135">
+      <c r="H27" s="136">
         <f>AVERAGE(R8:R12)</f>
         <v>2.7314539999999998</v>
       </c>
@@ -3467,7 +3608,7 @@
       <c r="M27" t="s">
         <v>18</v>
       </c>
-      <c r="N27" s="135">
+      <c r="N27" s="136">
         <f>AVERAGE(S3:S7)</f>
         <v>7.1779999999999995E-3</v>
       </c>
@@ -3490,7 +3631,7 @@
       <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="135">
+      <c r="H28" s="136">
         <f>AVERAGE(R3:R7)</f>
         <v>2.2406000000000002E-2</v>
       </c>
@@ -3500,7 +3641,7 @@
       <c r="M28">
         <v>18165</v>
       </c>
-      <c r="N28" s="135">
+      <c r="N28" s="136">
         <f>AVERAGE(S19:S23)</f>
         <v>2.9257999999999999E-2</v>
       </c>
@@ -4997,7 +5138,7 @@
       <c r="S2" s="50"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="146" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="21">
@@ -5041,7 +5182,7 @@
       <c r="S3" s="34"/>
     </row>
     <row r="4" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="146"/>
+      <c r="A4" s="147"/>
       <c r="B4" s="21">
         <v>0</v>
       </c>
@@ -5083,7 +5224,7 @@
       <c r="S4" s="14"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="144" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="41">
@@ -5127,7 +5268,7 @@
       <c r="S5" s="14"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="143"/>
+      <c r="A6" s="144"/>
       <c r="B6" s="41">
         <v>58</v>
       </c>
@@ -5160,7 +5301,7 @@
       <c r="S6" s="14"/>
     </row>
     <row r="7" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="143"/>
+      <c r="A7" s="144"/>
       <c r="B7" s="41">
         <v>59</v>
       </c>
@@ -5202,7 +5343,7 @@
       <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="151" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="35">
@@ -5246,7 +5387,7 @@
       <c r="S8" s="40"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="150"/>
+      <c r="A9" s="151"/>
       <c r="B9" s="2">
         <v>43</v>
       </c>
@@ -5288,7 +5429,7 @@
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="150"/>
+      <c r="A10" s="151"/>
       <c r="B10" s="35">
         <v>44</v>
       </c>
@@ -5392,84 +5533,84 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="X1" s="131" t="s">
+      <c r="X1" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="131"/>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="131"/>
-      <c r="AD1" s="131"/>
-      <c r="AE1" s="131"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="131"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="X2" s="131" t="s">
+      <c r="X2" s="132" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="131"/>
-      <c r="Z2" s="131"/>
-      <c r="AA2" s="131"/>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="131"/>
-      <c r="AG2" s="131"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="X3" s="131"/>
-      <c r="Y3" s="131"/>
-      <c r="Z3" s="131"/>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="131"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="131"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="132"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="132"/>
     </row>
     <row r="4" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="X4" s="131" t="s">
+      <c r="X4" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="131"/>
-      <c r="AE4" s="131"/>
-      <c r="AF4" s="131"/>
-      <c r="AG4" s="131"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
+      <c r="AG4" s="132"/>
     </row>
     <row r="5" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="52"/>
-      <c r="D5" s="153" t="s">
+      <c r="D5" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="154"/>
+      <c r="E5" s="155"/>
       <c r="L5" s="52"/>
-      <c r="M5" s="153" t="s">
+      <c r="M5" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="154"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="X5" s="131" t="s">
+      <c r="N5" s="155"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="X5" s="132" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="131"/>
-      <c r="AC5" s="131"/>
-      <c r="AD5" s="131"/>
-      <c r="AE5" s="131"/>
-      <c r="AF5" s="131"/>
-      <c r="AG5" s="131"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
+      <c r="AA5" s="132"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="132"/>
+      <c r="AD5" s="132"/>
+      <c r="AE5" s="132"/>
+      <c r="AF5" s="132"/>
+      <c r="AG5" s="132"/>
     </row>
     <row r="6" spans="2:33" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="53" t="s">
@@ -5490,55 +5631,55 @@
       <c r="N6" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
     </row>
     <row r="7" spans="2:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>300</v>
       </c>
-      <c r="D7" s="123">
+      <c r="D7" s="124">
         <f>C20</f>
         <v>0.28749999999999998</v>
       </c>
-      <c r="E7" s="125"/>
+      <c r="E7" s="126"/>
       <c r="L7" s="1">
         <v>300</v>
       </c>
-      <c r="M7" s="123">
+      <c r="M7" s="124">
         <f>M21</f>
         <v>0.21727711348482237</v>
       </c>
-      <c r="N7" s="125"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
+      <c r="N7" s="126"/>
+      <c r="R7" s="131"/>
+      <c r="S7" s="131"/>
       <c r="V7" s="52"/>
-      <c r="W7" s="153" t="s">
+      <c r="W7" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="154"/>
-      <c r="AB7" s="129"/>
-      <c r="AC7" s="129"/>
+      <c r="X7" s="155"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
     </row>
     <row r="8" spans="2:33" ht="21" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>600</v>
       </c>
-      <c r="D8" s="123">
+      <c r="D8" s="124">
         <f>C27</f>
         <v>0.51333333333333331</v>
       </c>
-      <c r="E8" s="126"/>
+      <c r="E8" s="127"/>
       <c r="L8" s="1">
         <v>600</v>
       </c>
-      <c r="M8" s="123">
+      <c r="M8" s="124">
         <f>M28</f>
         <v>0.45556390462788904</v>
       </c>
-      <c r="N8" s="126"/>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
+      <c r="N8" s="127"/>
+      <c r="R8" s="131"/>
+      <c r="S8" s="131"/>
       <c r="V8" s="53" t="s">
         <v>30</v>
       </c>
@@ -5548,361 +5689,361 @@
       <c r="X8" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="AB8" s="129"/>
-      <c r="AC8" s="129"/>
+      <c r="AB8" s="130"/>
+      <c r="AC8" s="130"/>
     </row>
     <row r="9" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <v>1800</v>
       </c>
-      <c r="D9" s="124">
+      <c r="D9" s="125">
         <f>C34</f>
         <v>0.51</v>
       </c>
-      <c r="E9" s="127"/>
+      <c r="E9" s="128"/>
       <c r="L9" s="5">
         <v>1800</v>
       </c>
-      <c r="M9" s="124">
+      <c r="M9" s="125">
         <f>M35</f>
         <v>0.45456256932373529</v>
       </c>
-      <c r="N9" s="127"/>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
+      <c r="N9" s="128"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
       <c r="V9" s="1">
         <v>300</v>
       </c>
-      <c r="W9" s="123">
+      <c r="W9" s="124">
         <f>W23</f>
         <v>0.4</v>
       </c>
-      <c r="X9" s="125"/>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="130"/>
+      <c r="X9" s="126"/>
+      <c r="AB9" s="131"/>
+      <c r="AC9" s="131"/>
     </row>
     <row r="10" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
+      <c r="R10" s="129"/>
+      <c r="S10" s="129"/>
       <c r="V10" s="1">
         <v>600</v>
       </c>
-      <c r="W10" s="123">
+      <c r="W10" s="124">
         <f>W30</f>
         <v>0.19</v>
       </c>
-      <c r="X10" s="126"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="130"/>
+      <c r="X10" s="127"/>
+      <c r="AB10" s="131"/>
+      <c r="AC10" s="131"/>
     </row>
     <row r="11" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="156"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
+      <c r="C11" s="157"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
       <c r="V11" s="5">
         <v>1800</v>
       </c>
-      <c r="W11" s="124">
+      <c r="W11" s="125">
         <f>W37</f>
         <v>0.32666666666666661</v>
       </c>
-      <c r="X11" s="127"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="AB11" s="129"/>
+      <c r="AC11" s="129"/>
     </row>
     <row r="12" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="157"/>
-      <c r="C12" s="158"/>
-      <c r="L12" s="155" t="s">
+      <c r="B12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="L12" s="156" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="156"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
+      <c r="M12" s="157"/>
+      <c r="R12" s="129"/>
+      <c r="S12" s="129"/>
+      <c r="AB12" s="129"/>
+      <c r="AC12" s="129"/>
     </row>
     <row r="13" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="159"/>
-      <c r="C13" s="160"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="158"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="161"/>
+      <c r="L13" s="158"/>
+      <c r="M13" s="159"/>
+      <c r="R13" s="129"/>
+      <c r="S13" s="129"/>
+      <c r="AB13" s="129"/>
+      <c r="AC13" s="129"/>
     </row>
     <row r="14" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="151">
+      <c r="B14" s="152">
         <v>300</v>
       </c>
-      <c r="C14" s="152"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="160"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="V14" s="155" t="s">
+      <c r="C14" s="153"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="161"/>
+      <c r="R14" s="129"/>
+      <c r="S14" s="129"/>
+      <c r="V14" s="156" t="s">
         <v>55</v>
       </c>
-      <c r="W14" s="156"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="128"/>
+      <c r="W14" s="157"/>
+      <c r="AB14" s="129"/>
+      <c r="AC14" s="129"/>
     </row>
     <row r="15" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="121">
+      <c r="C15" s="122">
         <f>PLC!J8</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="L15" s="151">
+      <c r="L15" s="152">
         <v>0.04</v>
       </c>
-      <c r="M15" s="152"/>
-      <c r="R15" s="130"/>
-      <c r="S15" s="130"/>
-      <c r="V15" s="157"/>
-      <c r="W15" s="158"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
+      <c r="M15" s="153"/>
+      <c r="R15" s="131"/>
+      <c r="S15" s="131"/>
+      <c r="V15" s="158"/>
+      <c r="W15" s="159"/>
+      <c r="AB15" s="129"/>
+      <c r="AC15" s="129"/>
     </row>
     <row r="16" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="121">
+      <c r="C16" s="122">
         <f>PLC!J9</f>
         <v>0.28749999999999998</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="121">
+      <c r="M16" s="122">
         <f>PLC!M8</f>
         <v>0.21765162951310449</v>
       </c>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="160"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
+      <c r="R16" s="129"/>
+      <c r="S16" s="129"/>
+      <c r="V16" s="160"/>
+      <c r="W16" s="161"/>
+      <c r="AB16" s="129"/>
+      <c r="AC16" s="129"/>
     </row>
     <row r="17" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="121">
+      <c r="C17" s="122">
         <f>PLC!J10</f>
         <v>0.26250000000000001</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="121">
+      <c r="M17" s="122">
         <f>PLC!M9</f>
         <v>0.21744174967976879</v>
       </c>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="V17" s="151" t="s">
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
+      <c r="V17" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="W17" s="152"/>
-      <c r="AB17" s="130"/>
-      <c r="AC17" s="130"/>
+      <c r="W17" s="153"/>
+      <c r="AB17" s="131"/>
+      <c r="AC17" s="131"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="121">
+      <c r="C18" s="122">
         <f>PLC!J11</f>
         <v>0.23749999999999999</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="121">
+      <c r="M18" s="122">
         <f>PLC!M10</f>
         <v>0.21724945376941449</v>
       </c>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
+      <c r="R18" s="129"/>
+      <c r="S18" s="129"/>
       <c r="V18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W18" s="121">
+      <c r="W18" s="122">
         <f>PLC!P8</f>
         <v>0.5</v>
       </c>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
+      <c r="AB18" s="129"/>
+      <c r="AC18" s="129"/>
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="121">
+      <c r="C19" s="122">
         <f>PLC!J12</f>
         <v>0.375</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="121">
+      <c r="M19" s="122">
         <f>PLC!M11</f>
         <v>0.21683386243386243</v>
       </c>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
       <c r="V19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W19" s="121">
+      <c r="W19" s="122">
         <f>PLC!P9</f>
         <v>0.5</v>
       </c>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
+      <c r="AB19" s="129"/>
+      <c r="AC19" s="129"/>
     </row>
     <row r="20" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="122">
+      <c r="C20" s="123">
         <f>AVERAGE(C15:C19)</f>
         <v>0.28749999999999998</v>
       </c>
       <c r="L20" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="121">
+      <c r="M20" s="122">
         <f>PLC!M12</f>
         <v>0.21720887202796166</v>
       </c>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
       <c r="V20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W20" s="121">
+      <c r="W20" s="122">
         <f>PLC!P10</f>
         <v>0.5</v>
       </c>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
+      <c r="AB20" s="129"/>
+      <c r="AC20" s="129"/>
     </row>
     <row r="21" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="151">
+      <c r="B21" s="152">
         <v>600</v>
       </c>
-      <c r="C21" s="152"/>
+      <c r="C21" s="153"/>
       <c r="L21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M21" s="122">
+      <c r="M21" s="123">
         <f>AVERAGE(M16:M20)</f>
         <v>0.21727711348482237</v>
       </c>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="129"/>
       <c r="V21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="W21" s="121">
+      <c r="W21" s="122">
         <f>PLC!P11</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
+      <c r="AB21" s="129"/>
+      <c r="AC21" s="129"/>
     </row>
     <row r="22" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="121">
+      <c r="C22" s="122">
         <f>PLC!J3</f>
         <v>0.6333333333333333</v>
       </c>
-      <c r="L22" s="151" t="s">
+      <c r="L22" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="152"/>
-      <c r="R22" s="130"/>
-      <c r="S22" s="130"/>
+      <c r="M22" s="153"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
       <c r="V22" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="W22" s="121">
+      <c r="W22" s="122">
         <f>PLC!P12</f>
         <v>0.5</v>
       </c>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
+      <c r="AB22" s="129"/>
+      <c r="AC22" s="129"/>
     </row>
     <row r="23" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="121">
+      <c r="C23" s="122">
         <f>PLC!J4</f>
         <v>0.4</v>
       </c>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="162"/>
       <c r="L23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M23" s="121">
+      <c r="M23" s="122">
         <f>PLC!M3</f>
         <v>0.46088121510698593</v>
       </c>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
       <c r="V23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W23" s="122">
+      <c r="W23" s="123">
         <f>AVERAGE(W18:W22)</f>
         <v>0.4</v>
       </c>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
+      <c r="AB23" s="129"/>
+      <c r="AC23" s="129"/>
     </row>
     <row r="24" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="121">
+      <c r="C24" s="122">
         <f>PLC!J5</f>
         <v>0.51666666666666672</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M24" s="121">
+      <c r="M24" s="122">
         <f>PLC!M4</f>
         <v>0.45427548628515602</v>
       </c>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="V24" s="151" t="s">
+      <c r="R24" s="129"/>
+      <c r="S24" s="129"/>
+      <c r="V24" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="W24" s="152"/>
-      <c r="AB24" s="130"/>
-      <c r="AC24" s="130"/>
+      <c r="W24" s="153"/>
+      <c r="AB24" s="131"/>
+      <c r="AC24" s="131"/>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="121">
+      <c r="C25" s="122">
         <f>PLC!J6</f>
         <v>0.58333333333333337</v>
       </c>
@@ -5910,315 +6051,315 @@
       <c r="L25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="121">
+      <c r="M25" s="122">
         <f>PLC!M5</f>
         <v>0.45470204302321093</v>
       </c>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="129"/>
       <c r="V25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W25" s="121">
+      <c r="W25" s="122">
         <f>PLC!P3</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
+      <c r="AB25" s="129"/>
+      <c r="AC25" s="129"/>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="121">
+      <c r="C26" s="122">
         <f>PLC!J7</f>
         <v>0.43333333333333335</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="121">
+      <c r="M26" s="122">
         <f>PLC!M6</f>
         <v>0.45432322842247536</v>
       </c>
-      <c r="R26" s="128"/>
-      <c r="S26" s="128"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
       <c r="V26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W26" s="121">
+      <c r="W26" s="122">
         <f>PLC!P4</f>
         <v>0.5</v>
       </c>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
+      <c r="AB26" s="129"/>
+      <c r="AC26" s="129"/>
     </row>
     <row r="27" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="122">
+      <c r="C27" s="123">
         <f>AVERAGE(C22:C26)</f>
         <v>0.51333333333333331</v>
       </c>
       <c r="L27" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="121">
+      <c r="M27" s="122">
         <f>PLC!M7</f>
         <v>0.45363755030161662</v>
       </c>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
+      <c r="R27" s="129"/>
+      <c r="S27" s="129"/>
       <c r="V27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W27" s="121">
+      <c r="W27" s="122">
         <f>PLC!P5</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
+      <c r="AB27" s="129"/>
+      <c r="AC27" s="129"/>
     </row>
     <row r="28" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="151">
+      <c r="B28" s="152">
         <v>1800</v>
       </c>
-      <c r="C28" s="152"/>
+      <c r="C28" s="153"/>
       <c r="L28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M28" s="122">
+      <c r="M28" s="123">
         <f>AVERAGE(M23:M27)</f>
         <v>0.45556390462788904</v>
       </c>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
+      <c r="R28" s="129"/>
+      <c r="S28" s="129"/>
       <c r="V28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="W28" s="121">
+      <c r="W28" s="122">
         <f>PLC!P6</f>
         <v>0.45</v>
       </c>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
+      <c r="AB28" s="129"/>
+      <c r="AC28" s="129"/>
     </row>
     <row r="29" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="121">
+      <c r="C29" s="122">
         <f>PLC!J19</f>
         <v>0.5</v>
       </c>
-      <c r="L29" s="151" t="s">
+      <c r="L29" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="M29" s="152"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
+      <c r="M29" s="153"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
       <c r="V29" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="W29" s="121">
+      <c r="W29" s="122">
         <f>PLC!P7</f>
         <v>0</v>
       </c>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
+      <c r="AB29" s="129"/>
+      <c r="AC29" s="129"/>
     </row>
     <row r="30" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="121">
+      <c r="C30" s="122">
         <f>PLC!J20</f>
         <v>0.5</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M30" s="121">
+      <c r="M30" s="122">
         <f>PLC!M19</f>
         <v>0.45470350155529782</v>
       </c>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
+      <c r="R30" s="129"/>
+      <c r="S30" s="129"/>
       <c r="V30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W30" s="122">
+      <c r="W30" s="123">
         <f>AVERAGE(W25:W29)</f>
         <v>0.19</v>
       </c>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
+      <c r="AB30" s="129"/>
+      <c r="AC30" s="129"/>
     </row>
     <row r="31" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="121">
+      <c r="C31" s="122">
         <f>PLC!J21</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M31" s="121">
+      <c r="M31" s="122">
         <f>PLC!M20</f>
         <v>0.45476795147349391</v>
       </c>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="V31" s="151" t="s">
+      <c r="R31" s="129"/>
+      <c r="S31" s="129"/>
+      <c r="V31" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="W31" s="152"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
+      <c r="W31" s="153"/>
+      <c r="AB31" s="129"/>
+      <c r="AC31" s="129"/>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="121">
+      <c r="C32" s="122">
         <f>PLC!J22</f>
         <v>0.5</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="121">
+      <c r="M32" s="122">
         <f>PLC!M21</f>
         <v>0.45428672105819534</v>
       </c>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
+      <c r="R32" s="129"/>
+      <c r="S32" s="129"/>
       <c r="V32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W32" s="121">
+      <c r="W32" s="122">
         <f>PLC!P19</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
+      <c r="AB32" s="129"/>
+      <c r="AC32" s="129"/>
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="121">
+      <c r="C33" s="122">
         <f>PLC!J23</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M33" s="121">
+      <c r="M33" s="122">
         <f>PLC!M22</f>
         <v>0.45476795147349391</v>
       </c>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
       <c r="V33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="W33" s="121">
+      <c r="W33" s="122">
         <f>PLC!P20</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
+      <c r="AB33" s="129"/>
+      <c r="AC33" s="129"/>
     </row>
     <row r="34" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="122">
+      <c r="C34" s="123">
         <f>AVERAGE(C29:C33)</f>
         <v>0.51</v>
       </c>
       <c r="L34" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="M34" s="121">
+      <c r="M34" s="122">
         <f>PLC!M23</f>
         <v>0.45428672105819534</v>
       </c>
-      <c r="R34" s="128"/>
-      <c r="S34" s="128"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="129"/>
       <c r="V34" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="W34" s="121">
+      <c r="W34" s="122">
         <f>PLC!P21</f>
         <v>0.3</v>
       </c>
-      <c r="AB34" s="128"/>
-      <c r="AC34" s="128"/>
+      <c r="AB34" s="129"/>
+      <c r="AC34" s="129"/>
     </row>
     <row r="35" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M35" s="122">
+      <c r="M35" s="123">
         <f>AVERAGE(M30:M34)</f>
         <v>0.45456256932373529</v>
       </c>
-      <c r="R35" s="128"/>
-      <c r="S35" s="128"/>
+      <c r="R35" s="129"/>
+      <c r="S35" s="129"/>
       <c r="V35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="W35" s="121">
+      <c r="W35" s="122">
         <f>PLC!P22</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AB35" s="128"/>
-      <c r="AC35" s="128"/>
+      <c r="AB35" s="129"/>
+      <c r="AC35" s="129"/>
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="V36" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="W36" s="121">
+      <c r="W36" s="122">
         <f>PLC!P23</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AB36" s="128"/>
-      <c r="AC36" s="128"/>
+      <c r="AB36" s="129"/>
+      <c r="AC36" s="129"/>
     </row>
     <row r="37" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="W37" s="122">
+      <c r="W37" s="123">
         <f>AVERAGE(W32:W36)</f>
         <v>0.32666666666666661</v>
       </c>
-      <c r="AB37" s="128"/>
-      <c r="AC37" s="128"/>
+      <c r="AB37" s="129"/>
+      <c r="AC37" s="129"/>
     </row>
     <row r="38" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B39" s="52"/>
-      <c r="C39" s="153" t="s">
+      <c r="C39" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="154"/>
+      <c r="D39" s="155"/>
       <c r="F39" s="52"/>
-      <c r="G39" s="153" t="s">
+      <c r="G39" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="154"/>
+      <c r="H39" s="155"/>
       <c r="J39" s="52"/>
-      <c r="K39" s="153" t="s">
+      <c r="K39" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="L39" s="154"/>
+      <c r="L39" s="155"/>
     </row>
     <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40" s="53" t="s">
@@ -6253,70 +6394,70 @@
       <c r="B41" s="1">
         <v>300</v>
       </c>
-      <c r="C41" s="136">
+      <c r="C41" s="137">
         <v>1.9444999999999999</v>
       </c>
-      <c r="D41" s="133"/>
+      <c r="D41" s="134"/>
       <c r="F41" s="1">
         <v>0.04</v>
       </c>
-      <c r="G41" s="136">
+      <c r="G41" s="137">
         <v>2.7313999999999998</v>
       </c>
-      <c r="H41" s="133"/>
+      <c r="H41" s="134"/>
       <c r="J41" s="1">
         <v>900</v>
       </c>
-      <c r="K41" s="136">
+      <c r="K41" s="137">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="L41" s="133"/>
+      <c r="L41" s="134"/>
     </row>
     <row r="42" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>600</v>
       </c>
-      <c r="C42" s="136">
+      <c r="C42" s="137">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="D42" s="133"/>
+      <c r="D42" s="134"/>
       <c r="F42" s="1">
         <v>0.1</v>
       </c>
-      <c r="G42" s="136">
+      <c r="G42" s="137">
         <v>2.24E-2</v>
       </c>
-      <c r="H42" s="133"/>
+      <c r="H42" s="134"/>
       <c r="J42" s="1">
         <v>900</v>
       </c>
-      <c r="K42" s="136">
+      <c r="K42" s="137">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="L42" s="133"/>
+      <c r="L42" s="134"/>
     </row>
     <row r="43" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>1800</v>
       </c>
-      <c r="C43" s="137">
+      <c r="C43" s="138">
         <v>4.19E-2</v>
       </c>
-      <c r="D43" s="134"/>
+      <c r="D43" s="135"/>
       <c r="F43" s="5">
         <v>0.1</v>
       </c>
-      <c r="G43" s="137">
+      <c r="G43" s="138">
         <v>2.24E-2</v>
       </c>
-      <c r="H43" s="134"/>
+      <c r="H43" s="135"/>
       <c r="J43" s="5">
         <v>900</v>
       </c>
-      <c r="K43" s="137">
+      <c r="K43" s="138">
         <v>2.92E-2</v>
       </c>
-      <c r="L43" s="134"/>
+      <c r="L43" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -6362,17 +6503,17 @@
     <row r="2" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C3" s="52"/>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="165"/>
+      <c r="E3" s="166"/>
     </row>
     <row r="4" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="163"/>
+      <c r="E4" s="164"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
@@ -6562,10 +6703,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6646,7 +6787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="120" t="s">
         <v>44</v>
       </c>
@@ -6654,7 +6795,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="105" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D3" s="105">
         <v>1300</v>
@@ -6668,56 +6809,37 @@
       <c r="G3" s="105">
         <v>900</v>
       </c>
-      <c r="H3" s="105">
-        <f>3*20</f>
-        <v>60</v>
-      </c>
-      <c r="I3" s="105">
-        <v>38</v>
-      </c>
-      <c r="J3" s="106">
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="106" t="e">
         <f>I3/H3</f>
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="K3" s="105">
-        <v>259006</v>
-      </c>
-      <c r="L3" s="105">
-        <v>119371</v>
-      </c>
-      <c r="M3" s="107">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="107" t="e">
         <f>L3/K3</f>
-        <v>0.46088121510698593</v>
-      </c>
-      <c r="N3" s="105">
-        <v>2</v>
-      </c>
-      <c r="O3" s="105">
-        <v>0</v>
-      </c>
-      <c r="P3" s="106">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="106" t="e">
         <f>O3/N3</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="108">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="R3" s="108">
-        <v>2.223E-2</v>
-      </c>
-      <c r="S3" s="109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="109"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="121" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="66">
         <v>0</v>
       </c>
       <c r="C4" s="67" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D4" s="67">
         <v>950</v>
@@ -6731,2406 +6853,3637 @@
       <c r="G4" s="67">
         <v>900</v>
       </c>
-      <c r="H4" s="67">
-        <f>4*20</f>
-        <v>80</v>
-      </c>
-      <c r="I4" s="67">
-        <v>22</v>
-      </c>
-      <c r="J4" s="68">
-        <f t="shared" ref="J4:J14" si="0">I4/H4</f>
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="K4" s="67">
-        <v>472319</v>
-      </c>
-      <c r="L4" s="67">
-        <v>102801</v>
-      </c>
-      <c r="M4" s="68">
-        <f t="shared" ref="M4:M19" si="1">L4/K4</f>
-        <v>0.21765162951310449</v>
-      </c>
-      <c r="N4" s="67">
-        <v>2</v>
-      </c>
-      <c r="O4" s="67">
-        <v>1</v>
-      </c>
-      <c r="P4" s="68">
-        <f t="shared" ref="P4:P19" si="2">O4/N4</f>
-        <v>0.5</v>
-      </c>
-      <c r="Q4" s="69">
-        <v>1.9012</v>
-      </c>
-      <c r="R4" s="70">
-        <v>2.70797</v>
-      </c>
-      <c r="S4" s="71">
-        <v>1.8370000000000001E-2</v>
-      </c>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68" t="e">
+        <f t="shared" ref="J4:J10" si="0">I4/H4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="68" t="e">
+        <f t="shared" ref="M4:M11" si="1">L4/K4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="68" t="e">
+        <f t="shared" ref="P4:P11" si="2">O4/N4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="71"/>
       <c r="V4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="145"/>
-      <c r="B5" s="21">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19" t="s">
+    <row r="5" spans="1:22" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="62">
+        <v>57</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19">
-        <v>950</v>
-      </c>
-      <c r="E5" s="19">
-        <v>300</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="G5" s="19">
-        <v>900</v>
-      </c>
-      <c r="H5" s="19">
-        <v>80</v>
-      </c>
-      <c r="I5" s="19">
-        <v>23</v>
-      </c>
-      <c r="J5" s="22">
-        <f t="shared" si="0"/>
-        <v>0.28749999999999998</v>
-      </c>
-      <c r="K5" s="19">
-        <v>472315</v>
-      </c>
-      <c r="L5" s="19">
-        <v>102701</v>
-      </c>
-      <c r="M5" s="22">
-        <f t="shared" si="1"/>
-        <v>0.21744174967976879</v>
-      </c>
-      <c r="N5" s="19">
-        <v>2</v>
-      </c>
-      <c r="O5" s="19">
-        <v>1</v>
-      </c>
-      <c r="P5" s="22">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="34">
-        <v>1.9094</v>
-      </c>
-      <c r="R5" s="34">
-        <v>2.6869000000000001</v>
-      </c>
-      <c r="S5" s="72">
-        <v>1.83E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="145"/>
-      <c r="B6" s="21">
-        <v>3</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="19">
-        <v>950</v>
-      </c>
-      <c r="E6" s="19">
-        <v>300</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="G6" s="19">
-        <v>900</v>
-      </c>
-      <c r="H6" s="19">
-        <v>80</v>
-      </c>
-      <c r="I6" s="19">
-        <v>21</v>
-      </c>
-      <c r="J6" s="22">
-        <f t="shared" si="0"/>
-        <v>0.26250000000000001</v>
-      </c>
-      <c r="K6" s="19">
-        <v>472328</v>
-      </c>
-      <c r="L6" s="19">
-        <v>102613</v>
-      </c>
-      <c r="M6" s="22">
-        <f t="shared" si="1"/>
-        <v>0.21724945376941449</v>
-      </c>
-      <c r="N6" s="19">
-        <v>2</v>
-      </c>
-      <c r="O6" s="19">
-        <v>1</v>
-      </c>
-      <c r="P6" s="22">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="34">
-        <v>1.9399</v>
-      </c>
-      <c r="R6" s="34">
-        <v>2.6638000000000002</v>
-      </c>
-      <c r="S6" s="72">
-        <v>4.99E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
-      <c r="B7" s="21">
-        <v>4</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="19">
-        <v>950</v>
-      </c>
-      <c r="E7" s="19">
-        <v>300</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="G7" s="19">
-        <v>900</v>
-      </c>
-      <c r="H7" s="19">
-        <v>80</v>
-      </c>
-      <c r="I7" s="19">
-        <v>19</v>
-      </c>
-      <c r="J7" s="22">
-        <f t="shared" si="0"/>
-        <v>0.23749999999999999</v>
-      </c>
-      <c r="K7" s="19">
-        <v>472500</v>
-      </c>
-      <c r="L7" s="19">
-        <v>102454</v>
-      </c>
-      <c r="M7" s="22">
-        <f t="shared" si="1"/>
-        <v>0.21683386243386243</v>
-      </c>
-      <c r="N7" s="19">
-        <v>2</v>
-      </c>
-      <c r="O7" s="19">
-        <v>0</v>
-      </c>
-      <c r="P7" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="34">
-        <v>2.1547000000000001</v>
-      </c>
-      <c r="R7" s="34">
-        <v>2.7778</v>
-      </c>
-      <c r="S7" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="146"/>
-      <c r="B8" s="73">
-        <v>2</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="74">
-        <v>950</v>
-      </c>
-      <c r="E8" s="74">
-        <v>300</v>
-      </c>
-      <c r="F8" s="74">
-        <v>0.04</v>
-      </c>
-      <c r="G8" s="74">
-        <v>900</v>
-      </c>
-      <c r="H8" s="74">
-        <v>80</v>
-      </c>
-      <c r="I8" s="74">
-        <v>30</v>
-      </c>
-      <c r="J8" s="75">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="K8" s="74">
-        <v>472361</v>
-      </c>
-      <c r="L8" s="74">
-        <v>102601</v>
-      </c>
-      <c r="M8" s="75">
-        <f t="shared" si="1"/>
-        <v>0.21720887202796166</v>
-      </c>
-      <c r="N8" s="74">
-        <v>2</v>
-      </c>
-      <c r="O8" s="74">
-        <v>1</v>
-      </c>
-      <c r="P8" s="75">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="Q8" s="76">
-        <v>1.8173999999999999</v>
-      </c>
-      <c r="R8" s="76">
-        <v>2.8208000000000002</v>
-      </c>
-      <c r="S8" s="77">
-        <v>3.5299999999999998E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="143" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="62">
-        <v>57</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="63">
+      <c r="D5" s="63">
         <v>4000</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E5" s="63">
         <v>3600</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F5" s="63">
         <v>0.1</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G5" s="63">
         <v>3600</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64" t="e">
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="64" t="e">
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="64" t="e">
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="64" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="167"/>
+      <c r="V5">
+        <v>1.8377415779000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="144"/>
+      <c r="B6" s="41">
+        <v>58</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="42">
+        <v>400</v>
+      </c>
+      <c r="E6" s="42">
+        <v>3600</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="42">
+        <v>3600</v>
+      </c>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="168"/>
+      <c r="V6">
+        <v>1.8377486969E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="144"/>
+      <c r="B7" s="41">
+        <v>59</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="42">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="42">
+        <v>3600</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="42">
+        <v>3600</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43" t="e">
+        <f>I7/H7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="168"/>
+      <c r="V7">
+        <v>1.8377447735E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="20">
+        <v>7500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="10"/>
+      <c r="V8">
+        <v>1.8377469962000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="143"/>
+      <c r="B9" s="1">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="10"/>
       <c r="V9">
-        <v>1.8377415779000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.8377466778E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="143"/>
-      <c r="B10" s="41">
-        <v>58</v>
-      </c>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="88">
+        <v>59</v>
+      </c>
+      <c r="C10" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="42">
-        <v>400</v>
-      </c>
-      <c r="E10" s="42">
+      <c r="D10" s="89">
+        <v>7500</v>
+      </c>
+      <c r="E10" s="89">
         <v>3600</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="89">
+        <v>1500</v>
+      </c>
+      <c r="G10" s="89">
+        <v>3600</v>
+      </c>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="90" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="91" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="92" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="94"/>
+      <c r="V10">
+        <v>1.8377459259000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="169" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="170">
+        <v>42</v>
+      </c>
+      <c r="C11" s="171" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="171">
+        <v>1850</v>
+      </c>
+      <c r="E11" s="171">
+        <v>1800</v>
+      </c>
+      <c r="F11" s="171">
         <v>0.1</v>
       </c>
-      <c r="G10" s="42">
-        <v>3600</v>
-      </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="V10">
-        <v>1.8377486969E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="143"/>
-      <c r="B11" s="41">
-        <v>59</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="42">
-        <v>4000</v>
-      </c>
-      <c r="E11" s="42">
-        <v>3600</v>
-      </c>
-      <c r="F11" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="42">
-        <v>3600</v>
-      </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43" t="e">
+      <c r="G11" s="171">
+        <v>900</v>
+      </c>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="172" t="e">
         <f>I11/H11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43" t="e">
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="173" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="43" t="e">
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="172" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="Q11" s="174"/>
+      <c r="R11" s="174"/>
+      <c r="S11" s="175"/>
       <c r="V11">
-        <v>1.8377447735E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1">
-        <v>57</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="20">
-        <v>7500</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H12" s="3">
-        <f>3*20</f>
-        <v>60</v>
-      </c>
-      <c r="I12" s="3">
-        <v>52</v>
-      </c>
-      <c r="J12" s="23">
-        <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="K12" s="3">
-        <f>5*20</f>
-        <v>100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>98</v>
-      </c>
-      <c r="M12" s="27">
-        <f t="shared" si="1"/>
-        <v>0.98</v>
-      </c>
-      <c r="N12" s="3">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3">
-        <v>3</v>
-      </c>
-      <c r="P12" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="10"/>
+        <v>1.8377436931999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="V12">
-        <v>1.8377469962000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="142"/>
-      <c r="B13" s="1">
-        <v>58</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3">
-        <v>7500</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G13" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H13" s="3">
-        <f>3*20</f>
-        <v>60</v>
-      </c>
-      <c r="I13" s="3">
-        <v>55</v>
-      </c>
-      <c r="J13" s="23">
-        <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="K13" s="3">
-        <f>5*20</f>
-        <v>100</v>
-      </c>
-      <c r="L13" s="3">
-        <v>99</v>
-      </c>
-      <c r="M13" s="27">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
-      </c>
-      <c r="N13" s="3">
-        <v>3</v>
-      </c>
-      <c r="O13" s="3">
-        <v>3</v>
-      </c>
-      <c r="P13" s="30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="10"/>
-      <c r="V13">
-        <v>1.8377466778E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="142"/>
-      <c r="B14" s="88">
-        <v>59</v>
-      </c>
-      <c r="C14" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="89">
-        <v>7500</v>
-      </c>
-      <c r="E14" s="89">
-        <v>3600</v>
-      </c>
-      <c r="F14" s="89">
-        <v>1500</v>
-      </c>
-      <c r="G14" s="89">
-        <v>3600</v>
-      </c>
-      <c r="H14" s="89">
-        <f>3*20</f>
-        <v>60</v>
-      </c>
-      <c r="I14" s="89">
-        <v>60</v>
-      </c>
-      <c r="J14" s="90">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K14" s="89">
-        <f>5*20</f>
-        <v>100</v>
-      </c>
-      <c r="L14" s="89">
-        <v>98</v>
-      </c>
-      <c r="M14" s="91">
-        <f t="shared" si="1"/>
-        <v>0.98</v>
-      </c>
-      <c r="N14" s="89">
-        <v>3</v>
-      </c>
-      <c r="O14" s="89">
-        <v>3</v>
-      </c>
-      <c r="P14" s="92">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="94"/>
-      <c r="V14">
-        <v>1.8377459259000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="147" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="95">
-        <v>42</v>
-      </c>
-      <c r="C15" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="96">
-        <v>1850</v>
-      </c>
-      <c r="E15" s="96">
-        <v>1800</v>
-      </c>
-      <c r="F15" s="96">
-        <v>0.1</v>
-      </c>
-      <c r="G15" s="96">
-        <v>900</v>
-      </c>
-      <c r="H15" s="96">
-        <v>40</v>
-      </c>
-      <c r="I15" s="96">
-        <v>20</v>
-      </c>
-      <c r="J15" s="97">
-        <f>I15/H15</f>
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="96">
-        <v>362953</v>
-      </c>
-      <c r="L15" s="96">
-        <v>165036</v>
-      </c>
-      <c r="M15" s="98">
-        <f t="shared" si="1"/>
-        <v>0.45470350155529782</v>
-      </c>
-      <c r="N15" s="96">
-        <v>3</v>
-      </c>
-      <c r="O15" s="96">
-        <v>1</v>
-      </c>
-      <c r="P15" s="97">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q15" s="99">
-        <v>4.8379999999999999E-2</v>
-      </c>
-      <c r="R15" s="99">
-        <v>2.24E-2</v>
-      </c>
-      <c r="S15" s="100">
-        <v>1.8089999999999998E-2</v>
-      </c>
-      <c r="V15">
-        <v>1.8377436931999998E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="148"/>
-      <c r="B16" s="78">
-        <v>43</v>
-      </c>
-      <c r="C16" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="79">
-        <v>1850</v>
-      </c>
-      <c r="E16" s="79">
-        <v>1800</v>
-      </c>
-      <c r="F16" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="G16" s="79">
-        <v>900</v>
-      </c>
-      <c r="H16" s="79">
-        <v>40</v>
-      </c>
-      <c r="I16" s="79">
-        <v>20</v>
-      </c>
-      <c r="J16" s="80">
-        <f t="shared" ref="J16:J17" si="3">I16/H16</f>
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="79">
-        <v>368953</v>
-      </c>
-      <c r="L16" s="79">
-        <v>167788</v>
-      </c>
-      <c r="M16" s="81">
-        <f t="shared" si="1"/>
-        <v>0.45476795147349391</v>
-      </c>
-      <c r="N16" s="79">
-        <v>3</v>
-      </c>
-      <c r="O16" s="79">
-        <v>1</v>
-      </c>
-      <c r="P16" s="80">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q16" s="84">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="R16" s="82">
-        <v>2.24E-2</v>
-      </c>
-      <c r="S16" s="83">
-        <v>1.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="148"/>
-      <c r="B17" s="78">
-        <v>44</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="79">
-        <v>1850</v>
-      </c>
-      <c r="E17" s="79">
-        <v>1800</v>
-      </c>
-      <c r="F17" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="79">
-        <v>900</v>
-      </c>
-      <c r="H17" s="79">
-        <v>40</v>
-      </c>
-      <c r="I17" s="79">
-        <v>21</v>
-      </c>
-      <c r="J17" s="80">
-        <f t="shared" si="3"/>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="K17" s="79">
-        <v>368930</v>
-      </c>
-      <c r="L17" s="79">
-        <v>167600</v>
-      </c>
-      <c r="M17" s="81">
-        <f t="shared" si="1"/>
-        <v>0.45428672105819534</v>
-      </c>
-      <c r="N17" s="79">
-        <v>3</v>
-      </c>
-      <c r="O17" s="79">
-        <v>0.9</v>
-      </c>
-      <c r="P17" s="80">
-        <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q17" s="84">
-        <v>3.2300000000000002E-2</v>
-      </c>
-      <c r="R17" s="82">
-        <v>2.248E-2</v>
-      </c>
-      <c r="S17" s="83">
-        <v>4.3700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="148"/>
-      <c r="B18" s="78">
-        <v>70</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="79">
-        <v>1850</v>
-      </c>
-      <c r="E18" s="79">
-        <v>1800</v>
-      </c>
-      <c r="F18" s="79">
-        <v>0.1</v>
-      </c>
-      <c r="G18" s="79">
-        <v>900</v>
-      </c>
-      <c r="H18" s="79">
-        <v>40</v>
-      </c>
-      <c r="I18" s="79">
-        <v>20</v>
-      </c>
-      <c r="J18" s="80">
-        <f>I18/H18</f>
-        <v>0.5</v>
-      </c>
-      <c r="K18" s="79">
-        <v>368953</v>
-      </c>
-      <c r="L18" s="79">
-        <v>167788</v>
-      </c>
-      <c r="M18" s="81">
-        <f t="shared" si="1"/>
-        <v>0.45476795147349391</v>
-      </c>
-      <c r="N18" s="79">
-        <v>3</v>
-      </c>
-      <c r="O18" s="79">
-        <v>1</v>
-      </c>
-      <c r="P18" s="80">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q18" s="82">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="R18" s="82">
-        <v>2.24E-2</v>
-      </c>
-      <c r="S18" s="83">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="V18">
-        <v>1.8377446012999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="149"/>
-      <c r="B19" s="101">
-        <v>71</v>
-      </c>
-      <c r="C19" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="85">
-        <v>1850</v>
-      </c>
-      <c r="E19" s="85">
-        <v>1800</v>
-      </c>
-      <c r="F19" s="85">
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="85">
-        <v>900</v>
-      </c>
-      <c r="H19" s="85">
-        <v>40</v>
-      </c>
-      <c r="I19" s="85">
-        <v>21</v>
-      </c>
-      <c r="J19" s="102">
-        <f>I19/H19</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="K19" s="85">
-        <v>368930</v>
-      </c>
-      <c r="L19" s="85">
-        <v>167600</v>
-      </c>
-      <c r="M19" s="103">
-        <f t="shared" si="1"/>
-        <v>0.45428672105819534</v>
-      </c>
-      <c r="N19" s="85">
-        <v>3</v>
-      </c>
-      <c r="O19" s="85">
-        <v>1</v>
-      </c>
-      <c r="P19" s="102">
-        <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q19" s="86">
-        <v>3.2300000000000002E-2</v>
-      </c>
-      <c r="R19" s="86">
-        <v>2.24E-2</v>
-      </c>
-      <c r="S19" s="87">
-        <v>4.8500000000000001E-2</v>
-      </c>
-      <c r="V19">
-        <v>1.8377415083E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V20">
         <v>1.8377455434E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I21" s="135">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I13" s="136" t="e">
         <f>AVERAGE(Q3:Q3)</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="K21">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13">
         <f>250/60</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="M21" s="135">
-        <f>AVERAGE(Q4:Q8)</f>
-        <v>1.94452</v>
-      </c>
-      <c r="O21" s="135">
-        <f>AVERAGE(R4:R8)</f>
-        <v>2.7314539999999998</v>
-      </c>
-      <c r="Q21" s="135">
-        <f>AVERAGE(R15:R19)</f>
-        <v>2.2416000000000002E-2</v>
-      </c>
-      <c r="V21">
+      <c r="M13" s="136" t="e">
+        <f>AVERAGE(Q4:Q4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="136" t="e">
+        <f>AVERAGE(R4:R4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="136" t="e">
+        <f>AVERAGE(R11:R11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13">
         <v>1.8377440200000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B22" s="138">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="139">
         <v>450000</v>
       </c>
-      <c r="C22">
-        <f>B24-700000</f>
+      <c r="C14">
+        <f>B16-700000</f>
         <v>280000</v>
       </c>
-      <c r="D22">
+      <c r="D14">
         <f>80000</f>
         <v>80000</v>
       </c>
-      <c r="F22" s="132">
-        <f>AVERAGE(J4:J8)</f>
-        <v>0.28749999999999998</v>
-      </c>
-      <c r="I22" s="135">
-        <f>AVERAGE(S4:S8)</f>
-        <v>2.4374E-2</v>
-      </c>
-      <c r="K22" s="135">
-        <f>AVERAGE(Q15:Q19)</f>
-        <v>4.1916000000000002E-2</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="F14" s="133" t="e">
+        <f>AVERAGE(J4:J4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" s="136" t="e">
+        <f>AVERAGE(S4:S4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="136" t="e">
+        <f>AVERAGE(Q11:Q11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" t="s">
         <v>18</v>
       </c>
+      <c r="T14">
+        <f>AVERAGE(R15:R44)</f>
+        <v>1.8094548745599997E-2</v>
+      </c>
+      <c r="V14">
+        <v>1.8377468394E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>B14+450000</f>
+        <v>900000</v>
+      </c>
+      <c r="D15">
+        <f>D14+4700000</f>
+        <v>4780000</v>
+      </c>
+      <c r="H15" s="136" t="e">
+        <f>AVERAGE(R4:R4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15">
+        <f>K13*5</f>
+        <v>20.833333333333336</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="136" t="e">
+        <f>AVERAGE(S3:S3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15">
+        <f>SUM(M16:M35)</f>
+        <v>18165</v>
+      </c>
+      <c r="V15">
+        <v>1.8377416337000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <f>B15+80000</f>
+        <v>980000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="136" t="e">
+        <f>AVERAGE(R3:R3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16">
+        <v>1.8094541658E-2</v>
+      </c>
+      <c r="M16">
+        <v>18165</v>
+      </c>
+      <c r="N16" s="136" t="e">
+        <f>AVERAGE(S11:S11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16">
+        <f>SUM(T19:T38)</f>
+        <v>368953</v>
+      </c>
+      <c r="V16">
+        <v>1.8377437404999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>23545</v>
+      </c>
+      <c r="C17">
+        <f>SUM(A17:A36)</f>
+        <v>472315</v>
+      </c>
+      <c r="D17">
+        <v>1.9650456230667E-2</v>
+      </c>
+      <c r="H17">
+        <f>SUM(D17:D36)/20</f>
+        <v>1.9229383186550299E-2</v>
+      </c>
+      <c r="J17">
+        <v>1.8094542471000001E-2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+      <c r="V17">
+        <v>1.8377429143000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>23705</v>
+      </c>
+      <c r="D18">
+        <v>1.9650433376667002E-2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>1.8094550208E-2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18">
+        <f>AVERAGE(L18:L37)</f>
+        <v>0.9</v>
+      </c>
+      <c r="R18" t="s">
+        <v>18</v>
+      </c>
+      <c r="T18" t="s">
+        <v>18</v>
+      </c>
+      <c r="V18">
+        <v>1.8377459302999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>23609</v>
+      </c>
+      <c r="D19">
+        <v>1.9650504566667001E-2</v>
+      </c>
+      <c r="F19">
+        <v>18487</v>
+      </c>
+      <c r="G19">
+        <f>SUM(F19:F38)</f>
+        <v>368930</v>
+      </c>
+      <c r="J19">
+        <v>1.8094553467999999E-2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>4.8586364016E-2</v>
+      </c>
+      <c r="R19">
+        <v>1.8094590051E-2</v>
+      </c>
+      <c r="T19">
+        <v>18481</v>
+      </c>
+      <c r="V19">
+        <v>1.8377450787E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>23531</v>
+      </c>
+      <c r="D20">
+        <v>1.9650465332667E-2</v>
+      </c>
+      <c r="F20">
+        <v>18485</v>
+      </c>
+      <c r="J20">
+        <v>1.8094553691E-2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>4.8586347008999997E-2</v>
+      </c>
+      <c r="Q20" t="e">
+        <f>#REF!*2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R20">
+        <v>1.8094585715E-2</v>
+      </c>
+      <c r="T20">
+        <v>18478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>23539</v>
+      </c>
+      <c r="D21">
+        <v>1.9650487559667001E-2</v>
+      </c>
+      <c r="F21">
+        <v>18482</v>
+      </c>
+      <c r="H21">
+        <f>SUM(H24:H43)</f>
+        <v>368930</v>
+      </c>
+      <c r="J21">
+        <v>1.8094532173E-2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>4.8586345441000003E-2</v>
+      </c>
+      <c r="R21">
+        <v>1.8094584843999999E-2</v>
+      </c>
+      <c r="T21">
+        <v>18477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>23539</v>
+      </c>
+      <c r="D22">
+        <v>1.9650484375667E-2</v>
+      </c>
+      <c r="F22">
+        <v>18478</v>
+      </c>
+      <c r="J22">
+        <v>1.8094553138999998E-2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>4.8586343825000003E-2</v>
+      </c>
+      <c r="R22">
+        <v>1.8094555589E-2</v>
+      </c>
       <c r="T22">
-        <f>AVERAGE(R23:R52)</f>
-        <v>1.8094548745599997E-2</v>
-      </c>
-      <c r="V22">
-        <v>1.8377468394E-2</v>
+        <v>18474</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f>B22+450000</f>
-        <v>900000</v>
+      <c r="A23">
+        <v>23664</v>
       </c>
       <c r="D23">
-        <f>D22+4700000</f>
-        <v>4780000</v>
-      </c>
-      <c r="H23" s="135">
-        <f>AVERAGE(R4:R8)</f>
-        <v>2.7314539999999998</v>
-      </c>
-      <c r="J23" t="s">
+        <v>1.5439683337499999E-2</v>
+      </c>
+      <c r="F23">
+        <v>18473</v>
+      </c>
+      <c r="H23" t="s">
         <v>18</v>
       </c>
+      <c r="J23">
+        <v>1.8094539773000001E-2</v>
+      </c>
       <c r="L23">
-        <f>K21*5</f>
-        <v>20.833333333333336</v>
-      </c>
-      <c r="M23" t="s">
-        <v>18</v>
-      </c>
-      <c r="N23" s="135">
-        <f>AVERAGE(S3:S3)</f>
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <f>SUM(M24:M43)</f>
-        <v>18165</v>
-      </c>
-      <c r="V23">
-        <v>1.8377416337000001E-2</v>
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>4.8586336350000002E-2</v>
+      </c>
+      <c r="R23">
+        <v>1.8094553691E-2</v>
+      </c>
+      <c r="T23">
+        <v>18471</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <f>B23+80000</f>
-        <v>980000</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="135">
-        <f>AVERAGE(R3:R3)</f>
-        <v>2.223E-2</v>
+      <c r="A24">
+        <v>23712</v>
+      </c>
+      <c r="D24">
+        <v>1.9650454529666999E-2</v>
+      </c>
+      <c r="F24">
+        <v>18466</v>
+      </c>
+      <c r="H24">
+        <v>18487</v>
       </c>
       <c r="J24">
-        <v>1.8094541658E-2</v>
-      </c>
-      <c r="M24">
-        <v>18165</v>
-      </c>
-      <c r="N24" s="135">
-        <f>AVERAGE(S15:S19)</f>
-        <v>2.9257999999999999E-2</v>
-      </c>
-      <c r="U24">
-        <f>SUM(T27:T46)</f>
-        <v>368953</v>
-      </c>
-      <c r="V24">
-        <v>1.8377437404999999E-2</v>
+        <v>1.8094518819999999E-2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>4.8586336305999997E-2</v>
+      </c>
+      <c r="R24">
+        <v>1.8094553467999999E-2</v>
+      </c>
+      <c r="T24">
+        <v>18470</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23545</v>
-      </c>
-      <c r="C25">
-        <f>SUM(A25:A44)</f>
-        <v>472315</v>
+        <v>23575</v>
       </c>
       <c r="D25">
-        <v>1.9650456230667E-2</v>
+        <v>1.9650454741667E-2</v>
+      </c>
+      <c r="F25">
+        <v>18464</v>
       </c>
       <c r="H25">
-        <f>SUM(D25:D44)/20</f>
-        <v>1.9229383186550299E-2</v>
+        <v>18485</v>
       </c>
       <c r="J25">
-        <v>1.8094542471000001E-2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="V25">
-        <v>1.8377429143000001E-2</v>
+        <v>1.8094555589E-2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>4.8586332481E-2</v>
+      </c>
+      <c r="R25">
+        <v>1.8094553138999998E-2</v>
+      </c>
+      <c r="T25">
+        <v>18461</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23705</v>
+        <v>23592</v>
       </c>
       <c r="D26">
-        <v>1.9650433376667002E-2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
+        <v>1.9650439123666999E-2</v>
+      </c>
+      <c r="F26">
+        <v>18453</v>
+      </c>
+      <c r="H26">
+        <v>18482</v>
       </c>
       <c r="J26">
-        <v>1.8094550208E-2</v>
+        <v>1.8094536118E-2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="N26" t="s">
-        <v>18</v>
-      </c>
-      <c r="P26">
-        <f>AVERAGE(L26:L45)</f>
-        <v>0.9</v>
-      </c>
-      <c r="R26" t="s">
-        <v>18</v>
-      </c>
-      <c r="T26" t="s">
-        <v>18</v>
-      </c>
-      <c r="V26">
-        <v>1.8377459302999999E-2</v>
+      <c r="N26">
+        <v>4.8586327834E-2</v>
+      </c>
+      <c r="R26">
+        <v>1.8094550208E-2</v>
+      </c>
+      <c r="T26">
+        <v>18456</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>23609</v>
+        <v>23574</v>
       </c>
       <c r="D27">
-        <v>1.9650504566667001E-2</v>
+        <v>1.9650463610667E-2</v>
       </c>
       <c r="F27">
-        <v>18487</v>
-      </c>
-      <c r="G27">
-        <f>SUM(F27:F46)</f>
-        <v>368930</v>
+        <v>18453</v>
+      </c>
+      <c r="H27">
+        <v>18478</v>
       </c>
       <c r="J27">
-        <v>1.8094553467999999E-2</v>
+        <v>1.8094542006999999E-2</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="N27">
-        <v>4.8586364016E-2</v>
+        <v>4.8586324782E-2</v>
+      </c>
+      <c r="P27">
+        <f>AVERAGE(N19:N38)</f>
+        <v>4.3727691484150004E-2</v>
       </c>
       <c r="R27">
-        <v>1.8094590051E-2</v>
+        <v>1.8094547175E-2</v>
       </c>
       <c r="T27">
-        <v>18481</v>
-      </c>
-      <c r="V27">
-        <v>1.8377450787E-2</v>
+        <v>18450</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>23531</v>
+        <v>23633</v>
       </c>
       <c r="D28">
-        <v>1.9650465332667E-2</v>
+        <v>1.9650432680667001E-2</v>
       </c>
       <c r="F28">
-        <v>18485</v>
+        <v>18444</v>
+      </c>
+      <c r="H28">
+        <v>18473</v>
       </c>
       <c r="J28">
-        <v>1.8094553691E-2</v>
+        <v>1.8094539082E-2</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="N28">
-        <v>4.8586347008999997E-2</v>
-      </c>
-      <c r="Q28" t="e">
-        <f>#REF!*2</f>
-        <v>#REF!</v>
+        <v>4.8586323059999999E-2</v>
       </c>
       <c r="R28">
-        <v>1.8094585715E-2</v>
+        <v>1.8094542471000001E-2</v>
       </c>
       <c r="T28">
-        <v>18478</v>
+        <v>18448</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>23539</v>
+        <v>23681</v>
       </c>
       <c r="D29">
-        <v>1.9650487559667001E-2</v>
+        <v>1.54396795125E-2</v>
       </c>
       <c r="F29">
-        <v>18482</v>
+        <v>18437</v>
       </c>
       <c r="H29">
-        <f>SUM(H32:H51)</f>
-        <v>368930</v>
+        <v>18466</v>
       </c>
       <c r="J29">
-        <v>1.8094532173E-2</v>
+        <v>1.8094534214000001E-2</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="N29">
-        <v>4.8586345441000003E-2</v>
+        <v>4.8586315679999999E-2</v>
       </c>
       <c r="R29">
-        <v>1.8094584843999999E-2</v>
+        <v>1.8094542006999999E-2</v>
       </c>
       <c r="T29">
-        <v>18477</v>
+        <v>18444</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>23539</v>
+        <v>23660</v>
       </c>
       <c r="D30">
-        <v>1.9650484375667E-2</v>
+        <v>1.9650457797667002E-2</v>
       </c>
       <c r="F30">
-        <v>18478</v>
+        <v>18434</v>
+      </c>
+      <c r="H30">
+        <v>18464</v>
       </c>
       <c r="J30">
-        <v>1.8094553138999998E-2</v>
+        <v>1.8094585715E-2</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>4.8586343825000003E-2</v>
+        <v>4.8586314451999998E-2</v>
       </c>
       <c r="R30">
-        <v>1.8094555589E-2</v>
+        <v>1.8094541658E-2</v>
       </c>
       <c r="T30">
-        <v>18474</v>
+        <v>18442</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>23664</v>
+        <v>23694</v>
       </c>
       <c r="D31">
-        <v>1.5439683337499999E-2</v>
+        <v>1.9650485991667001E-2</v>
       </c>
       <c r="F31">
-        <v>18473</v>
-      </c>
-      <c r="H31" t="s">
-        <v>18</v>
+        <v>18431</v>
+      </c>
+      <c r="H31">
+        <v>18453</v>
       </c>
       <c r="J31">
-        <v>1.8094539773000001E-2</v>
+        <v>1.8094584843999999E-2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>4.8586336350000002E-2</v>
+        <v>4.8586314190999999E-2</v>
       </c>
       <c r="R31">
-        <v>1.8094553691E-2</v>
+        <v>1.8094539773000001E-2</v>
       </c>
       <c r="T31">
-        <v>18471</v>
+        <v>18438</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>23712</v>
+        <v>23549</v>
       </c>
       <c r="D32">
-        <v>1.9650454529666999E-2</v>
+        <v>1.9650433934666998E-2</v>
       </c>
       <c r="F32">
-        <v>18466</v>
+        <v>18430</v>
       </c>
       <c r="H32">
-        <v>18487</v>
+        <v>18453</v>
       </c>
       <c r="J32">
-        <v>1.8094518819999999E-2</v>
+        <v>1.8094590051E-2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="N32">
-        <v>4.8586336305999997E-2</v>
+        <v>4.8586313978999998E-2</v>
       </c>
       <c r="R32">
-        <v>1.8094553467999999E-2</v>
+        <v>1.8094539082E-2</v>
       </c>
       <c r="T32">
-        <v>18470</v>
+        <v>18435</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>23575</v>
+        <v>23633</v>
       </c>
       <c r="D33">
-        <v>1.9650454741667E-2</v>
+        <v>1.9650455002666999E-2</v>
       </c>
       <c r="F33">
-        <v>18464</v>
+        <v>18430</v>
       </c>
       <c r="H33">
-        <v>18485</v>
+        <v>18444</v>
       </c>
       <c r="J33">
-        <v>1.8094555589E-2</v>
+        <v>1.8094547175E-2</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="N33">
-        <v>4.8586332481E-2</v>
+        <v>4.8586306189999998E-2</v>
       </c>
       <c r="R33">
-        <v>1.8094553138999998E-2</v>
+        <v>1.8094538394E-2</v>
       </c>
       <c r="T33">
-        <v>18461</v>
+        <v>18429</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>23592</v>
+        <v>23718</v>
       </c>
       <c r="D34">
-        <v>1.9650439123666999E-2</v>
+        <v>1.9650446740666998E-2</v>
       </c>
       <c r="F34">
-        <v>18453</v>
+        <v>18420</v>
       </c>
       <c r="H34">
-        <v>18482</v>
+        <v>18437</v>
       </c>
       <c r="J34">
-        <v>1.8094536118E-2</v>
+        <v>1.8094536322000001E-2</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="N34">
-        <v>4.8586327834E-2</v>
+        <v>4.8586298573000002E-2</v>
       </c>
       <c r="R34">
-        <v>1.8094550208E-2</v>
+        <v>1.8094536322000001E-2</v>
       </c>
       <c r="T34">
-        <v>18456</v>
+        <v>18426</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>23574</v>
+        <v>23585</v>
       </c>
       <c r="D35">
-        <v>1.9650463610667E-2</v>
+        <v>1.9650476900666999E-2</v>
       </c>
       <c r="F35">
-        <v>18453</v>
+        <v>18418</v>
       </c>
       <c r="H35">
-        <v>18478</v>
+        <v>18434</v>
       </c>
       <c r="J35">
-        <v>1.8094542006999999E-2</v>
+        <v>1.8094538394E-2</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="N35">
-        <v>4.8586324782E-2</v>
-      </c>
-      <c r="P35">
-        <f>AVERAGE(N27:N46)</f>
-        <v>4.3727691484150004E-2</v>
+        <v>4.8586293384000001E-2</v>
       </c>
       <c r="R35">
-        <v>1.8094547175E-2</v>
+        <v>1.8094536118E-2</v>
       </c>
       <c r="T35">
-        <v>18450</v>
+        <v>18424</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>23633</v>
+        <v>23577</v>
       </c>
       <c r="D36">
-        <v>1.9650432680667001E-2</v>
+        <v>1.9650468384667E-2</v>
       </c>
       <c r="F36">
+        <v>18416</v>
+      </c>
+      <c r="H36">
+        <v>18431</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>4.858629213E-2</v>
+      </c>
+      <c r="R36">
+        <v>1.8094534214000001E-2</v>
+      </c>
+      <c r="T36">
+        <v>18422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>18416</v>
+      </c>
+      <c r="H37">
+        <v>18430</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>1.8094532173E-2</v>
+      </c>
+      <c r="T37">
+        <v>18418</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>18413</v>
+      </c>
+      <c r="H38">
+        <v>18430</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>1.8094518819999999E-2</v>
+      </c>
+      <c r="T38">
+        <v>18409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>18420</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39">
+        <f>SUM(J40:J59)</f>
+        <v>368953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>18418</v>
+      </c>
+      <c r="J40">
+        <v>18481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>18416</v>
+      </c>
+      <c r="J41">
+        <v>18478</v>
+      </c>
+      <c r="N41">
+        <f>SUM(K42:K61)</f>
+        <v>47030</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>23721</v>
+      </c>
+      <c r="H42">
+        <v>18416</v>
+      </c>
+      <c r="J42">
+        <v>18477</v>
+      </c>
+      <c r="S42">
+        <f>AVERAGE(R19:R38)</f>
+        <v>1.8094548745599997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>23720</v>
+      </c>
+      <c r="H43">
+        <v>18413</v>
+      </c>
+      <c r="J43">
+        <v>18474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>23693</v>
+      </c>
+      <c r="J44">
+        <v>18471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <f>AVERAGE(A46:A65)</f>
+        <v>1.8094548745599997E-2</v>
+      </c>
+      <c r="D45">
+        <v>23668</v>
+      </c>
+      <c r="J45">
+        <v>18470</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1.8094590051E-2</v>
+      </c>
+      <c r="D46">
+        <v>23664</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46">
+        <v>18461</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1.8094585715E-2</v>
+      </c>
+      <c r="D47">
+        <v>23654</v>
+      </c>
+      <c r="G47">
+        <v>18481</v>
+      </c>
+      <c r="J47">
+        <v>18456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1.8094584843999999E-2</v>
+      </c>
+      <c r="D48">
+        <v>23652</v>
+      </c>
+      <c r="G48">
+        <v>18478</v>
+      </c>
+      <c r="J48">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1.8094555589E-2</v>
+      </c>
+      <c r="D49">
+        <v>23636</v>
+      </c>
+      <c r="G49">
+        <v>18477</v>
+      </c>
+      <c r="J49">
+        <v>18448</v>
+      </c>
+      <c r="M49" t="s">
+        <v>18</v>
+      </c>
+      <c r="P49">
+        <f>SUM(M50:M69)</f>
+        <v>258953</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1.8094553691E-2</v>
+      </c>
+      <c r="D50">
+        <v>23632</v>
+      </c>
+      <c r="G50">
+        <v>18474</v>
+      </c>
+      <c r="J50">
         <v>18444</v>
       </c>
-      <c r="H36">
-        <v>18473</v>
-      </c>
-      <c r="J36">
-        <v>1.8094539082E-2</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>4.8586323059999999E-2</v>
-      </c>
-      <c r="R36">
-        <v>1.8094542471000001E-2</v>
-      </c>
-      <c r="T36">
-        <v>18448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>23681</v>
-      </c>
-      <c r="D37">
-        <v>1.54396795125E-2</v>
-      </c>
-      <c r="F37">
-        <v>18437</v>
-      </c>
-      <c r="H37">
-        <v>18466</v>
-      </c>
-      <c r="J37">
-        <v>1.8094534214000001E-2</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>4.8586315679999999E-2</v>
-      </c>
-      <c r="R37">
-        <v>1.8094542006999999E-2</v>
-      </c>
-      <c r="T37">
-        <v>18444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>23660</v>
-      </c>
-      <c r="D38">
-        <v>1.9650457797667002E-2</v>
-      </c>
-      <c r="F38">
-        <v>18434</v>
-      </c>
-      <c r="H38">
-        <v>18464</v>
-      </c>
-      <c r="J38">
-        <v>1.8094585715E-2</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>4.8586314451999998E-2</v>
-      </c>
-      <c r="R38">
-        <v>1.8094541658E-2</v>
-      </c>
-      <c r="T38">
+      <c r="M50">
+        <v>12981</v>
+      </c>
+      <c r="S50">
+        <f>SUM(S53:S72)</f>
+        <v>258950</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1.8094553467999999E-2</v>
+      </c>
+      <c r="D51">
+        <v>23630</v>
+      </c>
+      <c r="G51">
+        <v>18471</v>
+      </c>
+      <c r="J51">
         <v>18442</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>23694</v>
-      </c>
-      <c r="D39">
-        <v>1.9650485991667001E-2</v>
-      </c>
-      <c r="F39">
-        <v>18431</v>
-      </c>
-      <c r="H39">
-        <v>18453</v>
-      </c>
-      <c r="J39">
-        <v>1.8094584843999999E-2</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>4.8586314190999999E-2</v>
-      </c>
-      <c r="R39">
-        <v>1.8094539773000001E-2</v>
-      </c>
-      <c r="T39">
+      <c r="M51">
+        <v>12978</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1.8094553138999998E-2</v>
+      </c>
+      <c r="D52">
+        <v>23623</v>
+      </c>
+      <c r="G52">
+        <v>18470</v>
+      </c>
+      <c r="J52">
         <v>18438</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>23549</v>
-      </c>
-      <c r="D40">
-        <v>1.9650433934666998E-2</v>
-      </c>
-      <c r="F40">
-        <v>18430</v>
-      </c>
-      <c r="H40">
-        <v>18453</v>
-      </c>
-      <c r="J40">
-        <v>1.8094590051E-2</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>4.8586313978999998E-2</v>
-      </c>
-      <c r="R40">
-        <v>1.8094539082E-2</v>
-      </c>
-      <c r="T40">
+      <c r="M52">
+        <v>12977</v>
+      </c>
+      <c r="S52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1.8094550208E-2</v>
+      </c>
+      <c r="D53">
+        <v>23599</v>
+      </c>
+      <c r="G53">
+        <v>18461</v>
+      </c>
+      <c r="J53">
         <v>18435</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>23633</v>
-      </c>
-      <c r="D41">
-        <v>1.9650455002666999E-2</v>
-      </c>
-      <c r="F41">
-        <v>18430</v>
-      </c>
-      <c r="H41">
-        <v>18444</v>
-      </c>
-      <c r="J41">
-        <v>1.8094547175E-2</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>4.8586306189999998E-2</v>
-      </c>
-      <c r="R41">
-        <v>1.8094538394E-2</v>
-      </c>
-      <c r="T41">
-        <v>18429</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>23718</v>
-      </c>
-      <c r="D42">
-        <v>1.9650446740666998E-2</v>
-      </c>
-      <c r="F42">
-        <v>18420</v>
-      </c>
-      <c r="H42">
-        <v>18437</v>
-      </c>
-      <c r="J42">
-        <v>1.8094536322000001E-2</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>4.8586298573000002E-2</v>
-      </c>
-      <c r="R42">
-        <v>1.8094536322000001E-2</v>
-      </c>
-      <c r="T42">
-        <v>18426</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>23585</v>
-      </c>
-      <c r="D43">
-        <v>1.9650476900666999E-2</v>
-      </c>
-      <c r="F43">
-        <v>18418</v>
-      </c>
-      <c r="H43">
-        <v>18434</v>
-      </c>
-      <c r="J43">
-        <v>1.8094538394E-2</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>4.8586293384000001E-2</v>
-      </c>
-      <c r="R43">
-        <v>1.8094536118E-2</v>
-      </c>
-      <c r="T43">
-        <v>18424</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>23577</v>
-      </c>
-      <c r="D44">
-        <v>1.9650468384667E-2</v>
-      </c>
-      <c r="F44">
-        <v>18416</v>
-      </c>
-      <c r="H44">
-        <v>18431</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>4.858629213E-2</v>
-      </c>
-      <c r="R44">
-        <v>1.8094534214000001E-2</v>
-      </c>
-      <c r="T44">
-        <v>18422</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F45">
-        <v>18416</v>
-      </c>
-      <c r="H45">
-        <v>18430</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>1.8094532173E-2</v>
-      </c>
-      <c r="T45">
-        <v>18418</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F46">
-        <v>18413</v>
-      </c>
-      <c r="H46">
-        <v>18430</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>1.8094518819999999E-2</v>
-      </c>
-      <c r="T46">
-        <v>18409</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H47">
-        <v>18420</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="M53">
+        <v>12974</v>
+      </c>
+      <c r="P53" t="s">
         <v>18</v>
       </c>
-      <c r="M47">
-        <f>SUM(J48:J67)</f>
-        <v>368953</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H48">
-        <v>18418</v>
-      </c>
-      <c r="J48">
-        <v>18481</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49">
-        <v>18416</v>
-      </c>
-      <c r="J49">
-        <v>18478</v>
-      </c>
-      <c r="N49">
-        <f>SUM(K50:K69)</f>
-        <v>47030</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D50">
-        <v>23721</v>
-      </c>
-      <c r="H50">
-        <v>18416</v>
-      </c>
-      <c r="J50">
-        <v>18477</v>
-      </c>
-      <c r="S50">
-        <f>AVERAGE(R27:R46)</f>
-        <v>1.8094548745599997E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D51">
-        <v>23720</v>
-      </c>
-      <c r="H51">
-        <v>18413</v>
-      </c>
-      <c r="J51">
-        <v>18474</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D52">
-        <v>23693</v>
-      </c>
-      <c r="J52">
-        <v>18471</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53">
-        <f>AVERAGE(A54:A73)</f>
-        <v>1.8094548745599997E-2</v>
-      </c>
-      <c r="D53">
-        <v>23668</v>
-      </c>
-      <c r="J53">
-        <v>18470</v>
+      <c r="Q53">
+        <f>SUM(P54:P73)</f>
+        <v>258930</v>
+      </c>
+      <c r="S53">
+        <v>12980</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1.8094590051E-2</v>
+        <v>1.8094547175E-2</v>
       </c>
       <c r="D54">
-        <v>23664</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
+        <v>23594</v>
+      </c>
+      <c r="G54">
+        <v>18456</v>
       </c>
       <c r="J54">
-        <v>18461</v>
+        <v>18429</v>
+      </c>
+      <c r="M54">
+        <v>12971</v>
+      </c>
+      <c r="P54">
+        <v>12987</v>
+      </c>
+      <c r="S54">
+        <v>12980</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1.8094585715E-2</v>
+        <v>1.8094542471000001E-2</v>
       </c>
       <c r="D55">
-        <v>23654</v>
+        <v>23565</v>
       </c>
       <c r="G55">
-        <v>18481</v>
+        <v>18450</v>
       </c>
       <c r="J55">
-        <v>18456</v>
+        <v>18426</v>
+      </c>
+      <c r="M55">
+        <v>12970</v>
+      </c>
+      <c r="P55">
+        <v>12985</v>
+      </c>
+      <c r="S55">
+        <v>12977</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1.8094584843999999E-2</v>
+        <v>1.8094542006999999E-2</v>
       </c>
       <c r="D56">
-        <v>23652</v>
+        <v>23564</v>
       </c>
       <c r="G56">
-        <v>18478</v>
+        <v>18448</v>
       </c>
       <c r="J56">
-        <v>18450</v>
+        <v>18424</v>
+      </c>
+      <c r="M56">
+        <v>12961</v>
+      </c>
+      <c r="P56">
+        <v>12982</v>
+      </c>
+      <c r="S56">
+        <v>12975</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1.8094555589E-2</v>
+        <v>1.8094541658E-2</v>
       </c>
       <c r="D57">
-        <v>23636</v>
+        <v>23555</v>
       </c>
       <c r="G57">
-        <v>18477</v>
+        <v>18444</v>
       </c>
       <c r="J57">
-        <v>18448</v>
-      </c>
-      <c r="M57" t="s">
-        <v>18</v>
+        <v>18422</v>
+      </c>
+      <c r="M57">
+        <v>12956</v>
       </c>
       <c r="P57">
-        <f>SUM(M58:M77)</f>
-        <v>258953</v>
+        <v>12978</v>
+      </c>
+      <c r="S57">
+        <v>12974</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1.8094553691E-2</v>
+        <v>1.8094539773000001E-2</v>
       </c>
       <c r="D58">
-        <v>23632</v>
+        <v>23548</v>
       </c>
       <c r="G58">
-        <v>18474</v>
+        <v>18442</v>
       </c>
       <c r="J58">
-        <v>18444</v>
+        <v>18418</v>
       </c>
       <c r="M58">
-        <v>12981</v>
+        <v>12950</v>
+      </c>
+      <c r="P58">
+        <v>12973</v>
       </c>
       <c r="S58">
-        <f>SUM(S61:S80)</f>
-        <v>258950</v>
+        <v>12971</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1.8094553467999999E-2</v>
+        <v>1.8094539082E-2</v>
       </c>
       <c r="D59">
-        <v>23630</v>
+        <v>23543</v>
       </c>
       <c r="G59">
-        <v>18471</v>
+        <v>18438</v>
       </c>
       <c r="J59">
-        <v>18442</v>
+        <v>18409</v>
       </c>
       <c r="M59">
-        <v>12978</v>
+        <v>12948</v>
+      </c>
+      <c r="P59">
+        <v>12966</v>
+      </c>
+      <c r="S59">
+        <v>12965</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1.8094553138999998E-2</v>
+        <v>1.8094538394E-2</v>
       </c>
       <c r="D60">
-        <v>23623</v>
+        <v>23542</v>
       </c>
       <c r="G60">
-        <v>18470</v>
-      </c>
-      <c r="J60">
-        <v>18438</v>
+        <v>18435</v>
+      </c>
+      <c r="K60">
+        <v>23517</v>
       </c>
       <c r="M60">
-        <v>12977</v>
-      </c>
-      <c r="S60" t="s">
-        <v>18</v>
+        <v>12944</v>
+      </c>
+      <c r="P60">
+        <v>12964</v>
+      </c>
+      <c r="S60">
+        <v>12957</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1.8094550208E-2</v>
+        <v>1.8094536322000001E-2</v>
       </c>
       <c r="D61">
-        <v>23599</v>
+        <v>23525</v>
       </c>
       <c r="G61">
-        <v>18461</v>
-      </c>
-      <c r="J61">
-        <v>18435</v>
+        <v>18429</v>
+      </c>
+      <c r="K61">
+        <v>23513</v>
       </c>
       <c r="M61">
-        <v>12974</v>
-      </c>
-      <c r="P61" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q61">
-        <f>SUM(P62:P81)</f>
-        <v>258930</v>
+        <v>12942</v>
+      </c>
+      <c r="P61">
+        <v>12953</v>
       </c>
       <c r="S61">
-        <v>12980</v>
+        <v>12948</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1.8094547175E-2</v>
-      </c>
-      <c r="D62">
-        <v>23594</v>
+        <v>1.8094536118E-2</v>
       </c>
       <c r="G62">
-        <v>18456</v>
-      </c>
-      <c r="J62">
-        <v>18429</v>
+        <v>18426</v>
       </c>
       <c r="M62">
-        <v>12971</v>
+        <v>12938</v>
       </c>
       <c r="P62">
-        <v>12987</v>
+        <v>12953</v>
       </c>
       <c r="S62">
-        <v>12980</v>
+        <v>12946</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1.8094542471000001E-2</v>
-      </c>
-      <c r="D63">
-        <v>23565</v>
+        <v>1.8094534214000001E-2</v>
       </c>
       <c r="G63">
-        <v>18450</v>
-      </c>
-      <c r="J63">
-        <v>18426</v>
+        <v>18424</v>
       </c>
       <c r="M63">
-        <v>12970</v>
+        <v>12935</v>
       </c>
       <c r="P63">
-        <v>12985</v>
+        <v>12944</v>
       </c>
       <c r="S63">
-        <v>12977</v>
+        <v>12945</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1.8094542006999999E-2</v>
-      </c>
-      <c r="D64">
-        <v>23564</v>
+        <v>1.8094532173E-2</v>
       </c>
       <c r="G64">
-        <v>18448</v>
-      </c>
-      <c r="J64">
-        <v>18424</v>
+        <v>18422</v>
       </c>
       <c r="M64">
-        <v>12961</v>
+        <v>12929</v>
       </c>
       <c r="P64">
-        <v>12982</v>
+        <v>12937</v>
       </c>
       <c r="S64">
-        <v>12975</v>
+        <v>12940</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1.8094541658E-2</v>
-      </c>
-      <c r="D65">
-        <v>23555</v>
+        <v>1.8094518819999999E-2</v>
       </c>
       <c r="G65">
-        <v>18444</v>
-      </c>
-      <c r="J65">
-        <v>18422</v>
+        <v>18418</v>
       </c>
       <c r="M65">
-        <v>12956</v>
+        <v>12926</v>
       </c>
       <c r="P65">
-        <v>12978</v>
+        <v>12934</v>
       </c>
       <c r="S65">
-        <v>12974</v>
+        <v>12939</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>1.8094539773000001E-2</v>
-      </c>
-      <c r="D66">
-        <v>23548</v>
-      </c>
       <c r="G66">
-        <v>18442</v>
-      </c>
-      <c r="J66">
-        <v>18418</v>
+        <v>18409</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66">
+        <f>AVERAGE(I67:I86)</f>
+        <v>0.9</v>
       </c>
       <c r="M66">
-        <v>12950</v>
+        <v>12924</v>
       </c>
       <c r="P66">
-        <v>12973</v>
+        <v>12931</v>
       </c>
       <c r="S66">
-        <v>12971</v>
+        <v>12935</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>1.8094539082E-2</v>
-      </c>
-      <c r="D67">
-        <v>23543</v>
-      </c>
-      <c r="G67">
-        <v>18438</v>
-      </c>
-      <c r="J67">
-        <v>18409</v>
+      <c r="I67">
+        <v>1</v>
       </c>
       <c r="M67">
-        <v>12948</v>
+        <v>12922</v>
       </c>
       <c r="P67">
-        <v>12966</v>
+        <v>12930</v>
       </c>
       <c r="S67">
-        <v>12965</v>
+        <v>12932</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>1.8094538394E-2</v>
-      </c>
-      <c r="D68">
-        <v>23542</v>
-      </c>
-      <c r="G68">
-        <v>18435</v>
-      </c>
-      <c r="K68">
-        <v>23517</v>
+      <c r="I68">
+        <v>1</v>
       </c>
       <c r="M68">
-        <v>12944</v>
+        <v>12918</v>
       </c>
       <c r="P68">
-        <v>12964</v>
+        <v>12930</v>
       </c>
       <c r="S68">
-        <v>12957</v>
+        <v>12931</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>1.8094536322000001E-2</v>
-      </c>
-      <c r="D69">
-        <v>23525</v>
-      </c>
-      <c r="G69">
-        <v>18429</v>
-      </c>
-      <c r="K69">
-        <v>23513</v>
+      <c r="I69">
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>12942</v>
+        <v>12909</v>
       </c>
       <c r="P69">
-        <v>12953</v>
+        <v>12920</v>
       </c>
       <c r="S69">
-        <v>12948</v>
+        <v>12921</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1.8094536118E-2</v>
-      </c>
-      <c r="G70">
-        <v>18426</v>
-      </c>
-      <c r="M70">
-        <v>12938</v>
+      <c r="I70">
+        <v>1</v>
       </c>
       <c r="P70">
-        <v>12953</v>
+        <v>12918</v>
       </c>
       <c r="S70">
-        <v>12946</v>
+        <v>12919</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1.8094534214000001E-2</v>
-      </c>
-      <c r="G71">
-        <v>18424</v>
-      </c>
-      <c r="M71">
-        <v>12935</v>
+      <c r="I71">
+        <v>1</v>
       </c>
       <c r="P71">
-        <v>12944</v>
+        <v>12916</v>
       </c>
       <c r="S71">
-        <v>12945</v>
+        <v>12914</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1.8094532173E-2</v>
-      </c>
-      <c r="G72">
-        <v>18422</v>
-      </c>
-      <c r="M72">
-        <v>12929</v>
+      <c r="I72">
+        <v>1</v>
       </c>
       <c r="P72">
-        <v>12937</v>
+        <v>12916</v>
       </c>
       <c r="S72">
-        <v>12940</v>
+        <v>12901</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1.8094518819999999E-2</v>
-      </c>
-      <c r="G73">
-        <v>18418</v>
-      </c>
-      <c r="M73">
-        <v>12926</v>
+      <c r="I73">
+        <v>1</v>
       </c>
       <c r="P73">
-        <v>12934</v>
-      </c>
-      <c r="S73">
-        <v>12939</v>
+        <v>12913</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G74">
-        <v>18409</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
         <v>18</v>
       </c>
-      <c r="K74">
-        <f>AVERAGE(I75:I94)</f>
-        <v>0.9</v>
-      </c>
-      <c r="M74">
-        <v>12924</v>
-      </c>
-      <c r="P74">
-        <v>12931</v>
-      </c>
-      <c r="S74">
-        <v>12935</v>
+      <c r="N74">
+        <f>SUM(K75:K94)</f>
+        <v>258938</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="M75">
-        <v>12922</v>
-      </c>
-      <c r="P75">
-        <v>12930</v>
-      </c>
-      <c r="S75">
-        <v>12932</v>
+      <c r="K75">
+        <v>12989</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="M76">
-        <v>12918</v>
-      </c>
-      <c r="P76">
-        <v>12930</v>
-      </c>
-      <c r="S76">
-        <v>12931</v>
+      <c r="K76">
+        <v>12988</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="M77">
-        <v>12909</v>
-      </c>
-      <c r="P77">
-        <v>12920</v>
-      </c>
-      <c r="S77">
-        <v>12921</v>
+      <c r="K77">
+        <v>12978</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="P78">
-        <v>12918</v>
-      </c>
-      <c r="S78">
-        <v>12919</v>
+      <c r="K78">
+        <v>12967</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="P79">
-        <v>12916</v>
-      </c>
-      <c r="S79">
-        <v>12914</v>
+      <c r="K79">
+        <v>12966</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="P80">
-        <v>12916</v>
-      </c>
-      <c r="S80">
-        <v>12901</v>
-      </c>
-    </row>
-    <row r="81" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>12962</v>
+      </c>
+    </row>
+    <row r="81" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="P81">
-        <v>12913</v>
-      </c>
-    </row>
-    <row r="82" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>12961</v>
+      </c>
+    </row>
+    <row r="82" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="K82" t="s">
-        <v>18</v>
-      </c>
-      <c r="N82">
-        <f>SUM(K83:K102)</f>
-        <v>258938</v>
-      </c>
-    </row>
-    <row r="83" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>12955</v>
+      </c>
+    </row>
+    <row r="83" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I83">
         <v>1</v>
       </c>
       <c r="K83">
-        <v>12989</v>
-      </c>
-    </row>
-    <row r="84" spans="9:16" x14ac:dyDescent="0.25">
+        <v>12953</v>
+      </c>
+    </row>
+    <row r="84" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I84">
         <v>1</v>
       </c>
       <c r="K84">
-        <v>12988</v>
-      </c>
-    </row>
-    <row r="85" spans="9:16" x14ac:dyDescent="0.25">
+        <v>12952</v>
+      </c>
+    </row>
+    <row r="85" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K85">
-        <v>12978</v>
-      </c>
-    </row>
-    <row r="86" spans="9:16" x14ac:dyDescent="0.25">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="86" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K86">
-        <v>12967</v>
-      </c>
-    </row>
-    <row r="87" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I87">
-        <v>1</v>
-      </c>
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="87" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K87">
-        <v>12966</v>
-      </c>
-    </row>
-    <row r="88" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I88">
-        <v>1</v>
-      </c>
+        <v>12938</v>
+      </c>
+    </row>
+    <row r="88" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K88">
-        <v>12962</v>
-      </c>
-    </row>
-    <row r="89" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I89">
-        <v>1</v>
-      </c>
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="89" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K89">
-        <v>12961</v>
-      </c>
-    </row>
-    <row r="90" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I90">
-        <v>1</v>
-      </c>
+        <v>12926</v>
+      </c>
+    </row>
+    <row r="90" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K90">
-        <v>12955</v>
-      </c>
-    </row>
-    <row r="91" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I91">
-        <v>1</v>
-      </c>
+        <v>12922</v>
+      </c>
+    </row>
+    <row r="91" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K91">
-        <v>12953</v>
-      </c>
-    </row>
-    <row r="92" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I92">
-        <v>1</v>
-      </c>
+        <v>12920</v>
+      </c>
+    </row>
+    <row r="92" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K92">
-        <v>12952</v>
-      </c>
-    </row>
-    <row r="93" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I93">
-        <v>0</v>
-      </c>
+        <v>12918</v>
+      </c>
+    </row>
+    <row r="93" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K93">
-        <v>12950</v>
-      </c>
-    </row>
-    <row r="94" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I94">
-        <v>0</v>
-      </c>
+        <v>12917</v>
+      </c>
+    </row>
+    <row r="94" spans="9:11" x14ac:dyDescent="0.25">
       <c r="K94">
-        <v>12940</v>
-      </c>
-    </row>
-    <row r="95" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="K95">
-        <v>12938</v>
-      </c>
-    </row>
-    <row r="96" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="K96">
-        <v>12926</v>
-      </c>
-    </row>
-    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K97">
-        <v>12926</v>
-      </c>
-    </row>
-    <row r="98" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K98">
-        <v>12922</v>
-      </c>
-    </row>
-    <row r="99" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K99">
-        <v>12920</v>
-      </c>
-    </row>
-    <row r="100" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K100">
-        <v>12918</v>
-      </c>
-    </row>
-    <row r="101" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K101">
-        <v>12917</v>
-      </c>
-    </row>
-    <row r="102" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K102">
         <v>12910</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A19"/>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:M126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>-55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5">
+        <f>D5-10*D6*LOG10(D8/D7)</f>
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>60+20</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <f>J7/3</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="176">
+        <v>0.01</v>
+      </c>
+      <c r="M8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f>J8*100</f>
+        <v>2666.666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f>J10/60</f>
+        <v>44.44444444444445</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f>50*50</f>
+        <v>2500</v>
+      </c>
+      <c r="J12">
+        <f>J11/24</f>
+        <v>1.8518518518518521</v>
+      </c>
+      <c r="L12">
+        <f>0.85*24</f>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f>G12/60</f>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13">
+        <f>L12</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f>G13/24</f>
+        <v>1.7361111111111109</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>J12*3</f>
+        <v>5.5555555555555562</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="132" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="132">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f>J8</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="I18">
+        <f>G18/60</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F19" s="132">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f>G18+$J$8</f>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I82" si="0">G19/60</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="132">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f>G19+$J$8</f>
+        <v>80</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="132">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <f>G20+$J$8</f>
+        <v>106.66666666666667</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1.7777777777777779</v>
+      </c>
+      <c r="J21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F22" s="132">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G60" si="1">G21+$J$8</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="132">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F24" s="132">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>186.66666666666666</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F25" s="132">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>213.33333333333331</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F26" s="132">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>239.99999999999997</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="132">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>266.66666666666663</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>4.4444444444444438</v>
+      </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="132">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>293.33333333333331</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>4.8888888888888884</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="132">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F30" s="132">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>346.66666666666669</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>5.7777777777777777</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F31" s="132">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>373.33333333333337</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>6.2222222222222232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F32" s="132">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>400.00000000000006</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666679</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F33" s="132">
+        <v>16</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>426.66666666666674</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>7.1111111111111125</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F34" s="132">
+        <v>17</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>453.33333333333343</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>7.5555555555555571</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="132">
+        <v>18</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>480.00000000000011</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F36" s="132">
+        <v>19</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>506.6666666666668</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>8.4444444444444464</v>
+      </c>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F37" s="132">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>533.33333333333348</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>8.8888888888888911</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F38" s="132">
+        <v>21</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>560.00000000000011</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>9.3333333333333357</v>
+      </c>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F39" s="132">
+        <v>22</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>586.66666666666674</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>9.7777777777777786</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F40" s="132">
+        <v>23</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>613.33333333333337</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>10.222222222222223</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F41" s="132">
+        <v>24</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F42" s="132">
+        <v>25</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F43" s="132">
+        <v>26</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>693.33333333333326</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>11.555555555555554</v>
+      </c>
+      <c r="J43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F44" s="132">
+        <v>27</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>719.99999999999989</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>11.999999999999998</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F45" s="132">
+        <v>28</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>746.66666666666652</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>12.444444444444441</v>
+      </c>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="132">
+        <v>29</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>773.33333333333314</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>12.888888888888886</v>
+      </c>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="132">
+        <v>30</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>799.99999999999977</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>13.33333333333333</v>
+      </c>
+      <c r="J47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F48" s="132">
+        <v>31</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>826.6666666666664</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>13.777777777777773</v>
+      </c>
+      <c r="J48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F49" s="132">
+        <v>32</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>853.33333333333303</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>14.222222222222218</v>
+      </c>
+      <c r="J49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F50" s="132">
+        <v>33</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>879.99999999999966</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>14.666666666666661</v>
+      </c>
+      <c r="J50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F51" s="132">
+        <v>34</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>906.66666666666629</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>15.111111111111105</v>
+      </c>
+      <c r="J51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F52" s="132">
+        <v>35</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>933.33333333333292</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>15.555555555555548</v>
+      </c>
+      <c r="J52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F53" s="132">
+        <v>36</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>959.99999999999955</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>15.999999999999993</v>
+      </c>
+      <c r="J53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F54" s="132">
+        <v>37</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>986.66666666666617</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>16.444444444444436</v>
+      </c>
+      <c r="J54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F55" s="132">
+        <v>38</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>1013.3333333333328</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>16.888888888888879</v>
+      </c>
+      <c r="J55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F56" s="132">
+        <v>39</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>1039.9999999999995</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>17.333333333333325</v>
+      </c>
+      <c r="J56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F57" s="132">
+        <v>40</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>1066.6666666666663</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>17.777777777777771</v>
+      </c>
+      <c r="J57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F58" s="132">
+        <v>41</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>1093.333333333333</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>18.222222222222218</v>
+      </c>
+      <c r="J58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F59" s="132">
+        <v>42</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>1119.9999999999998</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>18.666666666666664</v>
+      </c>
+      <c r="J59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F60" s="132">
+        <v>43</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>1146.6666666666665</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>19.111111111111107</v>
+      </c>
+      <c r="J60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F61" s="132">
+        <v>44</v>
+      </c>
+      <c r="G61">
+        <f>G60+$J$8</f>
+        <v>1173.3333333333333</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>19.555555555555554</v>
+      </c>
+      <c r="J61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F62" s="132">
+        <v>45</v>
+      </c>
+      <c r="G62">
+        <f>G61+$J$8</f>
+        <v>1200</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F63" s="132">
+        <v>46</v>
+      </c>
+      <c r="G63">
+        <f>G62+$J$8</f>
+        <v>1226.6666666666667</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>20.444444444444446</v>
+      </c>
+      <c r="J63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F64" s="132">
+        <v>47</v>
+      </c>
+      <c r="G64">
+        <f t="shared" ref="G64:G126" si="2">G63+$J$8</f>
+        <v>1253.3333333333335</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>20.888888888888893</v>
+      </c>
+      <c r="J64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F65" s="132">
+        <v>48</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>1280.0000000000002</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>21.333333333333336</v>
+      </c>
+      <c r="J65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F66" s="132">
+        <v>49</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>1306.666666666667</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>21.777777777777782</v>
+      </c>
+      <c r="J66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F67" s="132">
+        <v>50</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>1333.3333333333337</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="0"/>
+        <v>22.222222222222229</v>
+      </c>
+      <c r="J67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F68" s="132">
+        <v>51</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>1360.0000000000005</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="0"/>
+        <v>22.666666666666675</v>
+      </c>
+      <c r="J68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F69" s="132">
+        <v>52</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>1386.6666666666672</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="0"/>
+        <v>23.111111111111121</v>
+      </c>
+      <c r="J69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F70" s="132">
+        <v>53</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>1413.3333333333339</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="0"/>
+        <v>23.555555555555564</v>
+      </c>
+      <c r="J70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F71" s="132">
+        <v>54</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>1440.0000000000007</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="0"/>
+        <v>24.000000000000011</v>
+      </c>
+      <c r="J71" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F72" s="132">
+        <v>55</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>1466.6666666666674</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="0"/>
+        <v>24.444444444444457</v>
+      </c>
+      <c r="J72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F73" s="132">
+        <v>56</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>1493.3333333333342</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="0"/>
+        <v>24.888888888888903</v>
+      </c>
+      <c r="J73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F74" s="132">
+        <v>57</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>1520.0000000000009</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="0"/>
+        <v>25.33333333333335</v>
+      </c>
+      <c r="J74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F75" s="132">
+        <v>58</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>1546.6666666666677</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="0"/>
+        <v>25.777777777777793</v>
+      </c>
+      <c r="J75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F76" s="132">
+        <v>59</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>1573.3333333333344</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="0"/>
+        <v>26.222222222222239</v>
+      </c>
+      <c r="J76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F77" s="132">
+        <v>60</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>1600.0000000000011</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="0"/>
+        <v>26.666666666666686</v>
+      </c>
+      <c r="J77" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F78" s="132">
+        <v>61</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>1626.6666666666679</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="0"/>
+        <v>27.111111111111132</v>
+      </c>
+      <c r="J78" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F79" s="132">
+        <v>62</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>1653.3333333333346</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="0"/>
+        <v>27.555555555555578</v>
+      </c>
+      <c r="J79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F80" s="132">
+        <v>63</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>1680.0000000000014</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="0"/>
+        <v>28.000000000000021</v>
+      </c>
+      <c r="J80" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F81" s="132">
+        <v>64</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>1706.6666666666681</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="0"/>
+        <v>28.444444444444468</v>
+      </c>
+      <c r="J81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F82" s="132">
+        <v>65</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>1733.3333333333348</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="0"/>
+        <v>28.888888888888914</v>
+      </c>
+      <c r="J82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F83" s="132">
+        <v>66</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="2"/>
+        <v>1760.0000000000016</v>
+      </c>
+      <c r="I83">
+        <f t="shared" ref="I83:I118" si="3">G83/60</f>
+        <v>29.333333333333361</v>
+      </c>
+      <c r="J83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F84" s="132">
+        <v>67</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="2"/>
+        <v>1786.6666666666683</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>29.777777777777807</v>
+      </c>
+      <c r="J84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F85" s="132">
+        <v>68</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>1813.3333333333351</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="3"/>
+        <v>30.22222222222225</v>
+      </c>
+      <c r="J85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F86" s="132">
+        <v>69</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="2"/>
+        <v>1840.0000000000018</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>30.666666666666696</v>
+      </c>
+      <c r="J86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F87" s="132">
+        <v>70</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>1866.6666666666686</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="3"/>
+        <v>31.111111111111143</v>
+      </c>
+      <c r="J87" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F88" s="132">
+        <v>71</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="2"/>
+        <v>1893.3333333333353</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="3"/>
+        <v>31.555555555555589</v>
+      </c>
+      <c r="J88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F89" s="132">
+        <v>72</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="2"/>
+        <v>1920.000000000002</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="3"/>
+        <v>32.000000000000036</v>
+      </c>
+      <c r="J89" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F90" s="132">
+        <v>73</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="2"/>
+        <v>1946.6666666666688</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="3"/>
+        <v>32.444444444444478</v>
+      </c>
+      <c r="J90" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F91" s="132">
+        <v>74</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>1973.3333333333355</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>32.888888888888928</v>
+      </c>
+      <c r="J91" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F92" s="132">
+        <v>75</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="2"/>
+        <v>2000.0000000000023</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="3"/>
+        <v>33.333333333333371</v>
+      </c>
+      <c r="J92" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F93" s="132">
+        <v>76</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="2"/>
+        <v>2026.666666666669</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="3"/>
+        <v>33.777777777777814</v>
+      </c>
+      <c r="J93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F94" s="132">
+        <v>77</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="2"/>
+        <v>2053.3333333333358</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="3"/>
+        <v>34.222222222222264</v>
+      </c>
+      <c r="J94" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F95" s="132">
+        <v>78</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="2"/>
+        <v>2080.0000000000023</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="3"/>
+        <v>34.666666666666707</v>
+      </c>
+      <c r="J95" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F96" s="132">
+        <v>79</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="2"/>
+        <v>2106.6666666666688</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="3"/>
+        <v>35.11111111111115</v>
+      </c>
+      <c r="J96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F97" s="132">
+        <v>80</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="2"/>
+        <v>2133.3333333333353</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="3"/>
+        <v>35.555555555555586</v>
+      </c>
+      <c r="J97" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F98" s="132">
+        <v>81</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="2"/>
+        <v>2160.0000000000018</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="3"/>
+        <v>36.000000000000028</v>
+      </c>
+      <c r="J98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F99" s="132">
+        <v>82</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="2"/>
+        <v>2186.6666666666683</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="3"/>
+        <v>36.444444444444471</v>
+      </c>
+      <c r="J99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F100" s="132">
+        <v>83</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="2"/>
+        <v>2213.3333333333348</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="3"/>
+        <v>36.888888888888914</v>
+      </c>
+      <c r="J100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F101" s="132">
+        <v>84</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="2"/>
+        <v>2240.0000000000014</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="3"/>
+        <v>37.333333333333357</v>
+      </c>
+      <c r="J101" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F102" s="132">
+        <v>85</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="2"/>
+        <v>2266.6666666666679</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="3"/>
+        <v>37.7777777777778</v>
+      </c>
+      <c r="J102" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F103" s="132">
+        <v>86</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>2293.3333333333344</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="3"/>
+        <v>38.222222222222243</v>
+      </c>
+      <c r="J103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F104" s="132">
+        <v>87</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>2320.0000000000009</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="3"/>
+        <v>38.666666666666679</v>
+      </c>
+      <c r="J104" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F105" s="132">
+        <v>88</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>2346.6666666666674</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="3"/>
+        <v>39.111111111111121</v>
+      </c>
+      <c r="J105" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F106" s="132">
+        <v>89</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>2373.3333333333339</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="3"/>
+        <v>39.555555555555564</v>
+      </c>
+      <c r="J106" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F107" s="132">
+        <v>90</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>2400.0000000000005</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="3"/>
+        <v>40.000000000000007</v>
+      </c>
+      <c r="J107" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F108" s="132">
+        <v>91</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>2426.666666666667</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="3"/>
+        <v>40.44444444444445</v>
+      </c>
+      <c r="J108" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F109" s="132">
+        <v>92</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>2453.3333333333335</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="3"/>
+        <v>40.888888888888893</v>
+      </c>
+      <c r="J109" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F110" s="132">
+        <v>93</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>2480</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="3"/>
+        <v>41.333333333333336</v>
+      </c>
+      <c r="J110" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F111" s="132">
+        <v>94</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>2506.6666666666665</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="3"/>
+        <v>41.777777777777779</v>
+      </c>
+      <c r="J111" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F112" s="132">
+        <v>95</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>2533.333333333333</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="3"/>
+        <v>42.222222222222214</v>
+      </c>
+      <c r="J112" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F113" s="132">
+        <v>96</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>2559.9999999999995</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="3"/>
+        <v>42.666666666666657</v>
+      </c>
+      <c r="J113" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F114" s="132">
+        <v>97</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="2"/>
+        <v>2586.6666666666661</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="3"/>
+        <v>43.1111111111111</v>
+      </c>
+      <c r="J114" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F115" s="132">
+        <v>98</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="2"/>
+        <v>2613.3333333333326</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="3"/>
+        <v>43.555555555555543</v>
+      </c>
+      <c r="J115" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F116" s="132">
+        <v>99</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="2"/>
+        <v>2639.9999999999991</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="3"/>
+        <v>43.999999999999986</v>
+      </c>
+      <c r="J116" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F117" s="132">
+        <v>100</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="2"/>
+        <v>2666.6666666666656</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="3"/>
+        <v>44.444444444444429</v>
+      </c>
+      <c r="J117" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G118">
+        <f t="shared" si="2"/>
+        <v>2693.3333333333321</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="3"/>
+        <v>44.888888888888872</v>
+      </c>
+      <c r="J118" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>2719.9999999999986</v>
+      </c>
+    </row>
+    <row r="120" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G120">
+        <f t="shared" si="2"/>
+        <v>2746.6666666666652</v>
+      </c>
+    </row>
+    <row r="121" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>2773.3333333333317</v>
+      </c>
+    </row>
+    <row r="122" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G122">
+        <f t="shared" si="2"/>
+        <v>2799.9999999999982</v>
+      </c>
+    </row>
+    <row r="123" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G123">
+        <f t="shared" si="2"/>
+        <v>2826.6666666666647</v>
+      </c>
+    </row>
+    <row r="124" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G124">
+        <f t="shared" si="2"/>
+        <v>2853.3333333333312</v>
+      </c>
+    </row>
+    <row r="125" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G125">
+        <f t="shared" si="2"/>
+        <v>2879.9999999999977</v>
+      </c>
+    </row>
+    <row r="126" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="G126">
+        <f t="shared" si="2"/>
+        <v>2906.6666666666642</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/SurveyFiles/Log simulaciones PLC.xlsx
+++ b/trunk/SurveyFiles/Log simulaciones PLC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="16515" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="16515" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="PLC" sheetId="1" r:id="rId1"/>
@@ -2207,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -8694,8 +8694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:M126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8816,12 +8816,12 @@
         <v>5.5555555555555562</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F17" s="132" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F18" s="132">
         <v>1</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F19" s="132">
         <v>2</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F20" s="132">
         <v>3</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F21" s="132">
         <v>4</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F22" s="132">
         <v>5</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F23" s="132">
         <v>6</v>
       </c>
@@ -8917,7 +8917,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F24" s="132">
         <v>7</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F25" s="132">
         <v>8</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F26" s="132">
         <v>9</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F27" s="132">
         <v>10</v>
       </c>
@@ -8980,8 +8980,12 @@
       <c r="J27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f>0.33*60</f>
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F28" s="132">
         <v>11</v>
       </c>
@@ -8997,7 +9001,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F29" s="132">
         <v>12</v>
       </c>
@@ -9013,7 +9017,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F30" s="132">
         <v>13</v>
       </c>
@@ -9029,7 +9033,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F31" s="132">
         <v>14</v>
       </c>
@@ -9045,7 +9049,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F32" s="132">
         <v>15</v>
       </c>
